--- a/measurements/measurements.xlsx
+++ b/measurements/measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="encode k=10,m=3, w=8" sheetId="2" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>k=10 m=3 w=8 file=16MB</t>
   </si>
   <si>
-    <t>In MBps</t>
+    <t>decode(from K-M blocks)</t>
   </si>
   <si>
-    <t>decode(from K-M blocks)</t>
+    <t>In GBps</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -732,11 +731,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109151544"/>
-        <c:axId val="2109158392"/>
+        <c:axId val="-2112224056"/>
+        <c:axId val="-2112137864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109151544"/>
+        <c:axId val="-2112224056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,13 +757,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109158392"/>
+        <c:crossAx val="-2112137864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109158392"/>
+        <c:axId val="-2112137864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -796,21 +794,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109151544"/>
+        <c:crossAx val="-2112224056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1071,11 +1067,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2137782232"/>
-        <c:axId val="2137783640"/>
+        <c:axId val="2138978104"/>
+        <c:axId val="2138611656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137782232"/>
+        <c:axId val="2138978104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137783640"/>
+        <c:crossAx val="2138611656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137783640"/>
+        <c:axId val="2138611656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137782232"/>
+        <c:crossAx val="2138978104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,11 +1386,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112903560"/>
-        <c:axId val="2123307944"/>
+        <c:axId val="2138708216"/>
+        <c:axId val="2138337928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112903560"/>
+        <c:axId val="2138708216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123307944"/>
+        <c:crossAx val="2138337928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123307944"/>
+        <c:axId val="2138337928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1430,7 +1426,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MBps</a:t>
+                  <a:t>GBps</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1442,7 +1438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112903560"/>
+        <c:crossAx val="2138708216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,7 +1485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1927,11 +1922,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2107729800"/>
-        <c:axId val="2107724296"/>
+        <c:axId val="-2112175784"/>
+        <c:axId val="2138214936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107729800"/>
+        <c:axId val="-2112175784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,13 +1948,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107724296"/>
+        <c:crossAx val="2138214936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1967,7 +1961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107724296"/>
+        <c:axId val="2138214936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1991,21 +1985,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107729800"/>
+        <c:crossAx val="-2112175784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2050,7 +2042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2488,11 +2479,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2107669880"/>
-        <c:axId val="2107664376"/>
+        <c:axId val="-2112151784"/>
+        <c:axId val="2138319560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107669880"/>
+        <c:axId val="-2112151784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,13 +2505,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107664376"/>
+        <c:crossAx val="2138319560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2528,7 +2518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107664376"/>
+        <c:axId val="2138319560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2552,21 +2542,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107669880"/>
+        <c:crossAx val="-2112151784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3049,11 +3037,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110171720"/>
-        <c:axId val="2110177208"/>
+        <c:axId val="2110268904"/>
+        <c:axId val="2110262984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110171720"/>
+        <c:axId val="2110268904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,7 +3069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110177208"/>
+        <c:crossAx val="2110262984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3089,7 +3077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110177208"/>
+        <c:axId val="2110262984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3120,7 +3108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110171720"/>
+        <c:crossAx val="2110268904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3608,11 +3596,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110219368"/>
-        <c:axId val="2110224856"/>
+        <c:axId val="2138346792"/>
+        <c:axId val="2138986008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110219368"/>
+        <c:axId val="2138346792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110224856"/>
+        <c:crossAx val="2138986008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110224856"/>
+        <c:axId val="2138986008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3679,7 +3667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110219368"/>
+        <c:crossAx val="2138346792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4164,11 +4152,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110266088"/>
-        <c:axId val="2110271576"/>
+        <c:axId val="-2111039176"/>
+        <c:axId val="2081072904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110266088"/>
+        <c:axId val="-2111039176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110271576"/>
+        <c:crossAx val="2081072904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4204,7 +4192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110271576"/>
+        <c:axId val="2081072904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4235,7 +4223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110266088"/>
+        <c:crossAx val="-2111039176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4720,11 +4708,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2117654792"/>
-        <c:axId val="2117739640"/>
+        <c:axId val="2129663816"/>
+        <c:axId val="-2111401272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117654792"/>
+        <c:axId val="2129663816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,7 +4740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117739640"/>
+        <c:crossAx val="-2111401272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4760,7 +4748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117739640"/>
+        <c:axId val="-2111401272"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4792,7 +4780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117654792"/>
+        <c:crossAx val="2129663816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5280,11 +5268,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122698840"/>
-        <c:axId val="2127474136"/>
+        <c:axId val="-2111074952"/>
+        <c:axId val="-2111069464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122698840"/>
+        <c:axId val="-2111074952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,7 +5300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127474136"/>
+        <c:crossAx val="-2111069464"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5320,7 +5308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127474136"/>
+        <c:axId val="-2111069464"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5352,7 +5340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122698840"/>
+        <c:crossAx val="-2111074952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5837,11 +5825,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122477016"/>
-        <c:axId val="2126861864"/>
+        <c:axId val="2130004408"/>
+        <c:axId val="2122048952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122477016"/>
+        <c:axId val="2130004408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5869,7 +5857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126861864"/>
+        <c:crossAx val="2122048952"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5877,7 +5865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126861864"/>
+        <c:axId val="2122048952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5909,7 +5897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122477016"/>
+        <c:crossAx val="2130004408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19125,7 +19113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -19147,8 +19135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19164,7 +19152,7 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20095,11 +20083,11 @@
         <v>21</v>
       </c>
       <c r="B114" s="1">
-        <f>B108-B107</f>
+        <f t="shared" ref="B114:C116" si="0">B108-B107</f>
         <v>2.4499999999999993</v>
       </c>
       <c r="C114" s="1">
-        <f>C108-C107</f>
+        <f t="shared" si="0"/>
         <v>1.5925000000000011</v>
       </c>
       <c r="D114" t="s">
@@ -20111,11 +20099,11 @@
         <v>22</v>
       </c>
       <c r="B115" s="1">
-        <f>B109-B108</f>
+        <f t="shared" si="0"/>
         <v>4.2025000000000006</v>
       </c>
       <c r="C115" s="1">
-        <f>C109-C108</f>
+        <f t="shared" si="0"/>
         <v>1.7850000000000001</v>
       </c>
       <c r="D115" t="s">
@@ -20127,11 +20115,11 @@
         <v>23</v>
       </c>
       <c r="B116" s="2">
-        <f>B110-B109</f>
+        <f t="shared" si="0"/>
         <v>16.062500000000004</v>
       </c>
       <c r="C116" s="2">
-        <f>C110-C109</f>
+        <f t="shared" si="0"/>
         <v>17.144999999999996</v>
       </c>
       <c r="D116" t="s">
@@ -20140,7 +20128,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -20148,11 +20136,11 @@
         <v>20</v>
       </c>
       <c r="B119" s="3">
-        <f>B112/16</f>
+        <f>B112*0.0625</f>
         <v>0.21531250000000002</v>
       </c>
       <c r="C119" s="3">
-        <f>C112/16</f>
+        <f>C112*0.0625</f>
         <v>8.6718750000000067E-2</v>
       </c>
       <c r="D119" t="s">
@@ -20164,11 +20152,11 @@
         <v>16</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" ref="B120:C123" si="0">B113/16</f>
+        <f t="shared" ref="B120:C123" si="1">B113*0.0625</f>
         <v>1.2959375</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99484375000000003</v>
       </c>
       <c r="D120" t="s">
@@ -20180,11 +20168,11 @@
         <v>21</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15312499999999996</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9531250000000071E-2</v>
       </c>
       <c r="D121" t="s">
@@ -20196,11 +20184,11 @@
         <v>22</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26265625000000004</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11156250000000001</v>
       </c>
       <c r="D122" t="s">
@@ -20212,11 +20200,11 @@
         <v>23</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0039062500000002</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0715624999999998</v>
       </c>
       <c r="D123" t="s">

--- a/measurements/measurements.xlsx
+++ b/measurements/measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="encode k=10,m=3, w=8" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>w=8</t>
   </si>
@@ -121,7 +121,16 @@
     <t>decode(from K-M blocks)</t>
   </si>
   <si>
-    <t>In GBps</t>
+    <t>encode (GBps)</t>
+  </si>
+  <si>
+    <t>decode(GBps)</t>
+  </si>
+  <si>
+    <t>Whisker low</t>
+  </si>
+  <si>
+    <t>Whisker top</t>
   </si>
 </sst>
 </file>
@@ -731,11 +740,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112224056"/>
-        <c:axId val="-2112137864"/>
+        <c:axId val="-2112006440"/>
+        <c:axId val="-2112200024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112224056"/>
+        <c:axId val="-2112006440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112137864"/>
+        <c:crossAx val="-2112200024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -770,7 +779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112137864"/>
+        <c:axId val="-2112200024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -800,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112224056"/>
+        <c:crossAx val="-2112006440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2138978104"/>
-        <c:axId val="2138611656"/>
+        <c:axId val="2109161128"/>
+        <c:axId val="2109141912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138978104"/>
+        <c:axId val="2109161128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138611656"/>
+        <c:crossAx val="2109141912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1088,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138611656"/>
+        <c:axId val="2109141912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138978104"/>
+        <c:crossAx val="2109161128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'encode vs decode'!$A$120</c:f>
+              <c:f>'encode vs decode'!$A$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1208,23 +1217,23 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>0.2153125</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08671875</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>'encode vs decode'!$F$112:$G$112</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.215979362661366</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.390180477717588</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:minus>
           </c:errBars>
           <c:cat>
@@ -1243,15 +1252,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'encode vs decode'!$B$120:$C$120</c:f>
+              <c:f>'encode vs decode'!$F$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.2959375</c:v>
+                  <c:v>0.584218718242493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99484375</c:v>
+                  <c:v>0.829258414051287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1271,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'encode vs decode'!$A$121</c:f>
+              <c:f>'encode vs decode'!$A$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1288,15 +1297,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'encode vs decode'!$B$121:$C$121</c:f>
+              <c:f>'encode vs decode'!$F$114:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.153125</c:v>
+                  <c:v>0.105941989332232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09953125</c:v>
+                  <c:v>0.0845051496266107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1316,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'encode vs decode'!$A$122</c:f>
+              <c:f>'encode vs decode'!$A$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1323,15 +1332,15 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'encode vs decode'!$B$123:$C$123</c:f>
+                <c:f>'encode vs decode'!$F$116:$G$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.00390625</c:v>
+                    <c:v>0.153737297230977</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0715625</c:v>
+                    <c:v>0.0959869439940051</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1362,15 +1371,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'encode vs decode'!$B$122:$C$122</c:f>
+              <c:f>'encode vs decode'!$F$115:$G$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26265625</c:v>
+                  <c:v>0.0814923942689065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1115625</c:v>
+                  <c:v>0.0914194854457841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,11 +1395,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2138708216"/>
-        <c:axId val="2138337928"/>
+        <c:axId val="2137179240"/>
+        <c:axId val="-2111325224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138708216"/>
+        <c:axId val="2137179240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138337928"/>
+        <c:crossAx val="-2111325224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1407,7 +1416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138337928"/>
+        <c:axId val="-2111325224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1438,7 +1447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138708216"/>
+        <c:crossAx val="2137179240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,11 +1931,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112175784"/>
-        <c:axId val="2138214936"/>
+        <c:axId val="2137046264"/>
+        <c:axId val="-2112416536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112175784"/>
+        <c:axId val="2137046264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138214936"/>
+        <c:crossAx val="-2112416536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138214936"/>
+        <c:axId val="-2112416536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1991,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112175784"/>
+        <c:crossAx val="2137046264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2479,11 +2488,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112151784"/>
-        <c:axId val="2138319560"/>
+        <c:axId val="-2112299928"/>
+        <c:axId val="-2112584952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112151784"/>
+        <c:axId val="-2112299928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138319560"/>
+        <c:crossAx val="-2112584952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2518,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138319560"/>
+        <c:axId val="-2112584952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2548,7 +2557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112151784"/>
+        <c:crossAx val="-2112299928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2599,7 +2608,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3037,11 +3045,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110268904"/>
-        <c:axId val="2110262984"/>
+        <c:axId val="2105642536"/>
+        <c:axId val="-2110806440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110268904"/>
+        <c:axId val="2105642536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,13 +3071,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110262984"/>
+        <c:crossAx val="-2110806440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3077,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110262984"/>
+        <c:axId val="-2110806440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3101,14 +3108,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110268904"/>
+        <c:crossAx val="2105642536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3155,7 +3161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3596,11 +3601,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2138346792"/>
-        <c:axId val="2138986008"/>
+        <c:axId val="2109138568"/>
+        <c:axId val="-2110944088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138346792"/>
+        <c:axId val="2109138568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,13 +3627,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138986008"/>
+        <c:crossAx val="-2110944088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +3640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138986008"/>
+        <c:axId val="-2110944088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3660,14 +3664,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138346792"/>
+        <c:crossAx val="2109138568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,7 +3717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4152,11 +4154,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2111039176"/>
-        <c:axId val="2081072904"/>
+        <c:axId val="-2110903640"/>
+        <c:axId val="-2110898152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111039176"/>
+        <c:axId val="-2110903640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,13 +4180,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081072904"/>
+        <c:crossAx val="-2110898152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4192,7 +4193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081072904"/>
+        <c:axId val="-2110898152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4216,14 +4217,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111039176"/>
+        <c:crossAx val="-2110903640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4270,7 +4270,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4708,11 +4707,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2129663816"/>
-        <c:axId val="-2111401272"/>
+        <c:axId val="-2110857112"/>
+        <c:axId val="-2110851624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129663816"/>
+        <c:axId val="-2110857112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,13 +4733,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111401272"/>
+        <c:crossAx val="-2110851624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4748,7 +4746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111401272"/>
+        <c:axId val="-2110851624"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4773,14 +4771,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129663816"/>
+        <c:crossAx val="-2110857112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4827,7 +4824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5268,11 +5264,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2111074952"/>
-        <c:axId val="-2111069464"/>
+        <c:axId val="2138262952"/>
+        <c:axId val="2138634120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111074952"/>
+        <c:axId val="2138262952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5294,13 +5290,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111069464"/>
+        <c:crossAx val="2138634120"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5308,7 +5303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111069464"/>
+        <c:axId val="2138634120"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5333,14 +5328,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111074952"/>
+        <c:crossAx val="2138262952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5387,7 +5381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5825,11 +5818,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2130004408"/>
-        <c:axId val="2122048952"/>
+        <c:axId val="-2112270376"/>
+        <c:axId val="2110242872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130004408"/>
+        <c:axId val="-2112270376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5851,13 +5844,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122048952"/>
+        <c:crossAx val="2110242872"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5865,7 +5857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122048952"/>
+        <c:axId val="2110242872"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5890,14 +5882,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130004408"/>
+        <c:crossAx val="-2112270376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6224,16 +6215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6254,16 +6245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19133,10 +19124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19144,7 +19135,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -19154,808 +19145,1614 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2">
         <v>17.29</v>
       </c>
       <c r="C2">
         <v>17.649999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <f>16/B2</f>
+        <v>0.92539039907460963</v>
+      </c>
+      <c r="G2">
+        <f>16/C2</f>
+        <v>0.90651558073654404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>17.78</v>
       </c>
       <c r="C3">
         <v>23.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">16/B3</f>
+        <v>0.8998875140607423</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">16/C3</f>
+        <v>0.68758057584873233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>18.350000000000001</v>
       </c>
       <c r="C4">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.87193460490463204</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.7346189164370982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>20.59</v>
       </c>
       <c r="C5">
         <v>17.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.77707625060709085</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.9116809116809117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>19.53</v>
       </c>
       <c r="C6">
         <v>19.68</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.81925243215565791</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.81300813008130079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>21.12</v>
       </c>
       <c r="C7">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.69324090121317161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>18.34</v>
       </c>
       <c r="C8">
         <v>26.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.8724100327153762</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.61443932411674351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>19.07</v>
       </c>
       <c r="C9">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.83901415836392235</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.92325447201384891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>18.489999999999998</v>
       </c>
       <c r="C10">
         <v>24.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.86533261222282321</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.6655574043261232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>18.07</v>
       </c>
       <c r="C11">
         <v>25.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.88544548976203652</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.62378167641325544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>36.909999999999997</v>
       </c>
       <c r="C12">
         <v>15.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.43348685992955843</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.0309278350515465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>21.05</v>
       </c>
       <c r="C13">
         <v>16.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.76009501187648454</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.96560048280024136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>20.78</v>
       </c>
       <c r="C14">
         <v>18.579999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.76997112608277185</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.86114101184068903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>22.09</v>
       </c>
       <c r="C15">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.72430964237211404</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>18.59</v>
       </c>
       <c r="C16">
         <v>17.43</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.86067778375470683</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.91795754446356859</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>21.36</v>
       </c>
       <c r="C17">
         <v>19.489999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.8209338122113905</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>27.59</v>
       </c>
       <c r="C18">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.57992026096411742</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.92592592592592582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>20.48</v>
       </c>
       <c r="C19">
         <v>17.07</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.93731693028705332</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>22.07</v>
       </c>
       <c r="C20">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.72496601721794285</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.91376356367789824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>32.01</v>
       </c>
       <c r="C21">
         <v>16.91</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.499843798812871</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.94618568894145472</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>19.63</v>
       </c>
       <c r="C22">
         <v>36.32</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.81507896077432507</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.44052863436123346</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>25.62</v>
       </c>
       <c r="C23">
         <v>18.32</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.62451209992193601</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.8733624454148472</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>29.97</v>
       </c>
       <c r="C24">
         <v>21.29</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.53386720053386727</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.75152653828088312</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>41</v>
       </c>
       <c r="C25">
         <v>17.22</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.92915214866434381</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>29.25</v>
       </c>
       <c r="C26">
         <v>18.38</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.54700854700854706</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.87051142546245919</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>32.049999999999997</v>
       </c>
       <c r="C27">
         <v>19.559999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.49921996879875197</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.81799591002044991</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>24.35</v>
       </c>
       <c r="C28">
         <v>18.170000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.65708418891170428</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.88057237204182714</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>20.6</v>
       </c>
       <c r="C29">
         <v>20.96</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.76335877862595414</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>26.11</v>
       </c>
       <c r="C30">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.61279203370356183</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.92753623188405798</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>36.42</v>
       </c>
       <c r="C31">
         <v>18.989999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.43931905546403072</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.84254870984728814</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>43.45</v>
       </c>
       <c r="C32">
         <v>23.43</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.36823935558112769</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.6828851899274434</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>22.06</v>
       </c>
       <c r="C33">
         <v>15.41</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.72529465095194923</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1.0382868267358858</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>23.5</v>
       </c>
       <c r="C34">
         <v>20.03</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.79880179730404388</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>24.55</v>
       </c>
       <c r="C35">
         <v>20.11</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.65173116089613037</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.79562406762804572</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>21.24</v>
       </c>
       <c r="C36">
         <v>16.89</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.75329566854990593</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.94730609828300771</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>22.49</v>
       </c>
       <c r="C37">
         <v>15.43</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.71142730102267682</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.0369410239792611</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38">
         <v>19.72</v>
       </c>
       <c r="C38">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.81135902636916846</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1.0437051532941943</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39">
         <v>27.24</v>
       </c>
       <c r="C39">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.58737151248164465</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.83769633507853392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40">
         <v>20.03</v>
       </c>
       <c r="C40">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.79880179730404388</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1.0631229235880397</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41">
         <v>24.4</v>
       </c>
       <c r="C41">
         <v>20.52</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.65573770491803285</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.77972709551656927</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42">
         <v>24.1</v>
       </c>
       <c r="C42">
         <v>20.65</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.66390041493775931</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.7748184019370461</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43">
         <v>34.090000000000003</v>
       </c>
       <c r="C43">
         <v>14.87</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.46934584922264588</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1.0759919300605245</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44">
         <v>24.26</v>
       </c>
       <c r="C44">
         <v>20.04</v>
       </c>
-    </row>
-    <row r="45" spans="2:3">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.65952184666117064</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.79840319361277445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45">
         <v>23.49</v>
       </c>
       <c r="C45">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.68114091102596852</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.64751112909753139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>20.89</v>
       </c>
       <c r="C46">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.7659167065581618</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1.0062893081761006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>30.12</v>
       </c>
       <c r="C47">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:3">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.53120849933598935</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.91376356367789824</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>27.09</v>
       </c>
       <c r="C48">
         <v>20.170000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.59062384643779997</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.79325731284085266</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>21.73</v>
       </c>
       <c r="C49">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.73630924988495161</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.92699884125144838</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>22.97</v>
       </c>
       <c r="C50">
         <v>16.27</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.69656073138876795</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.98340503995082973</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>19.89</v>
       </c>
       <c r="C51">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.80442433383609857</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1.0230179028132993</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>19.77</v>
       </c>
       <c r="C52">
         <v>14.97</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.80930703085483058</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1.0688042752171008</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>22.64</v>
       </c>
       <c r="C53">
         <v>24.55</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.70671378091872794</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.65173116089613037</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>23.91</v>
       </c>
       <c r="C54">
         <v>20.38</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.66917607695524883</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.78508341511285573</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>25.22</v>
       </c>
       <c r="C55">
         <v>27.61</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.63441712926249016</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.57950018109380663</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>22.85</v>
       </c>
       <c r="C56">
         <v>16.239999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.70021881838074396</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.98522167487684742</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>21.83</v>
       </c>
       <c r="C57">
         <v>14.53</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.73293632615666515</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.1011699931176875</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>23.51</v>
       </c>
       <c r="C58">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.68056146320714583</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.032258064516129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59">
         <v>35.020000000000003</v>
       </c>
       <c r="C59">
         <v>16.29</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.45688178183894912</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.98219766728054025</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60">
         <v>33.89</v>
       </c>
       <c r="C60">
         <v>16.05</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.47211566833874297</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.99688473520249221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61">
         <v>30.91</v>
       </c>
       <c r="C61">
         <v>15.28</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.51763183435781301</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1.0471204188481675</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62">
         <v>21.94</v>
       </c>
       <c r="C62">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.72926162260711025</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.92325447201384891</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63">
         <v>24.92</v>
       </c>
       <c r="C63">
         <v>19.23</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.6420545746388443</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.8320332813312532</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64">
         <v>36</v>
       </c>
       <c r="C64">
         <v>15.86</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1.0088272383354351</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65">
         <v>24.2</v>
       </c>
       <c r="C65">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.66115702479338845</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.86160473882606348</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66">
         <v>25.46</v>
       </c>
       <c r="C66">
         <v>16.72</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.62843676355066769</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.95693779904306231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67">
         <v>38.39</v>
       </c>
       <c r="C67">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="2">16/B67</f>
+        <v>0.41677520187548839</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" si="3">16/C67</f>
+        <v>0.92699884125144838</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68">
         <v>22.44</v>
       </c>
       <c r="C68">
         <v>19.97</v>
       </c>
-    </row>
-    <row r="69" spans="2:3">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.71301247771836007</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0.80120180270405617</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69">
         <v>19.350000000000001</v>
       </c>
       <c r="C69">
         <v>18.93</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.82687338501291985</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0.84521922873745381</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70">
         <v>22.04</v>
       </c>
       <c r="C70">
         <v>17.82</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0.72595281306715065</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0.89786756453423122</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71">
         <v>20.13</v>
       </c>
       <c r="C71">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0.79483358171882768</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1.0847457627118644</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72">
         <v>21.08</v>
       </c>
       <c r="C72">
         <v>17.52</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.75901328273244784</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0.91324200913242015</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73">
         <v>28.67</v>
       </c>
       <c r="C73">
         <v>18.46</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0.55807464248343208</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0.86673889490790901</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74">
         <v>19.32</v>
       </c>
       <c r="C74">
         <v>15.09</v>
       </c>
-    </row>
-    <row r="75" spans="2:3">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0.82815734989648027</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>1.0603048376408217</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75">
         <v>19.690000000000001</v>
       </c>
       <c r="C75">
         <v>18.12</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0.81259522600304723</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0.88300220750551872</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76">
         <v>32.619999999999997</v>
       </c>
       <c r="C76">
         <v>15.14</v>
       </c>
-    </row>
-    <row r="77" spans="2:3">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0.49049662783568365</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>1.0568031704095111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77">
         <v>21.17</v>
       </c>
       <c r="C77">
         <v>16.18</v>
       </c>
-    </row>
-    <row r="78" spans="2:3">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0.75578649031648548</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0.9888751545117429</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78">
         <v>29.58</v>
       </c>
       <c r="C78">
         <v>15.82</v>
       </c>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0.54090601757944556</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>1.0113780025284449</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79">
         <v>27.32</v>
       </c>
       <c r="C79">
         <v>16.059999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="2:3">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0.58565153733528552</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.9962640099626402</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80">
         <v>27.9</v>
       </c>
       <c r="C80">
         <v>15.68</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0.57347670250896066</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>1.0204081632653061</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81">
         <v>42.29</v>
       </c>
       <c r="C81">
         <v>15.92</v>
       </c>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0.37834003310475289</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>1.0050251256281406</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82">
         <v>29.91</v>
       </c>
       <c r="C82">
         <v>18.059999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0.53493814777666338</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0.88593576965669996</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83">
         <v>22.73</v>
       </c>
       <c r="C83">
         <v>17.670000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0.70391553013638364</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>0.90548953027730605</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84">
         <v>20.41</v>
       </c>
       <c r="C84">
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0.78392944634982853</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>0.94562647754137108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85">
         <v>22.75</v>
       </c>
       <c r="C85">
         <v>15.44</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0.70329670329670335</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>1.0362694300518136</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86">
         <v>29.93</v>
       </c>
       <c r="C86">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0.53458068827263616</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>0.8625336927223719</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87">
         <v>20.48</v>
       </c>
       <c r="C87">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0.78125</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0.87431693989071035</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88">
         <v>33.450000000000003</v>
       </c>
       <c r="C88">
         <v>16.079999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0.47832585949177875</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0.99502487562189068</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89">
         <v>26</v>
       </c>
       <c r="C89">
         <v>17.77</v>
       </c>
-    </row>
-    <row r="90" spans="2:3">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>0.90039392234102422</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90">
         <v>23.4</v>
       </c>
       <c r="C90">
         <v>15.17</v>
       </c>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>0.68376068376068377</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>1.054713249835201</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91">
         <v>20.99</v>
       </c>
       <c r="C91">
         <v>18.77</v>
       </c>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>0.76226774654597429</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>0.85242408098028766</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92">
         <v>22.58</v>
       </c>
       <c r="C92">
         <v>15.71</v>
       </c>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>0.70859167404782997</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>1.0184595798854232</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93">
         <v>24.07</v>
       </c>
       <c r="C93">
         <v>36.44</v>
       </c>
-    </row>
-    <row r="94" spans="2:3">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>0.66472787702534275</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>0.43907793633369924</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94">
         <v>20.39</v>
       </c>
       <c r="C94">
         <v>19.22</v>
       </c>
-    </row>
-    <row r="95" spans="2:3">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>0.78469838155958804</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>0.83246618106139447</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95">
         <v>29.51</v>
       </c>
       <c r="C95">
         <v>15.91</v>
       </c>
-    </row>
-    <row r="96" spans="2:3">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>0.54218908844459501</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>1.005656819610308</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
       <c r="B96">
         <v>24.24</v>
       </c>
       <c r="C96">
         <v>15.98</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>0.66006600660066006</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>1.0012515644555695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="B97">
         <v>23.62</v>
       </c>
       <c r="C97">
         <v>15.71</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>0.67739204064352243</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>1.0184595798854232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="B98">
         <v>22.17</v>
       </c>
       <c r="C98">
         <v>14.95</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>0.72169598556608028</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>1.0702341137123745</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="B99">
         <v>20.010000000000002</v>
       </c>
       <c r="C99">
         <v>15.98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>0.79960019990004993</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>1.0012515644555695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="B100">
         <v>23.78</v>
       </c>
       <c r="C100">
         <v>14.83</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>0.67283431455004206</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>1.078894133513149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="B101">
         <v>24.68</v>
       </c>
       <c r="C101">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>0.64829821717990277</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>0.87671232876712324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -19967,8 +20764,16 @@
         <f>AVERAGE(C2:C101)</f>
         <v>18.383499999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <f t="shared" ref="D103:G103" si="4">AVERAGE(F2:F101)</f>
+        <v>0.67342792956768394</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>0.89693063588256705</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -19980,8 +20785,16 @@
         <f>STDEV(C2:C101)</f>
         <v>3.7660831875780074</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F104">
+        <f t="shared" ref="D104:G104" si="5">STDEV(F2:F101)</f>
+        <v>0.130699229921663</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>0.13695875749352229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -19993,8 +20806,16 @@
         <f>MIN(C2:C101)</f>
         <v>14.53</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <f t="shared" ref="D106:G106" si="6">MIN(F2:F101)</f>
+        <v>0.36823935558112769</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>0.43907793633369924</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -20006,8 +20827,16 @@
         <f>_xlfn.QUARTILE.INC(C2:C101,1)</f>
         <v>15.9175</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <f t="shared" ref="D107:G107" si="7">_xlfn.QUARTILE.INC(F2:F101,1)</f>
+        <v>0.5842187182424935</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>0.82925841405128753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -20019,8 +20848,16 @@
         <f>MEDIAN(C2:C101)</f>
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <f t="shared" ref="D108:G108" si="8">MEDIAN(F2:F101)</f>
+        <v>0.69016070757472581</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>0.91376356367789824</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -20032,8 +20869,16 @@
         <f>_xlfn.QUARTILE.INC(C2:C101,3)</f>
         <v>19.295000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <f t="shared" ref="D109:G109" si="9">_xlfn.QUARTILE.INC(F2:F101,3)</f>
+        <v>0.77165310184363234</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="9"/>
+        <v>1.0051830491236824</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -20045,8 +20890,16 @@
         <f>MAX(C2:C101)</f>
         <v>36.44</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F110">
+        <f t="shared" ref="D110:G110" si="10">MAX(F2:F101)</f>
+        <v>0.92539039907460963</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="10"/>
+        <v>1.1011699931176875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>20</v>
       </c>
@@ -20058,11 +20911,27 @@
         <f>C107-C106</f>
         <v>1.3875000000000011</v>
       </c>
-      <c r="D112" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112" s="3">
+        <f t="shared" ref="D112:G112" si="11">D107-D106</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="11"/>
+        <v>0.2159793626613658</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="11"/>
+        <v>0.39018047771758829</v>
+      </c>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -20074,142 +20943,175 @@
         <f>C107</f>
         <v>15.9175</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1">
+        <f t="shared" ref="D113:G113" si="12">D107</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="12"/>
+        <v>0.5842187182424935</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82925841405128753</v>
+      </c>
+      <c r="H113" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" ref="B114:C116" si="0">B108-B107</f>
+        <f t="shared" ref="B114:G116" si="13">B108-B107</f>
         <v>2.4499999999999993</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>1.5925000000000011</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="13"/>
+        <v>0.10594198933223231</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="13"/>
+        <v>8.4505149626610709E-2</v>
+      </c>
+      <c r="H114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>4.2025000000000006</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>1.7850000000000001</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="13"/>
+        <v>8.1492394268906532E-2</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="13"/>
+        <v>9.1419485445784154E-2</v>
+      </c>
+      <c r="H115" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>16.062500000000004</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>17.144999999999996</v>
       </c>
-      <c r="D116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="3">
-        <f>B112*0.0625</f>
-        <v>0.21531250000000002</v>
-      </c>
-      <c r="C119" s="3">
-        <f>C112*0.0625</f>
-        <v>8.6718750000000067E-2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" s="3">
-        <f t="shared" ref="B120:C123" si="1">B113*0.0625</f>
-        <v>1.2959375</v>
-      </c>
-      <c r="C120" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99484375000000003</v>
-      </c>
-      <c r="D120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="3">
-        <f t="shared" si="1"/>
-        <v>0.15312499999999996</v>
-      </c>
-      <c r="C121" s="3">
-        <f t="shared" si="1"/>
-        <v>9.9531250000000071E-2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B122" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26265625000000004</v>
-      </c>
-      <c r="C122" s="3">
-        <f t="shared" si="1"/>
-        <v>0.11156250000000001</v>
-      </c>
-      <c r="D122" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0039062500000002</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0715624999999998</v>
-      </c>
-      <c r="D123" t="s">
-        <v>25</v>
-      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="13"/>
+        <v>0.15373729723097729</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="13"/>
+        <v>9.5986943994005092E-2</v>
+      </c>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/measurements/measurements.xlsx
+++ b/measurements/measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="encode k=10,m=3, w=8" sheetId="2" r:id="rId1"/>
@@ -203,8 +203,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -239,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -253,6 +257,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -266,6 +272,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -303,6 +311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -368,7 +377,7 @@
                     <c:v>0.0700000000000001</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.25</c:v>
+                    <c:v>0.0699999999999998</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.225</c:v>
@@ -452,7 +461,7 @@
                   <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.14</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.135</c:v>
@@ -551,7 +560,7 @@
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.155</c:v>
+                  <c:v>0.0800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
@@ -616,7 +625,7 @@
                     <c:v>1.79</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.8975</c:v>
+                    <c:v>3.2075</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.7475</c:v>
@@ -709,7 +718,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4775</c:v>
+                  <c:v>0.1425</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3075</c:v>
@@ -740,11 +749,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112006440"/>
-        <c:axId val="-2112200024"/>
+        <c:axId val="2135397336"/>
+        <c:axId val="2122485864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112006440"/>
+        <c:axId val="2135397336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,12 +775,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112200024"/>
+        <c:crossAx val="2122485864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,8 +789,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112200024"/>
+        <c:axId val="2122485864"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
         </c:scaling>
@@ -803,19 +814,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112006440"/>
+        <c:crossAx val="2135397336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -860,7 +873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1076,11 +1088,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109161128"/>
-        <c:axId val="2109141912"/>
+        <c:axId val="2121775816"/>
+        <c:axId val="2129144360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109161128"/>
+        <c:axId val="2121775816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109141912"/>
+        <c:crossAx val="2129144360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109141912"/>
+        <c:axId val="2129144360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,14 +1132,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109161128"/>
+        <c:crossAx val="2121775816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,7 +1190,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1395,11 +1405,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2137179240"/>
-        <c:axId val="-2111325224"/>
+        <c:axId val="2129613320"/>
+        <c:axId val="2129078280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137179240"/>
+        <c:axId val="2129613320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111325224"/>
+        <c:crossAx val="2129078280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111325224"/>
+        <c:axId val="2129078280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1440,14 +1450,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137179240"/>
+        <c:crossAx val="2129613320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,6 +1503,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1559,7 +1569,7 @@
                     <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.27</c:v>
+                    <c:v>0.0599999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.2175</c:v>
@@ -1643,7 +1653,7 @@
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.7675</c:v>
@@ -1742,7 +1752,7 @@
                   <c:v>0.0599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.185</c:v>
+                  <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1925</c:v>
@@ -1807,7 +1817,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.8175</c:v>
+                    <c:v>2.0375</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.3675</c:v>
@@ -1900,7 +1910,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3275</c:v>
+                  <c:v>0.1925</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4525</c:v>
@@ -1931,11 +1941,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2137046264"/>
-        <c:axId val="-2112416536"/>
+        <c:axId val="2135239640"/>
+        <c:axId val="2124021976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137046264"/>
+        <c:axId val="2135239640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,21 +1967,23 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112416536"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2124021976"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112416536"/>
+        <c:axId val="2124021976"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
         </c:scaling>
@@ -1994,19 +2006,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137046264"/>
+        <c:crossAx val="2135239640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2051,6 +2065,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2116,7 +2131,7 @@
                     <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.275</c:v>
+                    <c:v>0.0299999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.37</c:v>
@@ -2200,7 +2215,7 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.52</c:v>
@@ -2299,7 +2314,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.27</c:v>
@@ -2364,7 +2379,7 @@
                     <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.3775</c:v>
+                    <c:v>1.475</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.54</c:v>
@@ -2457,7 +2472,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3775</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -2488,11 +2503,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112299928"/>
-        <c:axId val="-2112584952"/>
+        <c:axId val="2122553720"/>
+        <c:axId val="2122343832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112299928"/>
+        <c:axId val="2122553720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,21 +2529,23 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112584952"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2122343832"/>
+        <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112584952"/>
+        <c:axId val="2122343832"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
         </c:scaling>
@@ -2551,19 +2568,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112299928"/>
+        <c:crossAx val="2122553720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2608,6 +2627,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2673,7 +2693,7 @@
                     <c:v>0.0700000000000001</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.25</c:v>
+                    <c:v>0.0699999999999998</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.225</c:v>
@@ -2757,7 +2777,7 @@
                   <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.14</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.135</c:v>
@@ -2856,7 +2876,7 @@
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.155</c:v>
+                  <c:v>0.0800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
@@ -2921,7 +2941,7 @@
                     <c:v>1.79</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.8975</c:v>
+                    <c:v>3.2075</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.7475</c:v>
@@ -3014,7 +3034,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4775</c:v>
+                  <c:v>0.1425</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3075</c:v>
@@ -3045,11 +3065,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2105642536"/>
-        <c:axId val="-2110806440"/>
+        <c:axId val="2123452728"/>
+        <c:axId val="2122887544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105642536"/>
+        <c:axId val="2123452728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,12 +3091,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110806440"/>
+        <c:crossAx val="2122887544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3084,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110806440"/>
+        <c:axId val="2122887544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3108,13 +3129,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105642536"/>
+        <c:crossAx val="2123452728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3161,6 +3183,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3229,7 +3252,7 @@
                     <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.27</c:v>
+                    <c:v>0.0599999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.2175</c:v>
@@ -3313,7 +3336,7 @@
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.7675</c:v>
@@ -3412,7 +3435,7 @@
                   <c:v>0.0599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.185</c:v>
+                  <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1925</c:v>
@@ -3477,7 +3500,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.8175</c:v>
+                    <c:v>2.0375</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.3675</c:v>
@@ -3570,7 +3593,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3275</c:v>
+                  <c:v>0.1925</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4525</c:v>
@@ -3601,11 +3624,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109138568"/>
-        <c:axId val="-2110944088"/>
+        <c:axId val="2110202024"/>
+        <c:axId val="-2112062376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109138568"/>
+        <c:axId val="2110202024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,12 +3650,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110944088"/>
+        <c:crossAx val="-2112062376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3640,7 +3664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110944088"/>
+        <c:axId val="-2112062376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3664,13 +3688,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109138568"/>
+        <c:crossAx val="2110202024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,6 +3742,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3782,7 +3808,7 @@
                     <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.275</c:v>
+                    <c:v>0.0299999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.37</c:v>
@@ -3866,7 +3892,7 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.52</c:v>
@@ -3965,7 +3991,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.27</c:v>
@@ -4030,7 +4056,7 @@
                     <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.3775</c:v>
+                    <c:v>1.475</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.54</c:v>
@@ -4123,7 +4149,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3775</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -4154,11 +4180,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2110903640"/>
-        <c:axId val="-2110898152"/>
+        <c:axId val="2138321720"/>
+        <c:axId val="-2111940216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110903640"/>
+        <c:axId val="2138321720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,12 +4206,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110898152"/>
+        <c:crossAx val="-2111940216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4193,7 +4220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110898152"/>
+        <c:axId val="-2111940216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4217,13 +4244,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110903640"/>
+        <c:crossAx val="2138321720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4270,6 +4298,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4335,7 +4364,7 @@
                     <c:v>0.0700000000000001</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.25</c:v>
+                    <c:v>0.0699999999999998</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.225</c:v>
@@ -4419,7 +4448,7 @@
                   <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.14</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.135</c:v>
@@ -4518,7 +4547,7 @@
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.155</c:v>
+                  <c:v>0.0800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
@@ -4583,7 +4612,7 @@
                     <c:v>1.79</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.8975</c:v>
+                    <c:v>3.2075</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.7475</c:v>
@@ -4676,7 +4705,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4775</c:v>
+                  <c:v>0.1425</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3075</c:v>
@@ -4707,11 +4736,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2110857112"/>
-        <c:axId val="-2110851624"/>
+        <c:axId val="-2111926504"/>
+        <c:axId val="2122421960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110857112"/>
+        <c:axId val="-2111926504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,12 +4762,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110851624"/>
+        <c:crossAx val="2122421960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4746,7 +4776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110851624"/>
+        <c:axId val="2122421960"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4771,13 +4801,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110857112"/>
+        <c:crossAx val="-2111926504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4824,6 +4855,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4892,7 +4924,7 @@
                     <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.27</c:v>
+                    <c:v>0.0599999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.2175</c:v>
@@ -4976,7 +5008,7 @@
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.7675</c:v>
@@ -5075,7 +5107,7 @@
                   <c:v>0.0599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.185</c:v>
+                  <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1925</c:v>
@@ -5140,7 +5172,7 @@
                     <c:v>1.7</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.8175</c:v>
+                    <c:v>2.0375</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.3675</c:v>
@@ -5233,7 +5265,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3275</c:v>
+                  <c:v>0.1925</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4525</c:v>
@@ -5264,11 +5296,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2138262952"/>
-        <c:axId val="2138634120"/>
+        <c:axId val="2124034536"/>
+        <c:axId val="2124035352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138262952"/>
+        <c:axId val="2124034536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,12 +5322,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138634120"/>
+        <c:crossAx val="2124035352"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5303,7 +5336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138634120"/>
+        <c:axId val="2124035352"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5328,13 +5361,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138262952"/>
+        <c:crossAx val="2124034536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5381,6 +5415,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5446,7 +5481,7 @@
                     <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.275</c:v>
+                    <c:v>0.0299999999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.37</c:v>
@@ -5530,7 +5565,7 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.52</c:v>
@@ -5629,7 +5664,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.27</c:v>
@@ -5694,7 +5729,7 @@
                     <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.3775</c:v>
+                    <c:v>1.475</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.54</c:v>
@@ -5787,7 +5822,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3775</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -5818,11 +5853,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112270376"/>
-        <c:axId val="2110242872"/>
+        <c:axId val="2136128728"/>
+        <c:axId val="2136105112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112270376"/>
+        <c:axId val="2136128728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,12 +5879,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110242872"/>
+        <c:crossAx val="2136105112"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5857,7 +5893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110242872"/>
+        <c:axId val="2136105112"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5882,13 +5918,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112270376"/>
+        <c:crossAx val="2136128728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5947,13 +5984,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6600,8 +6637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:A116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6665,7 +6702,7 @@
         <v>1.33</v>
       </c>
       <c r="G2">
-        <v>2.87</v>
+        <v>1.51</v>
       </c>
       <c r="H2">
         <v>2.2000000000000002</v>
@@ -6700,7 +6737,7 @@
         <v>1.17</v>
       </c>
       <c r="G3">
-        <v>2.21</v>
+        <v>1.51</v>
       </c>
       <c r="H3">
         <v>2.87</v>
@@ -6735,7 +6772,7 @@
         <v>1.34</v>
       </c>
       <c r="G4">
-        <v>2.11</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
         <v>2.4300000000000002</v>
@@ -6770,7 +6807,7 @@
         <v>1.55</v>
       </c>
       <c r="G5">
-        <v>4.6900000000000004</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2.81</v>
@@ -6805,7 +6842,7 @@
         <v>1.98</v>
       </c>
       <c r="G6">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="H6">
         <v>2.1</v>
@@ -6840,7 +6877,7 @@
         <v>1.18</v>
       </c>
       <c r="G7">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="H7">
         <v>2.64</v>
@@ -6875,7 +6912,7 @@
         <v>1.31</v>
       </c>
       <c r="G8">
-        <v>2.73</v>
+        <v>3.28</v>
       </c>
       <c r="H8">
         <v>2.9</v>
@@ -6910,7 +6947,7 @@
         <v>1.3</v>
       </c>
       <c r="G9">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="H9">
         <v>2.14</v>
@@ -6945,7 +6982,7 @@
         <v>1.23</v>
       </c>
       <c r="G10">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="H10">
         <v>2.46</v>
@@ -6980,7 +7017,7 @@
         <v>1.36</v>
       </c>
       <c r="G11">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="H11">
         <v>4.0599999999999996</v>
@@ -7015,7 +7052,7 @@
         <v>1.27</v>
       </c>
       <c r="G12">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="H12">
         <v>2.1800000000000002</v>
@@ -7050,7 +7087,7 @@
         <v>1.66</v>
       </c>
       <c r="G13">
-        <v>2.0299999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="H13">
         <v>2.58</v>
@@ -7085,7 +7122,7 @@
         <v>1.38</v>
       </c>
       <c r="G14">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="H14">
         <v>2.89</v>
@@ -7120,7 +7157,7 @@
         <v>1.19</v>
       </c>
       <c r="G15">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="H15">
         <v>3.06</v>
@@ -7155,7 +7192,7 @@
         <v>1.84</v>
       </c>
       <c r="G16">
-        <v>2.19</v>
+        <v>1.39</v>
       </c>
       <c r="H16">
         <v>4.32</v>
@@ -7190,7 +7227,7 @@
         <v>1.26</v>
       </c>
       <c r="G17">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="H17">
         <v>2.14</v>
@@ -7225,7 +7262,7 @@
         <v>1.19</v>
       </c>
       <c r="G18">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="H18">
         <v>2.39</v>
@@ -7260,7 +7297,7 @@
         <v>1.18</v>
       </c>
       <c r="G19">
-        <v>2.17</v>
+        <v>1.39</v>
       </c>
       <c r="H19">
         <v>2.7</v>
@@ -7295,7 +7332,7 @@
         <v>1.32</v>
       </c>
       <c r="G20">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="H20">
         <v>2.34</v>
@@ -7330,7 +7367,7 @@
         <v>1.23</v>
       </c>
       <c r="G21">
-        <v>2.2999999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="H21">
         <v>2.04</v>
@@ -7365,7 +7402,7 @@
         <v>1.18</v>
       </c>
       <c r="G22">
-        <v>2.0699999999999998</v>
+        <v>1.46</v>
       </c>
       <c r="H22">
         <v>2.4700000000000002</v>
@@ -7400,7 +7437,7 @@
         <v>1.23</v>
       </c>
       <c r="G23">
-        <v>4.28</v>
+        <v>1.54</v>
       </c>
       <c r="H23">
         <v>2.33</v>
@@ -7435,7 +7472,7 @@
         <v>1.53</v>
       </c>
       <c r="G24">
-        <v>2.34</v>
+        <v>1.39</v>
       </c>
       <c r="H24">
         <v>3.11</v>
@@ -7470,7 +7507,7 @@
         <v>1.43</v>
       </c>
       <c r="G25">
-        <v>2.72</v>
+        <v>1.44</v>
       </c>
       <c r="H25">
         <v>2.2799999999999998</v>
@@ -7505,7 +7542,7 @@
         <v>1.23</v>
       </c>
       <c r="G26">
-        <v>2.82</v>
+        <v>1.37</v>
       </c>
       <c r="H26">
         <v>2.33</v>
@@ -7540,7 +7577,7 @@
         <v>1.18</v>
       </c>
       <c r="G27">
-        <v>2.11</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H27">
         <v>2.91</v>
@@ -7575,7 +7612,7 @@
         <v>1.89</v>
       </c>
       <c r="G28">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="H28">
         <v>2.0499999999999998</v>
@@ -7610,7 +7647,7 @@
         <v>1.28</v>
       </c>
       <c r="G29">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
         <v>2.06</v>
@@ -7645,7 +7682,7 @@
         <v>1.17</v>
       </c>
       <c r="G30">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="H30">
         <v>4.34</v>
@@ -7680,7 +7717,7 @@
         <v>1.17</v>
       </c>
       <c r="G31">
-        <v>2.76</v>
+        <v>1.51</v>
       </c>
       <c r="H31">
         <v>2.29</v>
@@ -7715,7 +7752,7 @@
         <v>1.26</v>
       </c>
       <c r="G32">
-        <v>2.5499999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="H32">
         <v>2.34</v>
@@ -7750,7 +7787,7 @@
         <v>1.37</v>
       </c>
       <c r="G33">
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="H33">
         <v>2.48</v>
@@ -7785,7 +7822,7 @@
         <v>1.18</v>
       </c>
       <c r="G34">
-        <v>2.17</v>
+        <v>1.49</v>
       </c>
       <c r="H34">
         <v>2.34</v>
@@ -7820,7 +7857,7 @@
         <v>1.25</v>
       </c>
       <c r="G35">
-        <v>2.2400000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="H35">
         <v>2.0699999999999998</v>
@@ -7855,7 +7892,7 @@
         <v>1.24</v>
       </c>
       <c r="G36">
-        <v>2.2200000000000002</v>
+        <v>1.66</v>
       </c>
       <c r="H36">
         <v>2.12</v>
@@ -7890,7 +7927,7 @@
         <v>1.26</v>
       </c>
       <c r="G37">
-        <v>2.0499999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="H37">
         <v>2.88</v>
@@ -7925,7 +7962,7 @@
         <v>1.23</v>
       </c>
       <c r="G38">
-        <v>2.2000000000000002</v>
+        <v>1.38</v>
       </c>
       <c r="H38">
         <v>2.69</v>
@@ -7960,7 +7997,7 @@
         <v>1.17</v>
       </c>
       <c r="G39">
-        <v>3.07</v>
+        <v>1.63</v>
       </c>
       <c r="H39">
         <v>2.25</v>
@@ -7995,7 +8032,7 @@
         <v>1.19</v>
       </c>
       <c r="G40">
-        <v>2.12</v>
+        <v>1.37</v>
       </c>
       <c r="H40">
         <v>2.15</v>
@@ -8030,7 +8067,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G41">
-        <v>2.77</v>
+        <v>1.39</v>
       </c>
       <c r="H41">
         <v>2.04</v>
@@ -8065,7 +8102,7 @@
         <v>1.2</v>
       </c>
       <c r="G42">
-        <v>2.94</v>
+        <v>1.39</v>
       </c>
       <c r="H42">
         <v>4.74</v>
@@ -8100,7 +8137,7 @@
         <v>1.19</v>
       </c>
       <c r="G43">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="H43">
         <v>2.2799999999999998</v>
@@ -8135,7 +8172,7 @@
         <v>1.24</v>
       </c>
       <c r="G44">
-        <v>2.09</v>
+        <v>1.47</v>
       </c>
       <c r="H44">
         <v>2.17</v>
@@ -8170,7 +8207,7 @@
         <v>1.19</v>
       </c>
       <c r="G45">
-        <v>2.2599999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="H45">
         <v>2.04</v>
@@ -8205,7 +8242,7 @@
         <v>1.33</v>
       </c>
       <c r="G46">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H46">
         <v>1.95</v>
@@ -8240,7 +8277,7 @@
         <v>1.2</v>
       </c>
       <c r="G47">
-        <v>2.09</v>
+        <v>1.43</v>
       </c>
       <c r="H47">
         <v>2.06</v>
@@ -8275,7 +8312,7 @@
         <v>1.22</v>
       </c>
       <c r="G48">
-        <v>2.0699999999999998</v>
+        <v>1.77</v>
       </c>
       <c r="H48">
         <v>1.99</v>
@@ -8310,7 +8347,7 @@
         <v>1.29</v>
       </c>
       <c r="G49">
-        <v>2.0299999999999998</v>
+        <v>1.54</v>
       </c>
       <c r="H49">
         <v>2.35</v>
@@ -8345,7 +8382,7 @@
         <v>1.57</v>
       </c>
       <c r="G50">
-        <v>2.16</v>
+        <v>4.87</v>
       </c>
       <c r="H50">
         <v>2.4</v>
@@ -8380,7 +8417,7 @@
         <v>1.77</v>
       </c>
       <c r="G51">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="H51">
         <v>2.59</v>
@@ -8415,7 +8452,7 @@
         <v>1.28</v>
       </c>
       <c r="G52">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="H52">
         <v>2.34</v>
@@ -8450,7 +8487,7 @@
         <v>1.32</v>
       </c>
       <c r="G53">
-        <v>2.35</v>
+        <v>1.48</v>
       </c>
       <c r="H53">
         <v>4.28</v>
@@ -8485,7 +8522,7 @@
         <v>1.56</v>
       </c>
       <c r="G54">
-        <v>3.31</v>
+        <v>1.74</v>
       </c>
       <c r="H54">
         <v>2.25</v>
@@ -8520,7 +8557,7 @@
         <v>1.77</v>
       </c>
       <c r="G55">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="H55">
         <v>2.41</v>
@@ -8555,7 +8592,7 @@
         <v>1.3</v>
       </c>
       <c r="G56">
-        <v>2.61</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H56">
         <v>1.97</v>
@@ -8590,7 +8627,7 @@
         <v>1.25</v>
       </c>
       <c r="G57">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="H57">
         <v>2.54</v>
@@ -8625,7 +8662,7 @@
         <v>1.57</v>
       </c>
       <c r="G58">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
       <c r="H58">
         <v>1.91</v>
@@ -8660,7 +8697,7 @@
         <v>1.18</v>
       </c>
       <c r="G59">
-        <v>2.29</v>
+        <v>1.52</v>
       </c>
       <c r="H59">
         <v>2.93</v>
@@ -8695,7 +8732,7 @@
         <v>1.86</v>
       </c>
       <c r="G60">
-        <v>2.44</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H60">
         <v>3.11</v>
@@ -8730,7 +8767,7 @@
         <v>1.28</v>
       </c>
       <c r="G61">
-        <v>2.4300000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="H61">
         <v>2.64</v>
@@ -8765,7 +8802,7 @@
         <v>1.45</v>
       </c>
       <c r="G62">
-        <v>3.2</v>
+        <v>1.68</v>
       </c>
       <c r="H62">
         <v>2.96</v>
@@ -8800,7 +8837,7 @@
         <v>1.66</v>
       </c>
       <c r="G63">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="H63">
         <v>2.46</v>
@@ -8870,7 +8907,7 @@
         <v>1.68</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>1.89</v>
       </c>
       <c r="H65">
         <v>2.12</v>
@@ -8905,7 +8942,7 @@
         <v>1.28</v>
       </c>
       <c r="G66">
-        <v>2.5499999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="H66">
         <v>4.6500000000000004</v>
@@ -8940,7 +8977,7 @@
         <v>1.35</v>
       </c>
       <c r="G67">
-        <v>2.2599999999999998</v>
+        <v>1.43</v>
       </c>
       <c r="H67">
         <v>2.4</v>
@@ -8975,7 +9012,7 @@
         <v>1.52</v>
       </c>
       <c r="G68">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="H68">
         <v>1.92</v>
@@ -9010,7 +9047,7 @@
         <v>1.29</v>
       </c>
       <c r="G69">
-        <v>5.67</v>
+        <v>1.4</v>
       </c>
       <c r="H69">
         <v>2.5299999999999998</v>
@@ -9045,7 +9082,7 @@
         <v>1.27</v>
       </c>
       <c r="G70">
-        <v>2.74</v>
+        <v>1.85</v>
       </c>
       <c r="H70">
         <v>1.97</v>
@@ -9080,7 +9117,7 @@
         <v>3.32</v>
       </c>
       <c r="G71">
-        <v>2.5299999999999998</v>
+        <v>1.58</v>
       </c>
       <c r="H71">
         <v>2.64</v>
@@ -9115,7 +9152,7 @@
         <v>1.43</v>
       </c>
       <c r="G72">
-        <v>2.31</v>
+        <v>1.65</v>
       </c>
       <c r="H72">
         <v>2.65</v>
@@ -9150,7 +9187,7 @@
         <v>1.89</v>
       </c>
       <c r="G73">
-        <v>2.0099999999999998</v>
+        <v>1.73</v>
       </c>
       <c r="H73">
         <v>3.08</v>
@@ -9185,7 +9222,7 @@
         <v>1.45</v>
       </c>
       <c r="G74">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="H74">
         <v>2.34</v>
@@ -9220,7 +9257,7 @@
         <v>1.31</v>
       </c>
       <c r="G75">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="H75">
         <v>2.48</v>
@@ -9255,7 +9292,7 @@
         <v>1.37</v>
       </c>
       <c r="G76">
-        <v>3.23</v>
+        <v>1.63</v>
       </c>
       <c r="H76">
         <v>2.52</v>
@@ -9290,7 +9327,7 @@
         <v>1.36</v>
       </c>
       <c r="G77">
-        <v>2.31</v>
+        <v>1.46</v>
       </c>
       <c r="H77">
         <v>2.63</v>
@@ -9325,7 +9362,7 @@
         <v>1.97</v>
       </c>
       <c r="G78">
-        <v>2.4900000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="H78">
         <v>2.11</v>
@@ -9360,7 +9397,7 @@
         <v>1.28</v>
       </c>
       <c r="G79">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="H79">
         <v>2.81</v>
@@ -9395,7 +9432,7 @@
         <v>1.33</v>
       </c>
       <c r="G80">
-        <v>3.08</v>
+        <v>1.53</v>
       </c>
       <c r="H80">
         <v>2.12</v>
@@ -9430,7 +9467,7 @@
         <v>1.21</v>
       </c>
       <c r="G81">
-        <v>3.23</v>
+        <v>1.45</v>
       </c>
       <c r="H81">
         <v>2.0099999999999998</v>
@@ -9465,7 +9502,7 @@
         <v>1.62</v>
       </c>
       <c r="G82">
-        <v>5.44</v>
+        <v>1.47</v>
       </c>
       <c r="H82">
         <v>1.91</v>
@@ -9500,7 +9537,7 @@
         <v>1.37</v>
       </c>
       <c r="G83">
-        <v>2.41</v>
+        <v>1.61</v>
       </c>
       <c r="H83">
         <v>1.94</v>
@@ -9535,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>2.87</v>
+        <v>1.49</v>
       </c>
       <c r="H84">
         <v>3.24</v>
@@ -9570,7 +9607,7 @@
         <v>1.33</v>
       </c>
       <c r="G85">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="H85">
         <v>2.29</v>
@@ -9605,7 +9642,7 @@
         <v>1.24</v>
       </c>
       <c r="G86">
-        <v>2.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H86">
         <v>1.94</v>
@@ -9640,7 +9677,7 @@
         <v>1.28</v>
       </c>
       <c r="G87">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="H87">
         <v>2.33</v>
@@ -9675,7 +9712,7 @@
         <v>1.18</v>
       </c>
       <c r="G88">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H88">
         <v>1.91</v>
@@ -9710,7 +9747,7 @@
         <v>1.32</v>
       </c>
       <c r="G89">
-        <v>2.95</v>
+        <v>1.51</v>
       </c>
       <c r="H89">
         <v>2.44</v>
@@ -9745,7 +9782,7 @@
         <v>1.67</v>
       </c>
       <c r="G90">
-        <v>2.23</v>
+        <v>1.39</v>
       </c>
       <c r="H90">
         <v>2.39</v>
@@ -9780,7 +9817,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G91">
-        <v>3.07</v>
+        <v>1.54</v>
       </c>
       <c r="H91">
         <v>2.1800000000000002</v>
@@ -9815,7 +9852,7 @@
         <v>1.35</v>
       </c>
       <c r="G92">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="H92">
         <v>1.95</v>
@@ -9850,7 +9887,7 @@
         <v>1.48</v>
       </c>
       <c r="G93">
-        <v>2.84</v>
+        <v>1.43</v>
       </c>
       <c r="H93">
         <v>2.31</v>
@@ -9885,7 +9922,7 @@
         <v>1.53</v>
       </c>
       <c r="G94">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="H94">
         <v>2.68</v>
@@ -9920,7 +9957,7 @@
         <v>1.39</v>
       </c>
       <c r="G95">
-        <v>2.98</v>
+        <v>1.42</v>
       </c>
       <c r="H95">
         <v>2.38</v>
@@ -9955,7 +9992,7 @@
         <v>1.34</v>
       </c>
       <c r="G96">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="H96">
         <v>2.67</v>
@@ -9990,7 +10027,7 @@
         <v>1.72</v>
       </c>
       <c r="G97">
-        <v>2.19</v>
+        <v>1.52</v>
       </c>
       <c r="H97">
         <v>4.79</v>
@@ -10025,7 +10062,7 @@
         <v>1.38</v>
       </c>
       <c r="G98">
-        <v>2.2200000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="H98">
         <v>2.92</v>
@@ -10060,7 +10097,7 @@
         <v>1.62</v>
       </c>
       <c r="G99">
-        <v>2.9</v>
+        <v>1.52</v>
       </c>
       <c r="H99">
         <v>2.94</v>
@@ -10095,7 +10132,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G100">
-        <v>2.23</v>
+        <v>1.5</v>
       </c>
       <c r="H100">
         <v>6.44</v>
@@ -10130,7 +10167,7 @@
         <v>1.61</v>
       </c>
       <c r="G101">
-        <v>2.1800000000000002</v>
+        <v>1.48</v>
       </c>
       <c r="H101">
         <v>2.27</v>
@@ -10174,7 +10211,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="0"/>
-        <v>2.5282999999999989</v>
+        <v>1.6352999999999998</v>
       </c>
       <c r="H103">
         <f t="shared" si="0"/>
@@ -10223,7 +10260,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>0.66255558943451409</v>
+        <v>0.42238011268993303</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
@@ -10272,7 +10309,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="2"/>
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
@@ -10321,7 +10358,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="H107">
         <f t="shared" si="3"/>
@@ -10370,7 +10407,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>2.2949999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="H108">
         <f t="shared" si="4"/>
@@ -10419,7 +10456,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
-        <v>2.7725</v>
+        <v>1.6624999999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="5"/>
@@ -10468,7 +10505,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>5.67</v>
+        <v>4.87</v>
       </c>
       <c r="H110">
         <f t="shared" si="6"/>
@@ -10517,7 +10554,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="7"/>
-        <v>0.25000000000000022</v>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="7"/>
@@ -10569,7 +10606,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="8"/>
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="8"/>
@@ -10621,7 +10658,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="9"/>
-        <v>0.1549999999999998</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="9"/>
@@ -10673,7 +10710,7 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="10"/>
-        <v>0.47750000000000004</v>
+        <v>0.14249999999999985</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="10"/>
@@ -10725,7 +10762,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="11"/>
-        <v>2.8975</v>
+        <v>3.2075000000000005</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="11"/>
@@ -10768,8 +10805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10833,7 +10870,7 @@
         <v>0.79</v>
       </c>
       <c r="G2">
-        <v>2.71</v>
+        <v>1.18</v>
       </c>
       <c r="H2">
         <v>1.78</v>
@@ -10868,7 +10905,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G3">
-        <v>2.48</v>
+        <v>0.91</v>
       </c>
       <c r="H3">
         <v>2.77</v>
@@ -10903,7 +10940,7 @@
         <v>1.05</v>
       </c>
       <c r="G4">
-        <v>2.2799999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="H4">
         <v>2.17</v>
@@ -10938,7 +10975,7 @@
         <v>0.76</v>
       </c>
       <c r="G5">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="H5">
         <v>2.66</v>
@@ -10973,7 +11010,7 @@
         <v>0.89</v>
       </c>
       <c r="G6">
-        <v>2.71</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H6">
         <v>2.19</v>
@@ -11008,7 +11045,7 @@
         <v>0.98</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0.97</v>
       </c>
       <c r="H7">
         <v>1.82</v>
@@ -11043,7 +11080,7 @@
         <v>1.45</v>
       </c>
       <c r="G8">
-        <v>2.2599999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="H8">
         <v>1.95</v>
@@ -11078,7 +11115,7 @@
         <v>0.73</v>
       </c>
       <c r="G9">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="H9">
         <v>2.0299999999999998</v>
@@ -11113,7 +11150,7 @@
         <v>0.78</v>
       </c>
       <c r="G10">
-        <v>1.94</v>
+        <v>0.88</v>
       </c>
       <c r="H10">
         <v>2.2000000000000002</v>
@@ -11148,7 +11185,7 @@
         <v>0.96</v>
       </c>
       <c r="G11">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
         <v>2.14</v>
@@ -11183,7 +11220,7 @@
         <v>1.07</v>
       </c>
       <c r="G12">
-        <v>2.37</v>
+        <v>1.27</v>
       </c>
       <c r="H12">
         <v>2.5099999999999998</v>
@@ -11218,7 +11255,7 @@
         <v>1.01</v>
       </c>
       <c r="G13">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="H13">
         <v>1.84</v>
@@ -11253,7 +11290,7 @@
         <v>0.9</v>
       </c>
       <c r="G14">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>2.12</v>
@@ -11288,7 +11325,7 @@
         <v>2.75</v>
       </c>
       <c r="G15">
-        <v>1.66</v>
+        <v>0.98</v>
       </c>
       <c r="H15">
         <v>2.4300000000000002</v>
@@ -11323,7 +11360,7 @@
         <v>0.93</v>
       </c>
       <c r="G16">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
       <c r="H16">
         <v>1.67</v>
@@ -11358,7 +11395,7 @@
         <v>0.91</v>
       </c>
       <c r="G17">
-        <v>1.65</v>
+        <v>0.95</v>
       </c>
       <c r="H17">
         <v>1.6</v>
@@ -11393,7 +11430,7 @@
         <v>0.79</v>
       </c>
       <c r="G18">
-        <v>1.96</v>
+        <v>0.95</v>
       </c>
       <c r="H18">
         <v>1.9</v>
@@ -11428,7 +11465,7 @@
         <v>0.75</v>
       </c>
       <c r="G19">
-        <v>1.88</v>
+        <v>0.94</v>
       </c>
       <c r="H19">
         <v>1.93</v>
@@ -11463,7 +11500,7 @@
         <v>0.79</v>
       </c>
       <c r="G20">
-        <v>2.0099999999999998</v>
+        <v>3.26</v>
       </c>
       <c r="H20">
         <v>2.46</v>
@@ -11498,7 +11535,7 @@
         <v>1.05</v>
       </c>
       <c r="G21">
-        <v>2.0499999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="H21">
         <v>1.72</v>
@@ -11533,7 +11570,7 @@
         <v>0.74</v>
       </c>
       <c r="G22">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="H22">
         <v>1.77</v>
@@ -11568,7 +11605,7 @@
         <v>0.72</v>
       </c>
       <c r="G23">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="H23">
         <v>2.65</v>
@@ -11603,7 +11640,7 @@
         <v>0.84</v>
       </c>
       <c r="G24">
-        <v>1.65</v>
+        <v>0.92</v>
       </c>
       <c r="H24">
         <v>1.74</v>
@@ -11638,7 +11675,7 @@
         <v>0.78</v>
       </c>
       <c r="G25">
-        <v>2.11</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
         <v>2.2000000000000002</v>
@@ -11673,7 +11710,7 @@
         <v>1.22</v>
       </c>
       <c r="G26">
-        <v>1.63</v>
+        <v>0.89</v>
       </c>
       <c r="H26">
         <v>2.66</v>
@@ -11708,7 +11745,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="G27">
-        <v>1.77</v>
+        <v>0.97</v>
       </c>
       <c r="H27">
         <v>1.8</v>
@@ -11743,7 +11780,7 @@
         <v>0.69</v>
       </c>
       <c r="G28">
-        <v>2.4300000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H28">
         <v>1.6</v>
@@ -11778,7 +11815,7 @@
         <v>0.69</v>
       </c>
       <c r="G29">
-        <v>1.61</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>2.1800000000000002</v>
@@ -11813,7 +11850,7 @@
         <v>0.96</v>
       </c>
       <c r="G30">
-        <v>2.2599999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="H30">
         <v>1.64</v>
@@ -11848,7 +11885,7 @@
         <v>1.22</v>
       </c>
       <c r="G31">
-        <v>1.86</v>
+        <v>0.98</v>
       </c>
       <c r="H31">
         <v>2.77</v>
@@ -11883,7 +11920,7 @@
         <v>1.18</v>
       </c>
       <c r="G32">
-        <v>2.16</v>
+        <v>0.92</v>
       </c>
       <c r="H32">
         <v>1.66</v>
@@ -11918,7 +11955,7 @@
         <v>0.73</v>
       </c>
       <c r="G33">
-        <v>2.15</v>
+        <v>0.96</v>
       </c>
       <c r="H33">
         <v>1.78</v>
@@ -11953,7 +11990,7 @@
         <v>0.77</v>
       </c>
       <c r="G34">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
       <c r="H34">
         <v>1.99</v>
@@ -11988,7 +12025,7 @@
         <v>0.73</v>
       </c>
       <c r="G35">
-        <v>3.08</v>
+        <v>0.94</v>
       </c>
       <c r="H35">
         <v>1.92</v>
@@ -12023,7 +12060,7 @@
         <v>0.73</v>
       </c>
       <c r="G36">
-        <v>1.9</v>
+        <v>0.98</v>
       </c>
       <c r="H36">
         <v>1.89</v>
@@ -12058,7 +12095,7 @@
         <v>0.82</v>
       </c>
       <c r="G37">
-        <v>2.08</v>
+        <v>0.98</v>
       </c>
       <c r="H37">
         <v>1.73</v>
@@ -12093,7 +12130,7 @@
         <v>1.35</v>
       </c>
       <c r="G38">
-        <v>1.94</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>2.37</v>
@@ -12128,7 +12165,7 @@
         <v>0.81</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="H39">
         <v>1.75</v>
@@ -12163,7 +12200,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G40">
-        <v>2.11</v>
+        <v>0.9</v>
       </c>
       <c r="H40">
         <v>1.73</v>
@@ -12198,7 +12235,7 @@
         <v>1.08</v>
       </c>
       <c r="G41">
-        <v>1.53</v>
+        <v>0.98</v>
       </c>
       <c r="H41">
         <v>2.95</v>
@@ -12233,7 +12270,7 @@
         <v>0.98</v>
       </c>
       <c r="G42">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="H42">
         <v>1.72</v>
@@ -12268,7 +12305,7 @@
         <v>0.83</v>
       </c>
       <c r="G43">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="H43">
         <v>2.85</v>
@@ -12303,7 +12340,7 @@
         <v>0.82</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1.69</v>
       </c>
       <c r="H44">
         <v>1.79</v>
@@ -12338,7 +12375,7 @@
         <v>0.89</v>
       </c>
       <c r="G45">
-        <v>2.31</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H45">
         <v>1.69</v>
@@ -12373,7 +12410,7 @@
         <v>0.86</v>
       </c>
       <c r="G46">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="H46">
         <v>1.92</v>
@@ -12408,7 +12445,7 @@
         <v>0.78</v>
       </c>
       <c r="G47">
-        <v>1.84</v>
+        <v>0.92</v>
       </c>
       <c r="H47">
         <v>3.78</v>
@@ -12443,7 +12480,7 @@
         <v>0.69</v>
       </c>
       <c r="G48">
-        <v>2.4900000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="H48">
         <v>1.93</v>
@@ -12478,7 +12515,7 @@
         <v>0.72</v>
       </c>
       <c r="G49">
-        <v>1.88</v>
+        <v>0.97</v>
       </c>
       <c r="H49">
         <v>2.72</v>
@@ -12513,7 +12550,7 @@
         <v>1.02</v>
       </c>
       <c r="G50">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="H50">
         <v>2.4700000000000002</v>
@@ -12548,7 +12585,7 @@
         <v>1.04</v>
       </c>
       <c r="G51">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1.69</v>
@@ -12583,7 +12620,7 @@
         <v>0.74</v>
       </c>
       <c r="G52">
-        <v>1.74</v>
+        <v>0.94</v>
       </c>
       <c r="H52">
         <v>1.68</v>
@@ -12618,7 +12655,7 @@
         <v>0.87</v>
       </c>
       <c r="G53">
-        <v>2.37</v>
+        <v>1.05</v>
       </c>
       <c r="H53">
         <v>2.37</v>
@@ -12653,7 +12690,7 @@
         <v>0.82</v>
       </c>
       <c r="G54">
-        <v>1.78</v>
+        <v>0.94</v>
       </c>
       <c r="H54">
         <v>1.83</v>
@@ -12688,7 +12725,7 @@
         <v>0.81</v>
       </c>
       <c r="G55">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="H55">
         <v>2.83</v>
@@ -12723,7 +12760,7 @@
         <v>0.8</v>
       </c>
       <c r="G56">
-        <v>2.6</v>
+        <v>0.95</v>
       </c>
       <c r="H56">
         <v>2.15</v>
@@ -12758,7 +12795,7 @@
         <v>0.93</v>
       </c>
       <c r="G57">
-        <v>2.61</v>
+        <v>1.04</v>
       </c>
       <c r="H57">
         <v>2.2400000000000002</v>
@@ -12793,7 +12830,7 @@
         <v>0.78</v>
       </c>
       <c r="G58">
-        <v>1.76</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H58">
         <v>2.56</v>
@@ -12828,7 +12865,7 @@
         <v>1.78</v>
       </c>
       <c r="G59">
-        <v>2.23</v>
+        <v>1.41</v>
       </c>
       <c r="H59">
         <v>1.87</v>
@@ -12863,7 +12900,7 @@
         <v>1.2</v>
       </c>
       <c r="G60">
-        <v>2.31</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H60">
         <v>1.86</v>
@@ -12898,7 +12935,7 @@
         <v>0.89</v>
       </c>
       <c r="G61">
-        <v>2.09</v>
+        <v>0.89</v>
       </c>
       <c r="H61">
         <v>2.23</v>
@@ -12933,7 +12970,7 @@
         <v>0.76</v>
       </c>
       <c r="G62">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="H62">
         <v>2.4</v>
@@ -12968,7 +13005,7 @@
         <v>0.83</v>
       </c>
       <c r="G63">
-        <v>2.4700000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="H63">
         <v>1.96</v>
@@ -13003,7 +13040,7 @@
         <v>0.87</v>
       </c>
       <c r="G64">
-        <v>2.88</v>
+        <v>1.17</v>
       </c>
       <c r="H64">
         <v>1.81</v>
@@ -13038,7 +13075,7 @@
         <v>0.85</v>
       </c>
       <c r="G65">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="H65">
         <v>2.12</v>
@@ -13073,7 +13110,7 @@
         <v>0.81</v>
       </c>
       <c r="G66">
-        <v>2.5299999999999998</v>
+        <v>0.92</v>
       </c>
       <c r="H66">
         <v>1.75</v>
@@ -13108,7 +13145,7 @@
         <v>1.31</v>
       </c>
       <c r="G67">
-        <v>1.73</v>
+        <v>0.92</v>
       </c>
       <c r="H67">
         <v>1.59</v>
@@ -13143,7 +13180,7 @@
         <v>1.17</v>
       </c>
       <c r="G68">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="H68">
         <v>1.6</v>
@@ -13178,7 +13215,7 @@
         <v>0.68</v>
       </c>
       <c r="G69">
-        <v>2.2599999999999998</v>
+        <v>1.26</v>
       </c>
       <c r="H69">
         <v>2.09</v>
@@ -13213,7 +13250,7 @@
         <v>0.82</v>
       </c>
       <c r="G70">
-        <v>2.19</v>
+        <v>1.03</v>
       </c>
       <c r="H70">
         <v>2.0099999999999998</v>
@@ -13248,7 +13285,7 @@
         <v>0.84</v>
       </c>
       <c r="G71">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="H71">
         <v>1.56</v>
@@ -13283,7 +13320,7 @@
         <v>1.25</v>
       </c>
       <c r="G72">
-        <v>1.82</v>
+        <v>0.99</v>
       </c>
       <c r="H72">
         <v>1.66</v>
@@ -13318,7 +13355,7 @@
         <v>1.05</v>
       </c>
       <c r="G73">
-        <v>1.93</v>
+        <v>0.93</v>
       </c>
       <c r="H73">
         <v>1.76</v>
@@ -13353,7 +13390,7 @@
         <v>0.85</v>
       </c>
       <c r="G74">
-        <v>1.79</v>
+        <v>0.9</v>
       </c>
       <c r="H74">
         <v>2.42</v>
@@ -13388,7 +13425,7 @@
         <v>0.8</v>
       </c>
       <c r="G75">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="H75">
         <v>1.57</v>
@@ -13423,7 +13460,7 @@
         <v>1.19</v>
       </c>
       <c r="G76">
-        <v>2.69</v>
+        <v>1.32</v>
       </c>
       <c r="H76">
         <v>1.92</v>
@@ -13458,7 +13495,7 @@
         <v>1.06</v>
       </c>
       <c r="G77">
-        <v>2.2799999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="H77">
         <v>2.1</v>
@@ -13493,7 +13530,7 @@
         <v>0.74</v>
       </c>
       <c r="G78">
-        <v>1.66</v>
+        <v>1.06</v>
       </c>
       <c r="H78">
         <v>2.9</v>
@@ -13528,7 +13565,7 @@
         <v>0.82</v>
       </c>
       <c r="G79">
-        <v>2.2799999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="H79">
         <v>3.46</v>
@@ -13563,7 +13600,7 @@
         <v>0.78</v>
       </c>
       <c r="G80">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="H80">
         <v>1.68</v>
@@ -13598,7 +13635,7 @@
         <v>0.77</v>
       </c>
       <c r="G81">
-        <v>2.59</v>
+        <v>1.07</v>
       </c>
       <c r="H81">
         <v>1.95</v>
@@ -13633,7 +13670,7 @@
         <v>1.2</v>
       </c>
       <c r="G82">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="H82">
         <v>2.93</v>
@@ -13668,7 +13705,7 @@
         <v>0.69</v>
       </c>
       <c r="G83">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="H83">
         <v>1.98</v>
@@ -13703,7 +13740,7 @@
         <v>0.79</v>
       </c>
       <c r="G84">
-        <v>2.91</v>
+        <v>1.24</v>
       </c>
       <c r="H84">
         <v>2.41</v>
@@ -13738,7 +13775,7 @@
         <v>0.81</v>
       </c>
       <c r="G85">
-        <v>2.27</v>
+        <v>1.56</v>
       </c>
       <c r="H85">
         <v>1.67</v>
@@ -13773,7 +13810,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G86">
-        <v>2.1800000000000002</v>
+        <v>1.03</v>
       </c>
       <c r="H86">
         <v>2.0099999999999998</v>
@@ -13808,7 +13845,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G87">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H87">
         <v>1.77</v>
@@ -13843,7 +13880,7 @@
         <v>0.84</v>
       </c>
       <c r="G88">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="H88">
         <v>2.67</v>
@@ -13878,7 +13915,7 @@
         <v>0.81</v>
       </c>
       <c r="G89">
-        <v>1.8</v>
+        <v>0.94</v>
       </c>
       <c r="H89">
         <v>1.96</v>
@@ -13913,7 +13950,7 @@
         <v>0.81</v>
       </c>
       <c r="G90">
-        <v>2.4700000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="H90">
         <v>1.96</v>
@@ -13948,7 +13985,7 @@
         <v>0.82</v>
       </c>
       <c r="G91">
-        <v>2.2400000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="H91">
         <v>1.87</v>
@@ -13983,7 +14020,7 @@
         <v>0.74</v>
       </c>
       <c r="G92">
-        <v>1.72</v>
+        <v>0.96</v>
       </c>
       <c r="H92">
         <v>1.55</v>
@@ -14018,7 +14055,7 @@
         <v>0.72</v>
       </c>
       <c r="G93">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="H93">
         <v>2.39</v>
@@ -14053,7 +14090,7 @@
         <v>0.85</v>
       </c>
       <c r="G94">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="H94">
         <v>2.62</v>
@@ -14088,7 +14125,7 @@
         <v>1.04</v>
       </c>
       <c r="G95">
-        <v>1.92</v>
+        <v>1.06</v>
       </c>
       <c r="H95">
         <v>2.5</v>
@@ -14123,7 +14160,7 @@
         <v>0.78</v>
       </c>
       <c r="G96">
-        <v>2.92</v>
+        <v>0.94</v>
       </c>
       <c r="H96">
         <v>2.4500000000000002</v>
@@ -14158,7 +14195,7 @@
         <v>1.05</v>
       </c>
       <c r="G97">
-        <v>1.65</v>
+        <v>0.92</v>
       </c>
       <c r="H97">
         <v>2.54</v>
@@ -14193,7 +14230,7 @@
         <v>0.9</v>
       </c>
       <c r="G98">
-        <v>1.78</v>
+        <v>0.95</v>
       </c>
       <c r="H98">
         <v>2.19</v>
@@ -14228,7 +14265,7 @@
         <v>0.75</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="H99">
         <v>1.56</v>
@@ -14263,7 +14300,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="G100">
-        <v>1.98</v>
+        <v>1.07</v>
       </c>
       <c r="H100">
         <v>1.87</v>
@@ -14298,7 +14335,7 @@
         <v>0.98</v>
       </c>
       <c r="G101">
-        <v>1.75</v>
+        <v>0.92</v>
       </c>
       <c r="H101">
         <v>2.5099999999999998</v>
@@ -14342,7 +14379,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="0"/>
-        <v>2.0390000000000001</v>
+        <v>1.1495000000000002</v>
       </c>
       <c r="H103">
         <f t="shared" si="0"/>
@@ -14391,7 +14428,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>0.36672313614750257</v>
+        <v>0.3716394880672792</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
@@ -14440,7 +14477,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="2"/>
-        <v>1.48</v>
+        <v>0.88</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
@@ -14489,7 +14526,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>0.94</v>
       </c>
       <c r="H107">
         <f t="shared" si="3"/>
@@ -14538,7 +14575,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>1.9350000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="H108">
         <f t="shared" si="4"/>
@@ -14587,7 +14624,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
-        <v>2.2624999999999997</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="5"/>
@@ -14636,7 +14673,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="H110">
         <f t="shared" si="6"/>
@@ -14685,7 +14722,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="7"/>
-        <v>0.27</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="7"/>
@@ -14737,7 +14774,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="8"/>
-        <v>1.75</v>
+        <v>0.94</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="8"/>
@@ -14789,7 +14826,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="9"/>
-        <v>0.18500000000000005</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="9"/>
@@ -14841,7 +14878,7 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="9"/>
-        <v>0.32749999999999968</v>
+        <v>0.19249999999999989</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="9"/>
@@ -14893,7 +14930,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="9"/>
-        <v>0.81750000000000034</v>
+        <v>2.0374999999999996</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="9"/>
@@ -14936,8 +14973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15001,7 +15038,7 @@
         <v>0.35</v>
       </c>
       <c r="G2">
-        <v>1.85</v>
+        <v>0.98</v>
       </c>
       <c r="H2">
         <v>2.14</v>
@@ -15036,7 +15073,7 @@
         <v>0.35</v>
       </c>
       <c r="G3">
-        <v>1.37</v>
+        <v>0.64</v>
       </c>
       <c r="H3">
         <v>2.37</v>
@@ -15071,7 +15108,7 @@
         <v>0.35</v>
       </c>
       <c r="G4">
-        <v>1.77</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H4">
         <v>1.43</v>
@@ -15106,7 +15143,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G5">
-        <v>1.51</v>
+        <v>0.77</v>
       </c>
       <c r="H5">
         <v>2.0499999999999998</v>
@@ -15141,7 +15178,7 @@
         <v>0.45</v>
       </c>
       <c r="G6">
-        <v>2.0099999999999998</v>
+        <v>0.67</v>
       </c>
       <c r="H6">
         <v>1.57</v>
@@ -15176,7 +15213,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G7">
-        <v>2.13</v>
+        <v>1.46</v>
       </c>
       <c r="H7">
         <v>1.46</v>
@@ -15211,7 +15248,7 @@
         <v>0.31</v>
       </c>
       <c r="G8">
-        <v>2.02</v>
+        <v>0.59</v>
       </c>
       <c r="H8">
         <v>1.65</v>
@@ -15246,7 +15283,7 @@
         <v>0.32</v>
       </c>
       <c r="G9">
-        <v>1.65</v>
+        <v>0.68</v>
       </c>
       <c r="H9">
         <v>2.35</v>
@@ -15281,7 +15318,7 @@
         <v>0.54</v>
       </c>
       <c r="G10">
-        <v>1.75</v>
+        <v>1.99</v>
       </c>
       <c r="H10">
         <v>2.38</v>
@@ -15316,7 +15353,7 @@
         <v>0.31</v>
       </c>
       <c r="G11">
-        <v>2.31</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H11">
         <v>1.86</v>
@@ -15351,7 +15388,7 @@
         <v>0.37</v>
       </c>
       <c r="G12">
-        <v>1.51</v>
+        <v>0.61</v>
       </c>
       <c r="H12">
         <v>1.54</v>
@@ -15386,7 +15423,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G13">
-        <v>1.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H13">
         <v>1.58</v>
@@ -15421,7 +15458,7 @@
         <v>0.43</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>0.71</v>
       </c>
       <c r="H14">
         <v>1.82</v>
@@ -15456,7 +15493,7 @@
         <v>0.32</v>
       </c>
       <c r="G15">
-        <v>1.86</v>
+        <v>0.68</v>
       </c>
       <c r="H15">
         <v>2.37</v>
@@ -15491,7 +15528,7 @@
         <v>0.42</v>
       </c>
       <c r="G16">
-        <v>1.82</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H16">
         <v>1.58</v>
@@ -15526,7 +15563,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G17">
-        <v>1.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H17">
         <v>1.98</v>
@@ -15561,7 +15598,7 @@
         <v>0.37</v>
       </c>
       <c r="G18">
-        <v>1.6</v>
+        <v>0.63</v>
       </c>
       <c r="H18">
         <v>1.48</v>
@@ -15596,7 +15633,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G19">
-        <v>4.3899999999999997</v>
+        <v>0.81</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -15631,7 +15668,7 @@
         <v>0.36</v>
       </c>
       <c r="G20">
-        <v>2.19</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H20">
         <v>1.43</v>
@@ -15666,7 +15703,7 @@
         <v>0.34</v>
       </c>
       <c r="G21">
-        <v>1.46</v>
+        <v>0.65</v>
       </c>
       <c r="H21">
         <v>1.34</v>
@@ -15701,7 +15738,7 @@
         <v>0.49</v>
       </c>
       <c r="G22">
-        <v>1.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H22">
         <v>1.27</v>
@@ -15736,7 +15773,7 @@
         <v>0.41</v>
       </c>
       <c r="G23">
-        <v>2.2799999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="H23">
         <v>1.7</v>
@@ -15771,7 +15808,7 @@
         <v>0.45</v>
       </c>
       <c r="G24">
-        <v>1.7</v>
+        <v>0.61</v>
       </c>
       <c r="H24">
         <v>1.6</v>
@@ -15806,7 +15843,7 @@
         <v>0.45</v>
       </c>
       <c r="G25">
-        <v>1.44</v>
+        <v>0.59</v>
       </c>
       <c r="H25">
         <v>1.46</v>
@@ -15841,7 +15878,7 @@
         <v>0.31</v>
       </c>
       <c r="G26">
-        <v>1.57</v>
+        <v>0.6</v>
       </c>
       <c r="H26">
         <v>1.81</v>
@@ -15876,7 +15913,7 @@
         <v>0.4</v>
       </c>
       <c r="G27">
-        <v>1.63</v>
+        <v>0.6</v>
       </c>
       <c r="H27">
         <v>1.69</v>
@@ -15911,7 +15948,7 @@
         <v>0.34</v>
       </c>
       <c r="G28">
-        <v>2.23</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H28">
         <v>2.0699999999999998</v>
@@ -15946,7 +15983,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G29">
-        <v>1.55</v>
+        <v>0.71</v>
       </c>
       <c r="H29">
         <v>1.96</v>
@@ -15981,7 +16018,7 @@
         <v>0.49</v>
       </c>
       <c r="G30">
-        <v>1.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H30">
         <v>1.93</v>
@@ -16016,7 +16053,7 @@
         <v>0.31</v>
       </c>
       <c r="G31">
-        <v>2.06</v>
+        <v>0.68</v>
       </c>
       <c r="H31">
         <v>1.9</v>
@@ -16051,7 +16088,7 @@
         <v>0.38</v>
       </c>
       <c r="G32">
-        <v>1.41</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H32">
         <v>2.0699999999999998</v>
@@ -16086,7 +16123,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G33">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="H33">
         <v>1.59</v>
@@ -16121,7 +16158,7 @@
         <v>0.46</v>
       </c>
       <c r="G34">
-        <v>1.54</v>
+        <v>0.72</v>
       </c>
       <c r="H34">
         <v>1.7</v>
@@ -16156,7 +16193,7 @@
         <v>0.34</v>
       </c>
       <c r="G35">
-        <v>1.58</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H35">
         <v>1.47</v>
@@ -16191,7 +16228,7 @@
         <v>0.35</v>
       </c>
       <c r="G36">
-        <v>1.56</v>
+        <v>0.71</v>
       </c>
       <c r="H36">
         <v>1.89</v>
@@ -16226,7 +16263,7 @@
         <v>0.35</v>
       </c>
       <c r="G37">
-        <v>1.46</v>
+        <v>0.65</v>
       </c>
       <c r="H37">
         <v>1.99</v>
@@ -16261,7 +16298,7 @@
         <v>0.37</v>
       </c>
       <c r="G38">
-        <v>1.72</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H38">
         <v>1.96</v>
@@ -16296,7 +16333,7 @@
         <v>0.44</v>
       </c>
       <c r="G39">
-        <v>1.23</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H39">
         <v>1.92</v>
@@ -16331,7 +16368,7 @@
         <v>0.49</v>
       </c>
       <c r="G40">
-        <v>2.2200000000000002</v>
+        <v>1.61</v>
       </c>
       <c r="H40">
         <v>1.36</v>
@@ -16366,7 +16403,7 @@
         <v>0.34</v>
       </c>
       <c r="G41">
-        <v>1.59</v>
+        <v>0.64</v>
       </c>
       <c r="H41">
         <v>2.4</v>
@@ -16401,7 +16438,7 @@
         <v>0.3</v>
       </c>
       <c r="G42">
-        <v>1.62</v>
+        <v>0.6</v>
       </c>
       <c r="H42">
         <v>2.1</v>
@@ -16436,7 +16473,7 @@
         <v>0.36</v>
       </c>
       <c r="G43">
-        <v>1.9</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H43">
         <v>2.21</v>
@@ -16471,7 +16508,7 @@
         <v>0.37</v>
       </c>
       <c r="G44">
-        <v>1.69</v>
+        <v>0.62</v>
       </c>
       <c r="H44">
         <v>1.1499999999999999</v>
@@ -16506,7 +16543,7 @@
         <v>0.45</v>
       </c>
       <c r="G45">
-        <v>1.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H45">
         <v>1.99</v>
@@ -16541,7 +16578,7 @@
         <v>0.35</v>
       </c>
       <c r="G46">
-        <v>1.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H46">
         <v>1.98</v>
@@ -16576,7 +16613,7 @@
         <v>0.37</v>
       </c>
       <c r="G47">
-        <v>1.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H47">
         <v>2.34</v>
@@ -16611,7 +16648,7 @@
         <v>0.34</v>
       </c>
       <c r="G48">
-        <v>2.72</v>
+        <v>0.71</v>
       </c>
       <c r="H48">
         <v>1.62</v>
@@ -16646,7 +16683,7 @@
         <v>0.45</v>
       </c>
       <c r="G49">
-        <v>1.46</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H49">
         <v>1.47</v>
@@ -16681,7 +16718,7 @@
         <v>0.35</v>
       </c>
       <c r="G50">
-        <v>1.42</v>
+        <v>0.89</v>
       </c>
       <c r="H50">
         <v>1.45</v>
@@ -16716,7 +16753,7 @@
         <v>0.32</v>
       </c>
       <c r="G51">
-        <v>2.14</v>
+        <v>0.62</v>
       </c>
       <c r="H51">
         <v>1.34</v>
@@ -16751,7 +16788,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G52">
-        <v>1.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H52">
         <v>1.42</v>
@@ -16786,7 +16823,7 @@
         <v>0.36</v>
       </c>
       <c r="G53">
-        <v>2.02</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H53">
         <v>1.58</v>
@@ -16821,7 +16858,7 @@
         <v>0.36</v>
       </c>
       <c r="G54">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2.11</v>
@@ -16856,7 +16893,7 @@
         <v>0.36</v>
       </c>
       <c r="G55">
-        <v>2.13</v>
+        <v>0.74</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -16891,7 +16928,7 @@
         <v>0.54</v>
       </c>
       <c r="G56">
-        <v>2.27</v>
+        <v>0.61</v>
       </c>
       <c r="H56">
         <v>1.6</v>
@@ -16926,7 +16963,7 @@
         <v>0.34</v>
       </c>
       <c r="G57">
-        <v>1.86</v>
+        <v>0.61</v>
       </c>
       <c r="H57">
         <v>2.4300000000000002</v>
@@ -16961,7 +16998,7 @@
         <v>0.3</v>
       </c>
       <c r="G58">
-        <v>1.96</v>
+        <v>0.86</v>
       </c>
       <c r="H58">
         <v>2.16</v>
@@ -16996,7 +17033,7 @@
         <v>0.32</v>
       </c>
       <c r="G59">
-        <v>2.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H59">
         <v>1.36</v>
@@ -17031,7 +17068,7 @@
         <v>0.34</v>
       </c>
       <c r="G60">
-        <v>2.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H60">
         <v>2.29</v>
@@ -17066,7 +17103,7 @@
         <v>0.3</v>
       </c>
       <c r="G61">
-        <v>3.06</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H61">
         <v>1.7</v>
@@ -17101,7 +17138,7 @@
         <v>0.3</v>
       </c>
       <c r="G62">
-        <v>1.7</v>
+        <v>0.66</v>
       </c>
       <c r="H62">
         <v>1.51</v>
@@ -17136,7 +17173,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G63">
-        <v>1.47</v>
+        <v>0.61</v>
       </c>
       <c r="H63">
         <v>1.98</v>
@@ -17171,7 +17208,7 @@
         <v>0.35</v>
       </c>
       <c r="G64">
-        <v>2.16</v>
+        <v>0.65</v>
       </c>
       <c r="H64">
         <v>2.11</v>
@@ -17206,7 +17243,7 @@
         <v>0.44</v>
       </c>
       <c r="G65">
-        <v>1.6</v>
+        <v>0.65</v>
       </c>
       <c r="H65">
         <v>2.06</v>
@@ -17241,7 +17278,7 @@
         <v>0.33</v>
       </c>
       <c r="G66">
-        <v>1.48</v>
+        <v>0.74</v>
       </c>
       <c r="H66">
         <v>1.64</v>
@@ -17276,7 +17313,7 @@
         <v>0.32</v>
       </c>
       <c r="G67">
-        <v>2.1800000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="H67">
         <v>1.99</v>
@@ -17311,7 +17348,7 @@
         <v>0.53</v>
       </c>
       <c r="G68">
-        <v>2.15</v>
+        <v>0.61</v>
       </c>
       <c r="H68">
         <v>1.55</v>
@@ -17346,7 +17383,7 @@
         <v>0.34</v>
       </c>
       <c r="G69">
-        <v>1.45</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H69">
         <v>1.77</v>
@@ -17381,7 +17418,7 @@
         <v>0.34</v>
       </c>
       <c r="G70">
-        <v>1.58</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H70">
         <v>1.64</v>
@@ -17416,7 +17453,7 @@
         <v>0.51</v>
       </c>
       <c r="G71">
-        <v>1.6</v>
+        <v>0.65</v>
       </c>
       <c r="H71">
         <v>3.58</v>
@@ -17451,7 +17488,7 @@
         <v>0.53</v>
       </c>
       <c r="G72">
-        <v>1.46</v>
+        <v>0.61</v>
       </c>
       <c r="H72">
         <v>1.37</v>
@@ -17486,7 +17523,7 @@
         <v>0.31</v>
       </c>
       <c r="G73">
-        <v>1.72</v>
+        <v>0.69</v>
       </c>
       <c r="H73">
         <v>1.94</v>
@@ -17521,7 +17558,7 @@
         <v>0.36</v>
       </c>
       <c r="G74">
-        <v>2.1</v>
+        <v>0.62</v>
       </c>
       <c r="H74">
         <v>1.76</v>
@@ -17556,7 +17593,7 @@
         <v>0.36</v>
       </c>
       <c r="G75">
-        <v>1.42</v>
+        <v>0.66</v>
       </c>
       <c r="H75">
         <v>1.76</v>
@@ -17591,7 +17628,7 @@
         <v>0.33</v>
       </c>
       <c r="G76">
-        <v>2.0299999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="H76">
         <v>1.87</v>
@@ -17626,7 +17663,7 @@
         <v>0.35</v>
       </c>
       <c r="G77">
-        <v>1.67</v>
+        <v>0.72</v>
       </c>
       <c r="H77">
         <v>1.45</v>
@@ -17661,7 +17698,7 @@
         <v>0.41</v>
       </c>
       <c r="G78">
-        <v>1.56</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H78">
         <v>1.92</v>
@@ -17696,7 +17733,7 @@
         <v>0.37</v>
       </c>
       <c r="G79">
-        <v>1.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H79">
         <v>1.55</v>
@@ -17731,7 +17768,7 @@
         <v>0.48</v>
       </c>
       <c r="G80">
-        <v>1.64</v>
+        <v>0.6</v>
       </c>
       <c r="H80">
         <v>1.95</v>
@@ -17766,7 +17803,7 @@
         <v>0.33</v>
       </c>
       <c r="G81">
-        <v>1.64</v>
+        <v>0.69</v>
       </c>
       <c r="H81">
         <v>1.47</v>
@@ -17801,7 +17838,7 @@
         <v>0.49</v>
       </c>
       <c r="G82">
-        <v>1.87</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H82">
         <v>1.52</v>
@@ -17836,7 +17873,7 @@
         <v>0.38</v>
       </c>
       <c r="G83">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="H83">
         <v>1.96</v>
@@ -17871,7 +17908,7 @@
         <v>0.36</v>
       </c>
       <c r="G84">
-        <v>1.24</v>
+        <v>0.65</v>
       </c>
       <c r="H84">
         <v>2.31</v>
@@ -17906,7 +17943,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G85">
-        <v>2.02</v>
+        <v>0.62</v>
       </c>
       <c r="H85">
         <v>2.19</v>
@@ -17941,7 +17978,7 @@
         <v>0.36</v>
       </c>
       <c r="G86">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="H86">
         <v>1.63</v>
@@ -17976,7 +18013,7 @@
         <v>0.36</v>
       </c>
       <c r="G87">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="H87">
         <v>2.0699999999999998</v>
@@ -18011,7 +18048,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G88">
-        <v>1.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -18046,7 +18083,7 @@
         <v>0.48</v>
       </c>
       <c r="G89">
-        <v>1.42</v>
+        <v>0.59</v>
       </c>
       <c r="H89">
         <v>1.36</v>
@@ -18081,7 +18118,7 @@
         <v>0.45</v>
       </c>
       <c r="G90">
-        <v>2.09</v>
+        <v>0.59</v>
       </c>
       <c r="H90">
         <v>1.64</v>
@@ -18116,7 +18153,7 @@
         <v>0.37</v>
       </c>
       <c r="G91">
-        <v>1.44</v>
+        <v>0.69</v>
       </c>
       <c r="H91">
         <v>1.94</v>
@@ -18151,7 +18188,7 @@
         <v>0.36</v>
       </c>
       <c r="G92">
-        <v>1.51</v>
+        <v>0.61</v>
       </c>
       <c r="H92">
         <v>1.44</v>
@@ -18186,7 +18223,7 @@
         <v>0.34</v>
       </c>
       <c r="G93">
-        <v>2.09</v>
+        <v>0.96</v>
       </c>
       <c r="H93">
         <v>1.81</v>
@@ -18221,7 +18258,7 @@
         <v>0.49</v>
       </c>
       <c r="G94">
-        <v>1.93</v>
+        <v>0.92</v>
       </c>
       <c r="H94">
         <v>5.54</v>
@@ -18256,7 +18293,7 @@
         <v>0.45</v>
       </c>
       <c r="G95">
-        <v>1.67</v>
+        <v>0.62</v>
       </c>
       <c r="H95">
         <v>1.52</v>
@@ -18291,7 +18328,7 @@
         <v>0.33</v>
       </c>
       <c r="G96">
-        <v>1.46</v>
+        <v>0.81</v>
       </c>
       <c r="H96">
         <v>1.85</v>
@@ -18326,7 +18363,7 @@
         <v>0.46</v>
       </c>
       <c r="G97">
-        <v>1.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H97">
         <v>1.3</v>
@@ -18361,7 +18398,7 @@
         <v>0.35</v>
       </c>
       <c r="G98">
-        <v>1.31</v>
+        <v>0.84</v>
       </c>
       <c r="H98">
         <v>3.96</v>
@@ -18396,7 +18433,7 @@
         <v>0.38</v>
       </c>
       <c r="G99">
-        <v>1.61</v>
+        <v>1.06</v>
       </c>
       <c r="H99">
         <v>1.72</v>
@@ -18431,7 +18468,7 @@
         <v>0.35</v>
       </c>
       <c r="G100">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="H100">
         <v>1.39</v>
@@ -18466,7 +18503,7 @@
         <v>0.33</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H101">
         <v>1.4</v>
@@ -18510,7 +18547,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="0"/>
-        <v>1.7730999999999995</v>
+        <v>0.72499999999999976</v>
       </c>
       <c r="H103">
         <f t="shared" si="0"/>
@@ -18559,7 +18596,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>0.42466551305680622</v>
+        <v>0.27058298452628582</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
@@ -18608,7 +18645,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="2"/>
-        <v>1.23</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
@@ -18657,7 +18694,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>1.5049999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H107">
         <f t="shared" si="3"/>
@@ -18706,7 +18743,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>1.6349999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="H108">
         <f t="shared" si="4"/>
@@ -18755,7 +18792,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
-        <v>2.0124999999999997</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H109">
         <f t="shared" si="5"/>
@@ -18804,7 +18841,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>4.3899999999999997</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H110">
         <f t="shared" si="6"/>
@@ -18853,7 +18890,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="7"/>
-        <v>0.27499999999999991</v>
+        <v>2.9999999999999916E-2</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="7"/>
@@ -18905,7 +18942,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="8"/>
-        <v>1.5049999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="8"/>
@@ -18957,7 +18994,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="9"/>
-        <v>0.12999999999999989</v>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="9"/>
@@ -19009,7 +19046,7 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="9"/>
-        <v>0.37749999999999995</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="9"/>
@@ -19061,7 +19098,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="9"/>
-        <v>2.3774999999999999</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="9"/>
@@ -19104,7 +19141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -19126,8 +19163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20765,7 +20802,7 @@
         <v>18.383499999999998</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="D103:G103" si="4">AVERAGE(F2:F101)</f>
+        <f t="shared" ref="F103:G103" si="4">AVERAGE(F2:F101)</f>
         <v>0.67342792956768394</v>
       </c>
       <c r="G103">
@@ -20786,7 +20823,7 @@
         <v>3.7660831875780074</v>
       </c>
       <c r="F104">
-        <f t="shared" ref="D104:G104" si="5">STDEV(F2:F101)</f>
+        <f t="shared" ref="F104:G104" si="5">STDEV(F2:F101)</f>
         <v>0.130699229921663</v>
       </c>
       <c r="G104">
@@ -20807,7 +20844,7 @@
         <v>14.53</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="D106:G106" si="6">MIN(F2:F101)</f>
+        <f t="shared" ref="F106:G106" si="6">MIN(F2:F101)</f>
         <v>0.36823935558112769</v>
       </c>
       <c r="G106">
@@ -20828,7 +20865,7 @@
         <v>15.9175</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="D107:G107" si="7">_xlfn.QUARTILE.INC(F2:F101,1)</f>
+        <f t="shared" ref="F107:G107" si="7">_xlfn.QUARTILE.INC(F2:F101,1)</f>
         <v>0.5842187182424935</v>
       </c>
       <c r="G107">
@@ -20849,7 +20886,7 @@
         <v>17.510000000000002</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="D108:G108" si="8">MEDIAN(F2:F101)</f>
+        <f t="shared" ref="F108:G108" si="8">MEDIAN(F2:F101)</f>
         <v>0.69016070757472581</v>
       </c>
       <c r="G108">
@@ -20870,7 +20907,7 @@
         <v>19.295000000000002</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="D109:G109" si="9">_xlfn.QUARTILE.INC(F2:F101,3)</f>
+        <f t="shared" ref="F109:G109" si="9">_xlfn.QUARTILE.INC(F2:F101,3)</f>
         <v>0.77165310184363234</v>
       </c>
       <c r="G109">
@@ -20891,7 +20928,7 @@
         <v>36.44</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="D110:G110" si="10">MAX(F2:F101)</f>
+        <f t="shared" ref="F110:G110" si="10">MAX(F2:F101)</f>
         <v>0.92539039907460963</v>
       </c>
       <c r="G110">

--- a/measurements/measurements.xlsx
+++ b/measurements/measurements.xlsx
@@ -316,7 +316,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100148650995831"/>
+          <c:y val="0.017632241813602"/>
+          <c:w val="0.875954290180639"/>
+          <c:h val="0.774736706400365"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -354,44 +364,41 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=8'!$A$112:$L$112</c:f>
+                <c:f>'encode k=10,m=3, w=8'!$B$112:$L$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.0175000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1175</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0899999999999998</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0499999999999998</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.0675000000000001</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0699999999999998</c:v>
+                    <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.225</c:v>
+                    <c:v>0.2375</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2375</c:v>
+                    <c:v>0.5175</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.5175</c:v>
+                    <c:v>1.27</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.27</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>2.535</c:v>
                   </c:pt>
                 </c:numCache>
@@ -446,25 +453,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1475</c:v>
+                  <c:v>1.0475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13</c:v>
+                  <c:v>1.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44</c:v>
+                  <c:v>1.4475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.135</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1675</c:v>
@@ -545,25 +552,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0799999999999998</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0975000000000001</c:v>
+                  <c:v>0.0374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105</c:v>
+                  <c:v>0.0450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.145</c:v>
+                  <c:v>0.0899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0800000000000001</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.0849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2075</c:v>
@@ -602,44 +609,41 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=8'!$A$116:$L$116</c:f>
+                <c:f>'encode k=10,m=3, w=8'!$B$116:$L$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>1.01</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.7675</c:v>
+                    <c:v>0.77</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.82</c:v>
+                    <c:v>0.8225</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.1275</c:v>
+                    <c:v>1.705</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.6475</c:v>
+                    <c:v>0.82</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.79</c:v>
+                    <c:v>1.69</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.2075</c:v>
+                    <c:v>2.4575</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7475</c:v>
+                    <c:v>1.615</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.615</c:v>
+                    <c:v>2.422499999999999</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.422499999999999</c:v>
+                    <c:v>11.125</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>11.125</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>37.48</c:v>
                   </c:pt>
                 </c:numCache>
@@ -703,25 +707,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1825</c:v>
+                  <c:v>0.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.205</c:v>
+                  <c:v>0.0749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2075</c:v>
+                  <c:v>0.0724999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1425</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3075</c:v>
+                  <c:v>0.2575</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.51</c:v>
@@ -749,11 +753,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135397336"/>
-        <c:axId val="2122485864"/>
+        <c:axId val="2128566104"/>
+        <c:axId val="2130590776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135397336"/>
+        <c:axId val="2128566104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122485864"/>
+        <c:crossAx val="2130590776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -789,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122485864"/>
+        <c:axId val="2130590776"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -821,7 +825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135397336"/>
+        <c:crossAx val="2128566104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,11 +1092,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2121775816"/>
-        <c:axId val="2129144360"/>
+        <c:axId val="-2112353336"/>
+        <c:axId val="2123111048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121775816"/>
+        <c:axId val="-2112353336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129144360"/>
+        <c:crossAx val="2123111048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1109,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129144360"/>
+        <c:axId val="2123111048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121775816"/>
+        <c:crossAx val="-2112353336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,11 +1409,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2129613320"/>
-        <c:axId val="2129078280"/>
+        <c:axId val="2122981336"/>
+        <c:axId val="2135776296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129613320"/>
+        <c:axId val="2122981336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129078280"/>
+        <c:crossAx val="2135776296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129078280"/>
+        <c:axId val="2135776296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1456,7 +1460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129613320"/>
+        <c:crossAx val="2122981336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,44 +1550,41 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=16'!$A$112:$L$112</c:f>
+                <c:f>'encode k=10,m=3, w=16'!$B$112:$L$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.11</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0674999999999999</c:v>
+                    <c:v>0.0275</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0699999999999999</c:v>
+                    <c:v>0.0874999999999999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0874999999999999</c:v>
+                    <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.1</c:v>
+                    <c:v>0.0599999999999999</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0599999999999999</c:v>
+                    <c:v>0.2175</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.2175</c:v>
+                    <c:v>0.3875</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.3875</c:v>
+                    <c:v>0.8525</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.8525</c:v>
+                    <c:v>1.5375</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.5375</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>2.759999999999998</c:v>
                   </c:pt>
                 </c:numCache>
@@ -1638,13 +1639,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5875</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6475</c:v>
@@ -1737,13 +1738,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.0399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0775000000000001</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0525</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -1794,44 +1795,41 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=16'!$A$116:$L$116</c:f>
+                <c:f>'encode k=10,m=3, w=16'!$B$116:$L$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>1.52</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.63</c:v>
+                    <c:v>0.76</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>1.4775</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2975</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>2.0375</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9575</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.2975</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.0375</c:v>
+                    <c:v>1.3675</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3675</c:v>
+                    <c:v>8.0475</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.0475</c:v>
+                    <c:v>6.672499999999999</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.672499999999999</c:v>
+                    <c:v>32.23</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>32.23</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>29.9075</c:v>
                   </c:pt>
                 </c:numCache>
@@ -1895,13 +1893,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.115</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1525</c:v>
+                  <c:v>0.1225</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1725</c:v>
@@ -1941,11 +1939,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135239640"/>
-        <c:axId val="2124021976"/>
+        <c:axId val="2137395000"/>
+        <c:axId val="-2111068072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135239640"/>
+        <c:axId val="2137395000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124021976"/>
+        <c:crossAx val="-2111068072"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124021976"/>
+        <c:axId val="-2111068072"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2013,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135239640"/>
+        <c:crossAx val="2137395000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,44 +2106,41 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=32'!$A$112:$L$112</c:f>
+                <c:f>'encode k=10,m=3, w=32'!$B$112:$L$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>0.00999999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0.0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.00999999999999999</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.00999999999999999</c:v>
+                    <c:v>0.01</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.01</c:v>
+                    <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.05</c:v>
+                    <c:v>0.0299999999999999</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0299999999999999</c:v>
+                    <c:v>0.37</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.37</c:v>
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.5625</c:v>
+                    <c:v>0.8175</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.8175</c:v>
+                    <c:v>1.66</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.66</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>3.627499999999998</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2206,7 +2201,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.16</c:v>
@@ -2221,7 +2216,7 @@
                   <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0725</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.2875</c:v>
@@ -2299,7 +2294,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.00999999999999999</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -2320,7 +2315,7 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4725</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.4225</c:v>
@@ -2356,44 +2351,41 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'encode k=10,m=3, w=32'!$A$116:$L$116</c:f>
+                <c:f>'encode k=10,m=3, w=32'!$B$116:$L$116</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2375</c:v>
+                    <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1</c:v>
+                    <c:v>0.07</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.79</c:v>
+                    <c:v>0.2175</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2175</c:v>
+                    <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.14</c:v>
+                    <c:v>1.475</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.475</c:v>
+                    <c:v>3.54</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.54</c:v>
+                    <c:v>7.1775</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>20.0975</c:v>
+                    <c:v>5.047500000000001</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>5.047500000000001</c:v>
+                    <c:v>14.4675</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>14.4675</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>40.275</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2457,13 +2449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0025</c:v>
+                  <c:v>0.00999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -2478,7 +2470,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.487500000000001</c:v>
+                  <c:v>0.8325</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.792499999999999</c:v>
@@ -2503,11 +2495,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122553720"/>
-        <c:axId val="2122343832"/>
+        <c:axId val="-2111118280"/>
+        <c:axId val="2137428168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122553720"/>
+        <c:axId val="-2111118280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122343832"/>
+        <c:crossAx val="2137428168"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2543,7 +2535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122343832"/>
+        <c:axId val="2137428168"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2575,7 +2567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122553720"/>
+        <c:crossAx val="-2111118280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2678,25 +2670,25 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1175</c:v>
+                    <c:v>0.0175000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0899999999999998</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0499999999999998</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0699999999999998</c:v>
+                    <c:v>0.0675000000000001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.225</c:v>
+                    <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.2375</c:v>
@@ -2762,25 +2754,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1475</c:v>
+                  <c:v>1.0475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13</c:v>
+                  <c:v>1.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44</c:v>
+                  <c:v>1.4475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.135</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1675</c:v>
@@ -2861,25 +2853,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0799999999999998</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0975000000000001</c:v>
+                  <c:v>0.0374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105</c:v>
+                  <c:v>0.0450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.145</c:v>
+                  <c:v>0.0899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0800000000000001</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.0849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2075</c:v>
@@ -2926,25 +2918,25 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.7675</c:v>
+                    <c:v>1.01</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.82</c:v>
+                    <c:v>0.77</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.1275</c:v>
+                    <c:v>0.8225</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.6475</c:v>
+                    <c:v>1.705</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.79</c:v>
+                    <c:v>0.82</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.2075</c:v>
+                    <c:v>1.69</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7475</c:v>
+                    <c:v>2.4575</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1.615</c:v>
@@ -3019,25 +3011,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1825</c:v>
+                  <c:v>0.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.205</c:v>
+                  <c:v>0.0749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2075</c:v>
+                  <c:v>0.0724999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1425</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3075</c:v>
+                  <c:v>0.2575</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.51</c:v>
@@ -3065,11 +3057,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2123452728"/>
-        <c:axId val="2122887544"/>
+        <c:axId val="2137552264"/>
+        <c:axId val="2138701336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123452728"/>
+        <c:axId val="2137552264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122887544"/>
+        <c:crossAx val="2138701336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122887544"/>
+        <c:axId val="2138701336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3136,7 +3128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123452728"/>
+        <c:crossAx val="2137552264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3237,13 +3229,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.11</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0674999999999999</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0699999999999999</c:v>
+                    <c:v>0.0275</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.0874999999999999</c:v>
@@ -3321,13 +3313,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5875</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6475</c:v>
@@ -3420,13 +3412,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.0399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0775000000000001</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0525</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -3485,13 +3477,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.63</c:v>
+                    <c:v>1.52</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0375</c:v>
+                    <c:v>0.76</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.9575</c:v>
+                    <c:v>1.4775</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.2975</c:v>
@@ -3578,13 +3570,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.115</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1525</c:v>
+                  <c:v>0.1225</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1725</c:v>
@@ -3624,11 +3616,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110202024"/>
-        <c:axId val="-2112062376"/>
+        <c:axId val="2123298744"/>
+        <c:axId val="2138237832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110202024"/>
+        <c:axId val="2123298744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112062376"/>
+        <c:crossAx val="2138237832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3664,7 +3656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112062376"/>
+        <c:axId val="2138237832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3695,7 +3687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110202024"/>
+        <c:crossAx val="2123298744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3799,7 +3791,7 @@
                     <c:v>0.00999999999999999</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.00999999999999999</c:v>
+                    <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.01</c:v>
@@ -3814,7 +3806,7 @@
                     <c:v>0.37</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.5625</c:v>
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.8175</c:v>
@@ -3883,7 +3875,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.16</c:v>
@@ -3898,7 +3890,7 @@
                   <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0725</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.2875</c:v>
@@ -3976,7 +3968,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.00999999999999999</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -3997,7 +3989,7 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4725</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.4225</c:v>
@@ -4041,13 +4033,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2375</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.79</c:v>
+                    <c:v>0.07</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.2175</c:v>
@@ -4062,7 +4054,7 @@
                     <c:v>3.54</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>20.0975</c:v>
+                    <c:v>7.1775</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>5.047500000000001</c:v>
@@ -4134,13 +4126,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0025</c:v>
+                  <c:v>0.00999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -4155,7 +4147,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.487500000000001</c:v>
+                  <c:v>0.8325</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.792499999999999</c:v>
@@ -4180,11 +4172,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2138321720"/>
-        <c:axId val="-2111940216"/>
+        <c:axId val="2135138488"/>
+        <c:axId val="-2112143672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138321720"/>
+        <c:axId val="2135138488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,7 +4204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111940216"/>
+        <c:crossAx val="-2112143672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4220,7 +4212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111940216"/>
+        <c:axId val="-2112143672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4251,7 +4243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138321720"/>
+        <c:crossAx val="2135138488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4349,25 +4341,25 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1175</c:v>
+                    <c:v>0.0175000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0899999999999998</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0499999999999998</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0700000000000001</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0699999999999998</c:v>
+                    <c:v>0.0675000000000001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.225</c:v>
+                    <c:v>0.14</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.2375</c:v>
@@ -4433,25 +4425,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1475</c:v>
+                  <c:v>1.0475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13</c:v>
+                  <c:v>1.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44</c:v>
+                  <c:v>1.4475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.135</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1675</c:v>
@@ -4532,25 +4524,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0799999999999998</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0975000000000001</c:v>
+                  <c:v>0.0374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105</c:v>
+                  <c:v>0.0450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.145</c:v>
+                  <c:v>0.0899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0800000000000001</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.0849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2075</c:v>
@@ -4597,25 +4589,25 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.7675</c:v>
+                    <c:v>1.01</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.82</c:v>
+                    <c:v>0.77</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.1275</c:v>
+                    <c:v>0.8225</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.6475</c:v>
+                    <c:v>1.705</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.79</c:v>
+                    <c:v>0.82</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.2075</c:v>
+                    <c:v>1.69</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7475</c:v>
+                    <c:v>2.4575</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1.615</c:v>
@@ -4690,25 +4682,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1825</c:v>
+                  <c:v>0.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.205</c:v>
+                  <c:v>0.0749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2075</c:v>
+                  <c:v>0.0724999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1425</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3075</c:v>
+                  <c:v>0.2575</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.51</c:v>
@@ -4736,11 +4728,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2111926504"/>
-        <c:axId val="2122421960"/>
+        <c:axId val="2122824392"/>
+        <c:axId val="2123024792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111926504"/>
+        <c:axId val="2122824392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4768,7 +4760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122421960"/>
+        <c:crossAx val="2123024792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4776,7 +4768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122421960"/>
+        <c:axId val="2123024792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4808,7 +4800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111926504"/>
+        <c:crossAx val="2122824392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4909,13 +4901,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.11</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0674999999999999</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0699999999999999</c:v>
+                    <c:v>0.0275</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.0874999999999999</c:v>
@@ -4993,13 +4985,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5875</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6475</c:v>
@@ -5092,13 +5084,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.0399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0775000000000001</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0525</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -5157,13 +5149,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.63</c:v>
+                    <c:v>1.52</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0375</c:v>
+                    <c:v>0.76</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.9575</c:v>
+                    <c:v>1.4775</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.2975</c:v>
@@ -5250,13 +5242,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.115</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1525</c:v>
+                  <c:v>0.1225</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1725</c:v>
@@ -5296,11 +5288,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124034536"/>
-        <c:axId val="2124035352"/>
+        <c:axId val="2138098120"/>
+        <c:axId val="-2112034744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124034536"/>
+        <c:axId val="2138098120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,7 +5320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124035352"/>
+        <c:crossAx val="-2112034744"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5336,7 +5328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124035352"/>
+        <c:axId val="-2112034744"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5368,7 +5360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124034536"/>
+        <c:crossAx val="2138098120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5472,7 +5464,7 @@
                     <c:v>0.00999999999999999</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.00999999999999999</c:v>
+                    <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.01</c:v>
@@ -5487,7 +5479,7 @@
                     <c:v>0.37</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.5625</c:v>
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.8175</c:v>
@@ -5556,7 +5548,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.16</c:v>
@@ -5571,7 +5563,7 @@
                   <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0725</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.2875</c:v>
@@ -5649,7 +5641,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.00999999999999999</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -5670,7 +5662,7 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4725</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.4225</c:v>
@@ -5714,13 +5706,13 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2375</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.79</c:v>
+                    <c:v>0.07</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.2175</c:v>
@@ -5735,7 +5727,7 @@
                     <c:v>3.54</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>20.0975</c:v>
+                    <c:v>7.1775</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>5.047500000000001</c:v>
@@ -5807,13 +5799,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0025</c:v>
+                  <c:v>0.00999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0425</c:v>
@@ -5828,7 +5820,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.487500000000001</c:v>
+                  <c:v>0.8325</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.792499999999999</c:v>
@@ -5853,11 +5845,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136128728"/>
-        <c:axId val="2136105112"/>
+        <c:axId val="2119884408"/>
+        <c:axId val="-2112729000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136128728"/>
+        <c:axId val="2119884408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5885,7 +5877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136105112"/>
+        <c:crossAx val="-2112729000"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5893,7 +5885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136105112"/>
+        <c:axId val="-2112729000"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5925,7 +5917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136128728"/>
+        <c:crossAx val="2119884408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6122,13 +6114,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6153,14 +6145,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6185,14 +6177,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6216,15 +6208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6637,8 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M136" sqref="M136"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6687,25 +6679,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="4">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="C2">
         <v>1.36</v>
       </c>
       <c r="D2">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="E2">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="H2">
-        <v>2.2000000000000002</v>
+        <v>2.29</v>
       </c>
       <c r="I2">
         <v>3.29</v>
@@ -6722,25 +6714,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="C3">
-        <v>1.1299999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="E3">
-        <v>1.36</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F3">
         <v>1.17</v>
       </c>
       <c r="G3">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H3">
-        <v>2.87</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I3">
         <v>5.27</v>
@@ -6757,25 +6749,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="4">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="C4">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="D4">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="E4">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="F4">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H4">
-        <v>2.4300000000000002</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I4">
         <v>4.3600000000000003</v>
@@ -6792,25 +6784,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="C5">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="D5">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="E5">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F5">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="H5">
-        <v>2.81</v>
+        <v>3.34</v>
       </c>
       <c r="I5">
         <v>3.9</v>
@@ -6827,25 +6819,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="4">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="C6">
-        <v>10.27</v>
+        <v>1.08</v>
       </c>
       <c r="D6">
-        <v>1.31</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E6">
-        <v>1.41</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F6">
-        <v>1.98</v>
+        <v>1.23</v>
       </c>
       <c r="G6">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H6">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="I6">
         <v>4.33</v>
@@ -6862,25 +6854,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D7">
         <v>1.05</v>
       </c>
-      <c r="C7">
-        <v>1.57</v>
-      </c>
-      <c r="D7">
-        <v>1.1599999999999999</v>
-      </c>
       <c r="E7">
-        <v>1.1100000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="F7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G7">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H7">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="I7">
         <v>4.28</v>
@@ -6897,25 +6889,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="4">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="C8">
-        <v>2.2799999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="D8">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="E8">
-        <v>1.47</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F8">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G8">
-        <v>3.28</v>
+        <v>1.51</v>
       </c>
       <c r="H8">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="I8">
         <v>3.17</v>
@@ -6932,25 +6924,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="4">
-        <v>1.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="D9">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="E9">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F9">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G9">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H9">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="I9">
         <v>4.12</v>
@@ -6967,25 +6959,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="4">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="C10">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="D10">
-        <v>1.39</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E10">
-        <v>1.36</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F10">
         <v>1.23</v>
       </c>
       <c r="G10">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="H10">
-        <v>2.46</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I10">
         <v>3.09</v>
@@ -7002,25 +6994,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D11">
         <v>1.05</v>
       </c>
-      <c r="C11">
-        <v>7.92</v>
-      </c>
-      <c r="D11">
-        <v>1.28</v>
-      </c>
       <c r="E11">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="F11">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="G11">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H11">
-        <v>4.0599999999999996</v>
+        <v>2.36</v>
       </c>
       <c r="I11">
         <v>3.27</v>
@@ -7037,25 +7029,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="4">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="C12">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="D12">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="E12">
-        <v>1.37</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F12">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="G12">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="H12">
-        <v>2.1800000000000002</v>
+        <v>2.82</v>
       </c>
       <c r="I12">
         <v>3.13</v>
@@ -7072,25 +7064,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="C13">
         <v>1.03</v>
-      </c>
-      <c r="C13">
-        <v>1.57</v>
       </c>
       <c r="D13">
         <v>1.22</v>
       </c>
       <c r="E13">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="F13">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="G13">
-        <v>2.15</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H13">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="I13">
         <v>2.97</v>
@@ -7107,25 +7099,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14">
         <v>1.29</v>
       </c>
       <c r="D14">
-        <v>2.21</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E14">
-        <v>1.49</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F14">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="G14">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="H14">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="I14">
         <v>5.5</v>
@@ -7142,25 +7134,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15">
-        <v>1.1100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="C15">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="D15">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="E15">
-        <v>1.31</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F15">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="G15">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="H15">
-        <v>3.06</v>
+        <v>2.06</v>
       </c>
       <c r="I15">
         <v>3.01</v>
@@ -7177,25 +7169,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16">
-        <v>1.0900000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="C16">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="D16">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E16">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F16">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="G16">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="H16">
-        <v>4.32</v>
+        <v>2.62</v>
       </c>
       <c r="I16">
         <v>3.92</v>
@@ -7212,25 +7204,25 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.04</v>
+      </c>
+      <c r="D17">
+        <v>1.07</v>
+      </c>
+      <c r="E17">
+        <v>1.28</v>
+      </c>
+      <c r="F17">
         <v>1.3</v>
       </c>
-      <c r="C17">
-        <v>1.47</v>
-      </c>
-      <c r="D17">
-        <v>1.83</v>
-      </c>
-      <c r="E17">
-        <v>1.29</v>
-      </c>
-      <c r="F17">
-        <v>1.26</v>
-      </c>
       <c r="G17">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="H17">
-        <v>2.14</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I17">
         <v>3.57</v>
@@ -7247,25 +7239,25 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="C18">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="D18">
-        <v>1.53</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E18">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="F18">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="G18">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="H18">
-        <v>2.39</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I18">
         <v>4.25</v>
@@ -7282,25 +7274,25 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="C19">
+        <v>1.03</v>
+      </c>
+      <c r="D19">
+        <v>1.05</v>
+      </c>
+      <c r="E19">
+        <v>1.07</v>
+      </c>
+      <c r="F19">
         <v>1.17</v>
       </c>
-      <c r="D19">
-        <v>1.46</v>
-      </c>
-      <c r="E19">
-        <v>1.92</v>
-      </c>
-      <c r="F19">
-        <v>1.18</v>
-      </c>
       <c r="G19">
-        <v>1.39</v>
+        <v>2.66</v>
       </c>
       <c r="H19">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="I19">
         <v>4.01</v>
@@ -7317,25 +7309,25 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20">
-        <v>1.1100000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="C20">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="D20">
-        <v>1.0900000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E20">
-        <v>1.32</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F20">
-        <v>1.32</v>
+        <v>1.99</v>
       </c>
       <c r="G20">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="H20">
-        <v>2.34</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I20">
         <v>3.18</v>
@@ -7352,25 +7344,25 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="C21">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D21">
-        <v>3.59</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E21">
-        <v>1.38</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F21">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G21">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="H21">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="I21">
         <v>3.25</v>
@@ -7387,25 +7379,25 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22">
-        <v>1.45</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
       <c r="E22">
-        <v>1.33</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F22">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G22">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="H22">
-        <v>2.4700000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="I22">
         <v>4.21</v>
@@ -7422,25 +7414,25 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23">
-        <v>1.1399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C23">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D23">
-        <v>1.17</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E23">
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F23">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G23">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>3.61</v>
@@ -7457,25 +7449,25 @@
     </row>
     <row r="24" spans="2:12">
       <c r="B24">
-        <v>1.1200000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="C24">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="D24">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="E24">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="F24">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="G24">
-        <v>1.39</v>
+        <v>2.61</v>
       </c>
       <c r="H24">
-        <v>3.11</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I24">
         <v>4.7300000000000004</v>
@@ -7492,25 +7484,25 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C25">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="D25">
-        <v>1.35</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E25">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="F25">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="G25">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H25">
-        <v>2.2799999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="I25">
         <v>3.42</v>
@@ -7527,25 +7519,25 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="C26">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="D26">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E26">
-        <v>1.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F26">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="G26">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="H26">
-        <v>2.33</v>
+        <v>2.11</v>
       </c>
       <c r="I26">
         <v>4.0599999999999996</v>
@@ -7562,25 +7554,25 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="C27">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D27">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E27">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="F27">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G27">
-        <v>2.2200000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="H27">
-        <v>2.91</v>
+        <v>2.68</v>
       </c>
       <c r="I27">
         <v>3.8</v>
@@ -7597,25 +7589,25 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C28">
         <v>1.03</v>
       </c>
-      <c r="C28">
-        <v>1.05</v>
-      </c>
       <c r="D28">
-        <v>1.56</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E28">
-        <v>1.1599999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F28">
-        <v>1.89</v>
+        <v>1.19</v>
       </c>
       <c r="G28">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="H28">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I28">
         <v>3.62</v>
@@ -7632,25 +7624,25 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29">
-        <v>1.22</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C29">
+        <v>1.06</v>
+      </c>
+      <c r="D29">
+        <v>1.07</v>
+      </c>
+      <c r="E29">
+        <v>1.4</v>
+      </c>
+      <c r="F29">
         <v>1.45</v>
       </c>
-      <c r="D29">
-        <v>2.17</v>
-      </c>
-      <c r="E29">
-        <v>1.18</v>
-      </c>
-      <c r="F29">
-        <v>1.28</v>
-      </c>
       <c r="G29">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H29">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I29">
         <v>4.13</v>
@@ -7667,25 +7659,25 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30">
-        <v>1.73</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C30">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D30">
         <v>1.08</v>
       </c>
-      <c r="D30">
-        <v>1.23</v>
-      </c>
       <c r="E30">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="F30">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="G30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="H30">
-        <v>4.34</v>
+        <v>2.14</v>
       </c>
       <c r="I30">
         <v>3.13</v>
@@ -7702,25 +7694,25 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C31">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="D31">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E31">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F31">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G31">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="H31">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="I31">
         <v>3.29</v>
@@ -7737,25 +7729,25 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32">
-        <v>1.58</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C32">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="D32">
-        <v>1.1200000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="E32">
-        <v>1.21</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F32">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="G32">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="H32">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="I32">
         <v>3.13</v>
@@ -7772,25 +7764,25 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="C33">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D33">
-        <v>1.86</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E33">
-        <v>1.77</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F33">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G33">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="H33">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="I33">
         <v>3.68</v>
@@ -7807,25 +7799,25 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="C34">
-        <v>1.91</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="E34">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="F34">
-        <v>1.18</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G34">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="H34">
-        <v>2.34</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I34">
         <v>3.35</v>
@@ -7842,25 +7834,25 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="C35">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="D35">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E35">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="F35">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="G35">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="H35">
-        <v>2.0699999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="I35">
         <v>3.38</v>
@@ -7877,25 +7869,25 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="C36">
-        <v>1.5</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D36">
-        <v>1.22</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E36">
-        <v>1.0900000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="F36">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="G36">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="H36">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="I36">
         <v>3.02</v>
@@ -7912,25 +7904,25 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C37">
-        <v>1.37</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D37">
-        <v>1.41</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E37">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="F37">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="G37">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="H37">
-        <v>2.88</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I37">
         <v>4.2699999999999996</v>
@@ -7947,25 +7939,25 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38">
+        <v>1.03</v>
+      </c>
+      <c r="C38">
+        <v>1.04</v>
+      </c>
+      <c r="D38">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C38">
-        <v>1.17</v>
-      </c>
-      <c r="D38">
-        <v>1.43</v>
-      </c>
-      <c r="E38">
-        <v>1.55</v>
-      </c>
       <c r="F38">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="G38">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H38">
-        <v>2.69</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I38">
         <v>3.68</v>
@@ -7982,25 +7974,25 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39">
-        <v>1.18</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C39">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="D39">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="E39">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="F39">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="G39">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="H39">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I39">
         <v>3.81</v>
@@ -8017,25 +8009,25 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="C40">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D40">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="E40">
-        <v>1.1599999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="F40">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="G40">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="H40">
-        <v>2.15</v>
+        <v>2.86</v>
       </c>
       <c r="I40">
         <v>3.27</v>
@@ -8052,25 +8044,25 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41">
+        <v>1.04</v>
+      </c>
+      <c r="C41">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D41">
+        <v>1.25</v>
+      </c>
+      <c r="E41">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C41">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D41">
-        <v>1.08</v>
-      </c>
-      <c r="E41">
-        <v>1.68</v>
-      </c>
       <c r="F41">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="G41">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H41">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="I41">
         <v>2.96</v>
@@ -8087,25 +8079,25 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="C42">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="D42">
-        <v>1.87</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E42">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="F42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G42">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H42">
-        <v>4.74</v>
+        <v>1.95</v>
       </c>
       <c r="I42">
         <v>3.58</v>
@@ -8122,25 +8114,25 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C43">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="D43">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="E43">
-        <v>1.1100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="F43">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="G43">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="H43">
-        <v>2.2799999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I43">
         <v>3.25</v>
@@ -8157,25 +8149,25 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="C44">
-        <v>1.24</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D44">
-        <v>2.35</v>
+        <v>1.08</v>
       </c>
       <c r="E44">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F44">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G44">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="H44">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I44">
         <v>3.22</v>
@@ -8192,25 +8184,25 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="C45">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D45">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="E45">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F45">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="G45">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="H45">
-        <v>2.04</v>
+        <v>2.37</v>
       </c>
       <c r="I45">
         <v>3.21</v>
@@ -8227,25 +8219,25 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C46">
-        <v>1.31</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D46">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="E46">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="F46">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="G46">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H46">
-        <v>1.95</v>
+        <v>2.59</v>
       </c>
       <c r="I46">
         <v>3.41</v>
@@ -8265,22 +8257,22 @@
         <v>1.04</v>
       </c>
       <c r="C47">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="D47">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="E47">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="F47">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="G47">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H47">
-        <v>2.06</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I47">
         <v>3.36</v>
@@ -8297,25 +8289,25 @@
     </row>
     <row r="48" spans="2:12">
       <c r="B48">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="C48">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D48">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="E48">
-        <v>1.83</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F48">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="G48">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="H48">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="I48">
         <v>4.24</v>
@@ -8332,25 +8324,25 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="C49">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="D49">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="E49">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="F49">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="G49">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="H49">
-        <v>2.35</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I49">
         <v>3.82</v>
@@ -8367,25 +8359,25 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50">
-        <v>1.33</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C50">
-        <v>1.39</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D50">
-        <v>2.42</v>
+        <v>1.17</v>
       </c>
       <c r="E50">
-        <v>1.49</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F50">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="G50">
-        <v>4.87</v>
+        <v>1.42</v>
       </c>
       <c r="H50">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="I50">
         <v>3.88</v>
@@ -8402,25 +8394,25 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="C51">
+        <v>1.05</v>
+      </c>
+      <c r="D51">
         <v>1.08</v>
       </c>
-      <c r="D51">
-        <v>1.79</v>
-      </c>
       <c r="E51">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="F51">
-        <v>1.77</v>
+        <v>1.41</v>
       </c>
       <c r="G51">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H51">
-        <v>2.59</v>
+        <v>2.02</v>
       </c>
       <c r="I51">
         <v>3.18</v>
@@ -8437,25 +8429,25 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52">
-        <v>1.37</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C52">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="D52">
-        <v>1.78</v>
+        <v>1.08</v>
       </c>
       <c r="E52">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="F52">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="G52">
         <v>1.41</v>
       </c>
       <c r="H52">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="I52">
         <v>3.06</v>
@@ -8472,25 +8464,25 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="C53">
-        <v>1.1200000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="D53">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E53">
-        <v>1.67</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F53">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="G53">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="H53">
-        <v>4.28</v>
+        <v>1.92</v>
       </c>
       <c r="I53">
         <v>3.16</v>
@@ -8507,25 +8499,25 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="C54">
-        <v>6.93</v>
+        <v>1.07</v>
       </c>
       <c r="D54">
-        <v>1.51</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E54">
-        <v>1.0900000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="F54">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="G54">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="H54">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="I54">
         <v>4.2300000000000004</v>
@@ -8542,25 +8534,25 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55">
+        <v>1.55</v>
+      </c>
+      <c r="C55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E55">
+        <v>1.98</v>
+      </c>
+      <c r="F55">
         <v>1.42</v>
       </c>
-      <c r="C55">
-        <v>1.53</v>
-      </c>
-      <c r="D55">
-        <v>1.44</v>
-      </c>
-      <c r="E55">
-        <v>1.69</v>
-      </c>
-      <c r="F55">
-        <v>1.77</v>
-      </c>
       <c r="G55">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="H55">
-        <v>2.41</v>
+        <v>1.99</v>
       </c>
       <c r="I55">
         <v>3.11</v>
@@ -8577,25 +8569,25 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C56">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="D56">
-        <v>1.54</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E56">
-        <v>1.1100000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="F56">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="G56">
-        <v>2.0499999999999998</v>
+        <v>1.71</v>
       </c>
       <c r="H56">
-        <v>1.97</v>
+        <v>2.33</v>
       </c>
       <c r="I56">
         <v>4.34</v>
@@ -8612,25 +8604,25 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57">
-        <v>1.33</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C57">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="D57">
-        <v>3.42</v>
+        <v>1.08</v>
       </c>
       <c r="E57">
-        <v>1.28</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F57">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="G57">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="H57">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="I57">
         <v>3.15</v>
@@ -8647,25 +8639,25 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="C58">
-        <v>1.61</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D58">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="E58">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="F58">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="G58">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="H58">
-        <v>1.91</v>
+        <v>3.06</v>
       </c>
       <c r="I58">
         <v>3.62</v>
@@ -8682,25 +8674,25 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="C59">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1.17</v>
+      </c>
+      <c r="E59">
         <v>1.24</v>
       </c>
-      <c r="D59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E59">
-        <v>1.31</v>
-      </c>
       <c r="F59">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="G59">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H59">
-        <v>2.93</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I59">
         <v>3.46</v>
@@ -8717,25 +8709,25 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C60">
-        <v>1.34</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D60">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E60">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="F60">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="G60">
-        <v>2.0299999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="H60">
-        <v>3.11</v>
+        <v>2.16</v>
       </c>
       <c r="I60">
         <v>4.2</v>
@@ -8752,25 +8744,25 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="C61">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D61">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E61">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="F61">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="G61">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="H61">
-        <v>2.64</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I61">
         <v>3.71</v>
@@ -8787,25 +8779,25 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C62">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="D62">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="E62">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="F62">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G62">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="H62">
-        <v>2.96</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I62">
         <v>3.37</v>
@@ -8822,25 +8814,25 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C63">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="D63">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E63">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="F63">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="G63">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="H63">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="I63">
         <v>4.2</v>
@@ -8857,25 +8849,25 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64">
+        <v>1.08</v>
+      </c>
+      <c r="C64">
+        <v>1.22</v>
+      </c>
+      <c r="D64">
+        <v>1.18</v>
+      </c>
+      <c r="E64">
+        <v>1.4</v>
+      </c>
+      <c r="F64">
         <v>1.21</v>
       </c>
-      <c r="C64">
-        <v>1.19</v>
-      </c>
-      <c r="D64">
-        <v>1.68</v>
-      </c>
-      <c r="E64">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F64">
-        <v>1.49</v>
-      </c>
       <c r="G64">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="H64">
-        <v>2.11</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I64">
         <v>3.2</v>
@@ -8892,25 +8884,25 @@
     </row>
     <row r="65" spans="2:12">
       <c r="B65">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="C65">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="D65">
-        <v>1.66</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E65">
-        <v>1.37</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F65">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="G65">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="H65">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="I65">
         <v>3.24</v>
@@ -8927,25 +8919,25 @@
     </row>
     <row r="66" spans="2:12">
       <c r="B66">
-        <v>1.05</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C66">
-        <v>1.1499999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D66">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="E66">
-        <v>1.0900000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="F66">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="G66">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="H66">
-        <v>4.6500000000000004</v>
+        <v>1.95</v>
       </c>
       <c r="I66">
         <v>3.7</v>
@@ -8962,25 +8954,25 @@
     </row>
     <row r="67" spans="2:12">
       <c r="B67">
+        <v>1.22</v>
+      </c>
+      <c r="C67">
         <v>1.05</v>
       </c>
-      <c r="C67">
-        <v>1.28</v>
-      </c>
       <c r="D67">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="E67">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="F67">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="G67">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="H67">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="I67">
         <v>3.21</v>
@@ -8997,25 +8989,25 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C68">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="D68">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="E68">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F68">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="G68">
-        <v>1.59</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H68">
-        <v>1.92</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I68">
         <v>3.27</v>
@@ -9032,25 +9024,25 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69">
-        <v>1.18</v>
+        <v>2.16</v>
       </c>
       <c r="C69">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="D69">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E69">
-        <v>1.1100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="F69">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G69">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H69">
-        <v>2.5299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="I69">
         <v>3.17</v>
@@ -9067,25 +9059,25 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="C70">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="D70">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E70">
-        <v>1.1000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="F70">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="G70">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="H70">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I70">
         <v>4.43</v>
@@ -9102,25 +9094,25 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="C71">
-        <v>1.29</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D71">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="E71">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F71">
-        <v>3.32</v>
+        <v>1.48</v>
       </c>
       <c r="G71">
-        <v>1.58</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H71">
-        <v>2.64</v>
+        <v>3.24</v>
       </c>
       <c r="I71">
         <v>3.59</v>
@@ -9137,25 +9129,25 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C72">
-        <v>1.69</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D72">
+        <v>1.17</v>
+      </c>
+      <c r="E72">
+        <v>3.06</v>
+      </c>
+      <c r="F72">
         <v>1.3</v>
       </c>
-      <c r="E72">
-        <v>1.4</v>
-      </c>
-      <c r="F72">
-        <v>1.43</v>
-      </c>
       <c r="G72">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="H72">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>4.7</v>
@@ -9172,25 +9164,25 @@
     </row>
     <row r="73" spans="2:12">
       <c r="B73">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C73">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D73">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E73">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="F73">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="G73">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="H73">
-        <v>3.08</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I73">
         <v>3.26</v>
@@ -9207,25 +9199,25 @@
     </row>
     <row r="74" spans="2:12">
       <c r="B74">
+        <v>1.24</v>
+      </c>
+      <c r="C74">
+        <v>1.08</v>
+      </c>
+      <c r="D74">
+        <v>1.39</v>
+      </c>
+      <c r="E74">
+        <v>2.02</v>
+      </c>
+      <c r="F74">
         <v>1.65</v>
       </c>
-      <c r="C74">
-        <v>1.29</v>
-      </c>
-      <c r="D74">
-        <v>1.24</v>
-      </c>
-      <c r="E74">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F74">
-        <v>1.45</v>
-      </c>
       <c r="G74">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="H74">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="I74">
         <v>3.66</v>
@@ -9242,25 +9234,25 @@
     </row>
     <row r="75" spans="2:12">
       <c r="B75">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="C75">
-        <v>1.84</v>
+        <v>1.18</v>
       </c>
       <c r="D75">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="E75">
-        <v>1.19</v>
+        <v>2.44</v>
       </c>
       <c r="F75">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G75">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="H75">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="I75">
         <v>2.93</v>
@@ -9277,25 +9269,25 @@
     </row>
     <row r="76" spans="2:12">
       <c r="B76">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="C76">
-        <v>1.27</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D76">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="E76">
-        <v>1.0900000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="F76">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="G76">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="H76">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="I76">
         <v>3.88</v>
@@ -9312,25 +9304,25 @@
     </row>
     <row r="77" spans="2:12">
       <c r="B77">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="C77">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="D77">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="E77">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="F77">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G77">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H77">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="I77">
         <v>3.04</v>
@@ -9347,25 +9339,25 @@
     </row>
     <row r="78" spans="2:12">
       <c r="B78">
-        <v>1.54</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C78">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="D78">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="E78">
-        <v>1.1299999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="F78">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
       <c r="G78">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="H78">
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
       <c r="I78">
         <v>3.11</v>
@@ -9382,25 +9374,25 @@
     </row>
     <row r="79" spans="2:12">
       <c r="B79">
-        <v>1.76</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C79">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="D79">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="E79">
-        <v>1.0900000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="F79">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="G79">
-        <v>1.45</v>
+        <v>3.34</v>
       </c>
       <c r="H79">
-        <v>2.81</v>
+        <v>1.99</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -9417,25 +9409,25 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80">
-        <v>1.3</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C80">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="D80">
-        <v>1.1399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E80">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="F80">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="G80">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H80">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="I80">
         <v>3.34</v>
@@ -9452,25 +9444,25 @@
     </row>
     <row r="81" spans="2:12">
       <c r="B81">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="C81">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="D81">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="E81">
-        <v>1.1100000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="F81">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="G81">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H81">
-        <v>2.0099999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="I81">
         <v>3.12</v>
@@ -9487,25 +9479,25 @@
     </row>
     <row r="82" spans="2:12">
       <c r="B82">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C82">
-        <v>1.1100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D82">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E82">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="F82">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="G82">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="H82">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="I82">
         <v>3.64</v>
@@ -9522,25 +9514,25 @@
     </row>
     <row r="83" spans="2:12">
       <c r="B83">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="C83">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="D83">
-        <v>1.25</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E83">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="F83">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="G83">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="H83">
-        <v>1.94</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I83">
         <v>3.09</v>
@@ -9557,25 +9549,25 @@
     </row>
     <row r="84" spans="2:12">
       <c r="B84">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="C84">
-        <v>1.1200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="D84">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="E84">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="G84">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H84">
-        <v>3.24</v>
+        <v>2.1</v>
       </c>
       <c r="I84">
         <v>3.21</v>
@@ -9592,25 +9584,25 @@
     </row>
     <row r="85" spans="2:12">
       <c r="B85">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="C85">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="D85">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="E85">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F85">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="G85">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H85">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="I85">
         <v>3.58</v>
@@ -9627,25 +9619,25 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="C86">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="D86">
-        <v>1.1200000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="E86">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="F86">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="G86">
-        <v>2.0299999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="H86">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="I86">
         <v>3.12</v>
@@ -9662,25 +9654,25 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87">
-        <v>1.54</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C87">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="D87">
         <v>1.1499999999999999</v>
       </c>
       <c r="E87">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F87">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="G87">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H87">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="I87">
         <v>3.14</v>
@@ -9697,25 +9689,25 @@
     </row>
     <row r="88" spans="2:12">
       <c r="B88">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="C88">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="D88">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="E88">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F88">
         <v>1.18</v>
       </c>
       <c r="G88">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="H88">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="I88">
         <v>3.61</v>
@@ -9732,25 +9724,25 @@
     </row>
     <row r="89" spans="2:12">
       <c r="B89">
-        <v>1.55</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C89">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="D89">
-        <v>1.1100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="E89">
-        <v>1.0900000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="F89">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="G89">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="H89">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="I89">
         <v>3.8</v>
@@ -9767,25 +9759,25 @@
     </row>
     <row r="90" spans="2:12">
       <c r="B90">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="C90">
+        <v>1.26</v>
+      </c>
+      <c r="D90">
+        <v>1.48</v>
+      </c>
+      <c r="E90">
+        <v>1.64</v>
+      </c>
+      <c r="F90">
         <v>1.45</v>
       </c>
-      <c r="D90">
-        <v>1.08</v>
-      </c>
-      <c r="E90">
-        <v>1.28</v>
-      </c>
-      <c r="F90">
-        <v>1.67</v>
-      </c>
       <c r="G90">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="H90">
-        <v>2.39</v>
+        <v>1.87</v>
       </c>
       <c r="I90">
         <v>3.28</v>
@@ -9802,25 +9794,25 @@
     </row>
     <row r="91" spans="2:12">
       <c r="B91">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="C91">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D91">
-        <v>1.55</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E91">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="F91">
-        <v>2.2000000000000002</v>
+        <v>1.18</v>
       </c>
       <c r="G91">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="H91">
-        <v>2.1800000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="I91">
         <v>4.16</v>
@@ -9837,25 +9829,25 @@
     </row>
     <row r="92" spans="2:12">
       <c r="B92">
+        <v>1.04</v>
+      </c>
+      <c r="C92">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C92">
-        <v>1.24</v>
-      </c>
       <c r="D92">
-        <v>1.43</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E92">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F92">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="G92">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="H92">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="I92">
         <v>3.15</v>
@@ -9872,25 +9864,25 @@
     </row>
     <row r="93" spans="2:12">
       <c r="B93">
-        <v>1.42</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C93">
-        <v>1.45</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D93">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="E93">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="F93">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="G93">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="H93">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
       <c r="I93">
         <v>4.21</v>
@@ -9907,25 +9899,25 @@
     </row>
     <row r="94" spans="2:12">
       <c r="B94">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="C94">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="D94">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="E94">
-        <v>1.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F94">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="G94">
-        <v>1.4</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H94">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="I94">
         <v>3.09</v>
@@ -9942,25 +9934,25 @@
     </row>
     <row r="95" spans="2:12">
       <c r="B95">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="C95">
-        <v>1.0900000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="D95">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="E95">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="F95">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="G95">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="H95">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="I95">
         <v>3.27</v>
@@ -9977,25 +9969,25 @@
     </row>
     <row r="96" spans="2:12">
       <c r="B96">
-        <v>1.1100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="C96">
-        <v>1.34</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D96">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="E96">
-        <v>1.08</v>
+        <v>2.46</v>
       </c>
       <c r="F96">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="G96">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="H96">
-        <v>2.67</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I96">
         <v>3.11</v>
@@ -10012,25 +10004,25 @@
     </row>
     <row r="97" spans="1:13">
       <c r="B97">
-        <v>1.1000000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="C97">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D97">
-        <v>2.35</v>
+        <v>1.32</v>
       </c>
       <c r="E97">
-        <v>1.2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F97">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="G97">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="H97">
-        <v>4.79</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I97">
         <v>3.06</v>
@@ -10047,25 +10039,25 @@
     </row>
     <row r="98" spans="1:13">
       <c r="B98">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="C98">
-        <v>1.1599999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="D98">
-        <v>1.1599999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="E98">
-        <v>1.1000000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="F98">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="G98">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="H98">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="I98">
         <v>3.2</v>
@@ -10082,25 +10074,25 @@
     </row>
     <row r="99" spans="1:13">
       <c r="B99">
-        <v>1.0900000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C99">
-        <v>1.22</v>
+        <v>1.93</v>
       </c>
       <c r="D99">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="E99">
-        <v>1.1499999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="F99">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="G99">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H99">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="I99">
         <v>3.4</v>
@@ -10117,25 +10109,25 @@
     </row>
     <row r="100" spans="1:13">
       <c r="B100">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="C100">
-        <v>1.1399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="D100">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="E100">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F100">
-        <v>2.4500000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="G100">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H100">
-        <v>6.44</v>
+        <v>2.58</v>
       </c>
       <c r="I100">
         <v>4.07</v>
@@ -10152,25 +10144,25 @@
     </row>
     <row r="101" spans="1:13">
       <c r="B101">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="C101">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="D101">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E101">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="F101">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="G101">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="H101">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="I101">
         <v>3.03</v>
@@ -10191,31 +10183,31 @@
       </c>
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>1.2580999999999998</v>
+        <v>1.1373</v>
       </c>
       <c r="C103">
         <f t="shared" ref="C103:L103" si="0">AVERAGE(C2:C101)</f>
-        <v>1.5161999999999998</v>
+        <v>1.1468</v>
       </c>
       <c r="D103">
         <f t="shared" si="0"/>
-        <v>1.3956999999999997</v>
+        <v>1.1637999999999997</v>
       </c>
       <c r="E103">
         <f t="shared" si="0"/>
-        <v>1.3058999999999998</v>
+        <v>1.3162999999999996</v>
       </c>
       <c r="F103">
         <f t="shared" si="0"/>
-        <v>1.4242999999999997</v>
+        <v>1.3593000000000002</v>
       </c>
       <c r="G103">
         <f t="shared" si="0"/>
-        <v>1.6352999999999998</v>
+        <v>1.6175999999999997</v>
       </c>
       <c r="H103">
         <f t="shared" si="0"/>
-        <v>2.5816000000000003</v>
+        <v>2.2512999999999992</v>
       </c>
       <c r="I103">
         <f t="shared" si="0"/>
@@ -10240,31 +10232,31 @@
       </c>
       <c r="B104">
         <f>STDEV(B2:B101)</f>
-        <v>0.21706813620975396</v>
+        <v>0.17350722629261806</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:L104" si="1">STDEV(C2:C101)</f>
-        <v>1.255864449354116</v>
+        <v>0.17720546768589882</v>
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>0.4241265653485346</v>
+        <v>0.14944868380454154</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>0.21582865912804872</v>
+        <v>0.33562140467009666</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
-        <v>0.31456320525613274</v>
+        <v>0.20087311940877259</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>0.42238011268993303</v>
+        <v>0.31446963528320832</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.73471181734436308</v>
+        <v>0.41195923844649401</v>
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
@@ -10289,7 +10281,7 @@
       </c>
       <c r="B106">
         <f>MIN(B2:B101)</f>
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C106">
         <f t="shared" ref="C106:L106" si="2">MIN(C2:C101)</f>
@@ -10297,23 +10289,23 @@
       </c>
       <c r="D106">
         <f t="shared" si="2"/>
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E106">
         <f t="shared" si="2"/>
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F106">
         <f t="shared" si="2"/>
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="G106">
         <f t="shared" si="2"/>
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="I106">
         <f t="shared" si="2"/>
@@ -10338,31 +10330,31 @@
       </c>
       <c r="B107">
         <f>_xlfn.QUARTILE.INC(B2:B101,1)</f>
-        <v>1.1000000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C107">
         <f t="shared" ref="C107:L107" si="3">_xlfn.QUARTILE.INC(C2:C101,1)</f>
-        <v>1.1475</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F107">
         <f t="shared" si="3"/>
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>1.4475</v>
       </c>
       <c r="H107">
         <f t="shared" si="3"/>
-        <v>2.1350000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -10387,31 +10379,31 @@
       </c>
       <c r="B108">
         <f>MEDIAN(B2:B101)</f>
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108:L108" si="4">MEDIAN(C2:C101)</f>
-        <v>1.2450000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>1.2549999999999999</v>
+        <v>1.1150000000000002</v>
       </c>
       <c r="E108">
         <f t="shared" si="4"/>
-        <v>1.2749999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H108">
         <f t="shared" si="4"/>
-        <v>2.3849999999999998</v>
+        <v>2.0949999999999998</v>
       </c>
       <c r="I108">
         <f t="shared" si="4"/>
@@ -10436,31 +10428,31 @@
       </c>
       <c r="B109">
         <f>_xlfn.QUARTILE.INC(B2:B101,3)</f>
-        <v>1.3625</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:L109" si="5">_xlfn.QUARTILE.INC(C2:C101,3)</f>
-        <v>1.45</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>1.4624999999999999</v>
+        <v>1.1875</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>1.4124999999999999</v>
+        <v>1.355</v>
       </c>
       <c r="F109">
         <f t="shared" si="5"/>
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
-        <v>1.6624999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="H109">
         <f t="shared" si="5"/>
-        <v>2.6924999999999999</v>
+        <v>2.3525</v>
       </c>
       <c r="I109">
         <f t="shared" si="5"/>
@@ -10485,31 +10477,31 @@
       </c>
       <c r="B110">
         <f>MAX(B2:B101)</f>
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:L110" si="6">MAX(C2:C101)</f>
-        <v>10.27</v>
+        <v>1.93</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>3.59</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E110">
         <f t="shared" si="6"/>
-        <v>2.06</v>
+        <v>3.06</v>
       </c>
       <c r="F110">
         <f t="shared" si="6"/>
-        <v>3.32</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>4.87</v>
+        <v>3.34</v>
       </c>
       <c r="H110">
         <f t="shared" si="6"/>
-        <v>6.44</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I110">
         <f t="shared" si="6"/>
@@ -10534,31 +10526,31 @@
       </c>
       <c r="B112" s="3">
         <f>B107-B106</f>
-        <v>7.0000000000000062E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="C112" s="3">
         <f t="shared" ref="C112:L112" si="7">C107-C106</f>
-        <v>0.11749999999999994</v>
+        <v>1.7500000000000071E-2</v>
       </c>
       <c r="D112" s="3">
         <f t="shared" si="7"/>
-        <v>8.9999999999999858E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="7"/>
-        <v>4.9999999999999822E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="7"/>
-        <v>7.0000000000000062E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="G112" s="3">
         <f t="shared" si="7"/>
-        <v>6.999999999999984E-2</v>
+        <v>6.7500000000000115E-2</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="7"/>
-        <v>0.22500000000000031</v>
+        <v>0.13999999999999968</v>
       </c>
       <c r="I112" s="3">
         <f t="shared" si="7"/>
@@ -10586,31 +10578,31 @@
       </c>
       <c r="B113" s="1">
         <f>B107</f>
-        <v>1.1000000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" ref="C113:L113" si="8">C107</f>
-        <v>1.1475</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="8"/>
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="8"/>
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="8"/>
-        <v>1.44</v>
+        <v>1.4475</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="8"/>
-        <v>2.1350000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="8"/>
@@ -10638,19 +10630,19 @@
       </c>
       <c r="B114" s="1">
         <f>B108-B107</f>
-        <v>7.9999999999999849E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="C114" s="1">
         <f t="shared" ref="C114:L114" si="9">C108-C107</f>
-        <v>9.7500000000000142E-2</v>
+        <v>3.7499999999999867E-2</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="9"/>
-        <v>0.10499999999999998</v>
+        <v>4.5000000000000151E-2</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="9"/>
-        <v>0.14500000000000002</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="9"/>
@@ -10658,11 +10650,11 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="9"/>
-        <v>8.0000000000000071E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="9"/>
-        <v>0.24999999999999956</v>
+        <v>8.4999999999999964E-2</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="9"/>
@@ -10690,31 +10682,31 @@
       </c>
       <c r="B115" s="1">
         <f>B109-B108</f>
-        <v>0.18250000000000011</v>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" ref="C115:L115" si="10">C109-C108</f>
-        <v>0.20499999999999985</v>
+        <v>7.4999999999999956E-2</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="10"/>
-        <v>0.20750000000000002</v>
+        <v>7.2499999999999787E-2</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="10"/>
-        <v>0.13749999999999996</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="10"/>
-        <v>0.20999999999999996</v>
+        <v>0.11999999999999988</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="10"/>
-        <v>0.14249999999999985</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="10"/>
-        <v>0.30750000000000011</v>
+        <v>0.25750000000000028</v>
       </c>
       <c r="I115" s="1">
         <f t="shared" si="10"/>
@@ -10742,31 +10734,31 @@
       </c>
       <c r="B116" s="2">
         <f>B110-B109</f>
-        <v>0.76749999999999985</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" ref="C116:L116" si="11">C110-C109</f>
-        <v>8.82</v>
+        <v>0.77</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="11"/>
-        <v>2.1274999999999999</v>
+        <v>0.82249999999999979</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" si="11"/>
-        <v>0.64750000000000019</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" si="11"/>
-        <v>1.7899999999999998</v>
+        <v>0.82000000000000028</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" si="11"/>
-        <v>3.2075000000000005</v>
+        <v>1.69</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="11"/>
-        <v>3.7475000000000005</v>
+        <v>2.4574999999999996</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" si="11"/>
@@ -10805,8 +10797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10855,13 +10847,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="4">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="C2">
-        <v>2.84</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="E2">
         <v>1.07</v>
@@ -10890,13 +10882,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="4">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C3">
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
         <v>0.85</v>
@@ -10925,13 +10917,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="4">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="E4">
         <v>0.73</v>
@@ -10960,13 +10952,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="4">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="C5">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D5">
-        <v>0.69</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E5">
         <v>1.0900000000000001</v>
@@ -10995,13 +10987,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="4">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="C6">
         <v>0.63</v>
       </c>
       <c r="D6">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E6">
         <v>0.69</v>
@@ -11030,13 +11022,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="4">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="C7">
-        <v>0.66</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D7">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11065,13 +11057,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="4">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="D8">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E8">
         <v>0.74</v>
@@ -11100,13 +11092,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="4">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C9">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="D9">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E9">
         <v>0.64</v>
@@ -11138,10 +11130,10 @@
         <v>0.81</v>
       </c>
       <c r="C10">
-        <v>0.76</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D10">
-        <v>0.64</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E10">
         <v>0.67</v>
@@ -11170,13 +11162,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="4">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="C11">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="D11">
-        <v>0.86</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E11">
         <v>0.96</v>
@@ -11205,13 +11197,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="4">
-        <v>0.71</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C12">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="E12">
         <v>0.67</v>
@@ -11240,13 +11232,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="4">
-        <v>0.83</v>
+        <v>0.51</v>
       </c>
       <c r="C13">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0.57999999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="E13">
         <v>0.84</v>
@@ -11275,13 +11267,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="C14">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="D14">
-        <v>0.82</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E14">
         <v>1.0900000000000001</v>
@@ -11310,13 +11302,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15">
-        <v>0.96</v>
+        <v>0.59</v>
       </c>
       <c r="C15">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D15">
-        <v>3.79</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E15">
         <v>0.6</v>
@@ -11345,13 +11337,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16">
-        <v>0.8</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C16">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="D16">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="E16">
         <v>0.61</v>
@@ -11380,13 +11372,13 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="C17">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="D17">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E17">
         <v>0.56000000000000005</v>
@@ -11415,13 +11407,13 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="C18">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="D18">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E18">
         <v>0.61</v>
@@ -11450,13 +11442,13 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="C19">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="D19">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="E19">
         <v>0.59</v>
@@ -11485,13 +11477,13 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C20">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E20">
         <v>0.66</v>
@@ -11520,10 +11512,10 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="C21">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21">
         <v>0.56000000000000005</v>
@@ -11555,13 +11547,13 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22">
-        <v>1.41</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C22">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="D22">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="E22">
         <v>0.67</v>
@@ -11590,13 +11582,13 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="C23">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="D23">
-        <v>0.64</v>
+        <v>1.36</v>
       </c>
       <c r="E23">
         <v>0.69</v>
@@ -11625,13 +11617,13 @@
     </row>
     <row r="24" spans="2:12">
       <c r="B24">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="C24">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E24">
         <v>0.6</v>
@@ -11660,13 +11652,13 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25">
-        <v>0.82</v>
+        <v>0.51</v>
       </c>
       <c r="C25">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="D25">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E25">
         <v>0.57999999999999996</v>
@@ -11695,10 +11687,10 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="C26">
-        <v>0.56000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="D26">
         <v>0.62</v>
@@ -11730,13 +11722,13 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>0.81</v>
+        <v>0.52</v>
       </c>
       <c r="D27">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="E27">
         <v>0.68</v>
@@ -11765,13 +11757,13 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="C28">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="E28">
         <v>0.77</v>
@@ -11800,13 +11792,13 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29">
-        <v>1.52</v>
+        <v>0.61</v>
       </c>
       <c r="C29">
-        <v>1.1399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="D29">
-        <v>0.98</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E29">
         <v>0.62</v>
@@ -11835,13 +11827,13 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D30">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E30">
         <v>0.61</v>
@@ -11870,13 +11862,13 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31">
-        <v>0.64</v>
+        <v>1.31</v>
       </c>
       <c r="C31">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D31">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E31">
         <v>0.63</v>
@@ -11905,10 +11897,10 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32">
-        <v>1.1100000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C32">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="D32">
         <v>0.79</v>
@@ -11940,13 +11932,13 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="C33">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="D33">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E33">
         <v>0.66</v>
@@ -11975,13 +11967,13 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="C34">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E34">
         <v>0.59</v>
@@ -12010,13 +12002,13 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="C35">
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="D35">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="E35">
         <v>0.89</v>
@@ -12045,13 +12037,13 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C36">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D36">
-        <v>2.0299999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="E36">
         <v>0.87</v>
@@ -12080,13 +12072,13 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="C37">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="D37">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="E37">
         <v>0.86</v>
@@ -12115,13 +12107,13 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="C38">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="D38">
-        <v>2.2400000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="E38">
         <v>0.76</v>
@@ -12150,13 +12142,13 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="C39">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="D39">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="E39">
         <v>0.93</v>
@@ -12185,13 +12177,13 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40">
-        <v>0.69</v>
+        <v>0.52</v>
       </c>
       <c r="C40">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="D40">
-        <v>1.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E40">
         <v>0.67</v>
@@ -12220,13 +12212,13 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="C41">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="D41">
-        <v>1.07</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E41">
         <v>0.61</v>
@@ -12255,13 +12247,13 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="C42">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
-        <v>1.1000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E42">
         <v>0.65</v>
@@ -12290,13 +12282,13 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43">
-        <v>0.65</v>
+        <v>1.19</v>
       </c>
       <c r="C43">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="D43">
-        <v>1.22</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E43">
         <v>0.59</v>
@@ -12325,13 +12317,13 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44">
-        <v>0.66</v>
+        <v>2.16</v>
       </c>
       <c r="C44">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="D44">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="E44">
         <v>0.84</v>
@@ -12360,13 +12352,13 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="C45">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="D45">
-        <v>0.66</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E45">
         <v>0.59</v>
@@ -12395,13 +12387,13 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="C46">
-        <v>0.86</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D46">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
       <c r="E46">
         <v>0.59</v>
@@ -12430,13 +12422,13 @@
     </row>
     <row r="47" spans="2:12">
       <c r="B47">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="C47">
-        <v>0.57999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
-        <v>0.8</v>
+        <v>1.61</v>
       </c>
       <c r="E47">
         <v>0.67</v>
@@ -12465,13 +12457,13 @@
     </row>
     <row r="48" spans="2:12">
       <c r="B48">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="C48">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="E48">
         <v>0.6</v>
@@ -12500,13 +12492,13 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49">
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="C49">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="D49">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E49">
         <v>0.68</v>
@@ -12535,13 +12527,13 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50">
-        <v>1.1000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C50">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="D50">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="E50">
         <v>0.96</v>
@@ -12570,13 +12562,13 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="C51">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D51">
-        <v>0.85</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E51">
         <v>0.95</v>
@@ -12605,13 +12597,13 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52">
-        <v>1.47</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C52">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="D52">
-        <v>0.6</v>
+        <v>1.52</v>
       </c>
       <c r="E52">
         <v>0.65</v>
@@ -12640,13 +12632,13 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C53">
         <v>0.55000000000000004</v>
       </c>
       <c r="D53">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="E53">
         <v>0.89</v>
@@ -12675,13 +12667,13 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="C54">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
       <c r="D54">
-        <v>0.82</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E54">
         <v>0.59</v>
@@ -12710,13 +12702,13 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="C55">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D55">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="E55">
         <v>0.67</v>
@@ -12745,13 +12737,13 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="C56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.62</v>
+        <v>1.4</v>
       </c>
       <c r="E56">
         <v>0.65</v>
@@ -12780,13 +12772,13 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="C57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D57">
         <v>0.63</v>
-      </c>
-      <c r="D57">
-        <v>0.66</v>
       </c>
       <c r="E57">
         <v>0.68</v>
@@ -12815,13 +12807,13 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="C58">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="D58">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E58">
         <v>0.63</v>
@@ -12850,13 +12842,13 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="C59">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="D59">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="E59">
         <v>0.71</v>
@@ -12885,13 +12877,13 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C60">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="D60">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="E60">
         <v>0.84</v>
@@ -12920,13 +12912,13 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C61">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="D61">
-        <v>0.87</v>
+        <v>2.11</v>
       </c>
       <c r="E61">
         <v>0.94</v>
@@ -12955,13 +12947,13 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62">
-        <v>0.83</v>
+        <v>0.51</v>
       </c>
       <c r="C62">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="D62">
-        <v>0.61</v>
+        <v>1.48</v>
       </c>
       <c r="E62">
         <v>1.1599999999999999</v>
@@ -12990,13 +12982,13 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C63">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="D63">
-        <v>0.83</v>
+        <v>1.37</v>
       </c>
       <c r="E63">
         <v>0.93</v>
@@ -13025,13 +13017,13 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="C64">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="D64">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E64">
         <v>0.68</v>
@@ -13063,10 +13055,10 @@
         <v>0.61</v>
       </c>
       <c r="C65">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="D65">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E65">
         <v>0.64</v>
@@ -13095,13 +13087,13 @@
     </row>
     <row r="66" spans="2:12">
       <c r="B66">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="C66">
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="D66">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="E66">
         <v>0.64</v>
@@ -13130,13 +13122,13 @@
     </row>
     <row r="67" spans="2:12">
       <c r="B67">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="C67">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D67">
-        <v>0.56999999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="E67">
         <v>0.73</v>
@@ -13165,13 +13157,13 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68">
-        <v>0.57999999999999996</v>
+        <v>1.06</v>
       </c>
       <c r="C68">
-        <v>1.08</v>
+        <v>0.52</v>
       </c>
       <c r="D68">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
       <c r="E68">
         <v>0.64</v>
@@ -13200,10 +13192,10 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="C69">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="D69">
         <v>0.59</v>
@@ -13235,13 +13227,13 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="C70">
-        <v>0.57999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="D70">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="E70">
         <v>1.01</v>
@@ -13270,13 +13262,13 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C71">
-        <v>0.81</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D71">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E71">
         <v>0.88</v>
@@ -13305,13 +13297,13 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="C72">
-        <v>0.71</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D72">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="E72">
         <v>1.01</v>
@@ -13340,13 +13332,13 @@
     </row>
     <row r="73" spans="2:12">
       <c r="B73">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="C73">
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D73">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="E73">
         <v>1.03</v>
@@ -13375,13 +13367,13 @@
     </row>
     <row r="74" spans="2:12">
       <c r="B74">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C74">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="D74">
-        <v>0.98</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E74">
         <v>1.05</v>
@@ -13410,13 +13402,13 @@
     </row>
     <row r="75" spans="2:12">
       <c r="B75">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="C75">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D75">
-        <v>0.68</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E75">
         <v>0.89</v>
@@ -13445,13 +13437,13 @@
     </row>
     <row r="76" spans="2:12">
       <c r="B76">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="C76">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="D76">
-        <v>0.56000000000000005</v>
+        <v>1.04</v>
       </c>
       <c r="E76">
         <v>0.6</v>
@@ -13480,13 +13472,13 @@
     </row>
     <row r="77" spans="2:12">
       <c r="B77">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C77">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="D77">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E77">
         <v>0.68</v>
@@ -13515,13 +13507,13 @@
     </row>
     <row r="78" spans="2:12">
       <c r="B78">
-        <v>0.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C78">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="D78">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="E78">
         <v>0.68</v>
@@ -13550,13 +13542,13 @@
     </row>
     <row r="79" spans="2:12">
       <c r="B79">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="C79">
-        <v>1.1399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D79">
-        <v>0.67</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E79">
         <v>0.72</v>
@@ -13585,13 +13577,13 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80">
-        <v>0.97</v>
+        <v>0.51</v>
       </c>
       <c r="C80">
-        <v>1.1599999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="D80">
-        <v>1.1299999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E80">
         <v>0.66</v>
@@ -13620,13 +13612,13 @@
     </row>
     <row r="81" spans="2:12">
       <c r="B81">
-        <v>1.02</v>
+        <v>0.62</v>
       </c>
       <c r="C81">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="D81">
-        <v>0.64</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E81">
         <v>0.67</v>
@@ -13655,13 +13647,13 @@
     </row>
     <row r="82" spans="2:12">
       <c r="B82">
-        <v>0.95</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C82">
-        <v>0.63</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D82">
-        <v>0.69</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E82">
         <v>0.62</v>
@@ -13690,13 +13682,13 @@
     </row>
     <row r="83" spans="2:12">
       <c r="B83">
-        <v>0.76</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C83">
         <v>0.61</v>
       </c>
       <c r="D83">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="E83">
         <v>0.65</v>
@@ -13725,13 +13717,13 @@
     </row>
     <row r="84" spans="2:12">
       <c r="B84">
-        <v>0.98</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C84">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="D84">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="E84">
         <v>0.8</v>
@@ -13760,13 +13752,13 @@
     </row>
     <row r="85" spans="2:12">
       <c r="B85">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="C85">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="D85">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="E85">
         <v>0.71</v>
@@ -13795,13 +13787,13 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86">
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C86">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="D86">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="E86">
         <v>0.68</v>
@@ -13830,13 +13822,13 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87">
-        <v>1.1399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="C87">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="D87">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="E87">
         <v>0.6</v>
@@ -13865,13 +13857,13 @@
     </row>
     <row r="88" spans="2:12">
       <c r="B88">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="C88">
-        <v>0.81</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D88">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E88">
         <v>0.9</v>
@@ -13900,13 +13892,13 @@
     </row>
     <row r="89" spans="2:12">
       <c r="B89">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="C89">
-        <v>0.63</v>
+        <v>0.99</v>
       </c>
       <c r="D89">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="E89">
         <v>0.82</v>
@@ -13935,13 +13927,13 @@
     </row>
     <row r="90" spans="2:12">
       <c r="B90">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C90">
         <v>0.54</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>0.59</v>
-      </c>
-      <c r="D90">
-        <v>0.85</v>
       </c>
       <c r="E90">
         <v>0.67</v>
@@ -13970,13 +13962,13 @@
     </row>
     <row r="91" spans="2:12">
       <c r="B91">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="C91">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="D91">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E91">
         <v>0.84</v>
@@ -14005,13 +13997,13 @@
     </row>
     <row r="92" spans="2:12">
       <c r="B92">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="C92">
-        <v>0.81</v>
+        <v>0.54</v>
       </c>
       <c r="D92">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E92">
         <v>0.75</v>
@@ -14040,13 +14032,13 @@
     </row>
     <row r="93" spans="2:12">
       <c r="B93">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="C93">
+        <v>0.6</v>
+      </c>
+      <c r="D93">
         <v>0.54</v>
-      </c>
-      <c r="D93">
-        <v>0.9</v>
       </c>
       <c r="E93">
         <v>0.72</v>
@@ -14075,13 +14067,13 @@
     </row>
     <row r="94" spans="2:12">
       <c r="B94">
-        <v>0.81</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C94">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D94">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="E94">
         <v>1.01</v>
@@ -14110,13 +14102,13 @@
     </row>
     <row r="95" spans="2:12">
       <c r="B95">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="C95">
-        <v>0.63</v>
+        <v>1.23</v>
       </c>
       <c r="D95">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="E95">
         <v>0.74</v>
@@ -14145,13 +14137,13 @@
     </row>
     <row r="96" spans="2:12">
       <c r="B96">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="C96">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
       <c r="D96">
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="E96">
         <v>1.1499999999999999</v>
@@ -14180,13 +14172,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="B97">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C97">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="D97">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="E97">
         <v>0.82</v>
@@ -14215,13 +14207,13 @@
     </row>
     <row r="98" spans="1:13">
       <c r="B98">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="C98">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="D98">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E98">
         <v>0.97</v>
@@ -14250,13 +14242,13 @@
     </row>
     <row r="99" spans="1:13">
       <c r="B99">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="C99">
-        <v>0.55000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="D99">
-        <v>3.12</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E99">
         <v>0.86</v>
@@ -14285,13 +14277,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="B100">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="C100">
-        <v>0.56000000000000005</v>
+        <v>1.38</v>
       </c>
       <c r="D100">
-        <v>0.57999999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="E100">
         <v>0.66</v>
@@ -14320,13 +14312,13 @@
     </row>
     <row r="101" spans="1:13">
       <c r="B101">
-        <v>0.86</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C101">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="D101">
-        <v>0.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E101">
         <v>1.1100000000000001</v>
@@ -14359,15 +14351,15 @@
       </c>
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>0.79270000000000029</v>
+        <v>0.64670000000000016</v>
       </c>
       <c r="C103">
         <f t="shared" ref="C103:L103" si="0">AVERAGE(C2:C101)</f>
-        <v>0.72179999999999989</v>
+        <v>0.62490000000000012</v>
       </c>
       <c r="D103">
         <f t="shared" si="0"/>
-        <v>0.80970000000000009</v>
+        <v>0.74230000000000018</v>
       </c>
       <c r="E103">
         <f t="shared" si="0"/>
@@ -14408,15 +14400,15 @@
       </c>
       <c r="B104">
         <f>STDEV(B2:B101)</f>
-        <v>0.1858198051877131</v>
+        <v>0.21619321231367261</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:L104" si="1">STDEV(C2:C101)</f>
-        <v>0.25830598095665586</v>
+        <v>0.16592863867130689</v>
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>0.45422473634877114</v>
+        <v>0.31874708950939012</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
@@ -14457,15 +14449,15 @@
       </c>
       <c r="B106">
         <f>MIN(B2:B101)</f>
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="C106">
         <f t="shared" ref="C106:L106" si="2">MIN(C2:C101)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="E106">
         <f t="shared" si="2"/>
@@ -14506,15 +14498,15 @@
       </c>
       <c r="B107">
         <f>_xlfn.QUARTILE.INC(B2:B101,1)</f>
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="C107">
         <f t="shared" ref="C107:L107" si="3">_xlfn.QUARTILE.INC(C2:C101,1)</f>
-        <v>0.58749999999999991</v>
+        <v>0.53</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>0.5675</v>
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
@@ -14555,15 +14547,15 @@
       </c>
       <c r="B108">
         <f>MEDIAN(B2:B101)</f>
-        <v>0.77500000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108:L108" si="4">MEDIAN(C2:C101)</f>
-        <v>0.66500000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E108">
         <f t="shared" si="4"/>
@@ -14604,15 +14596,15 @@
       </c>
       <c r="B109">
         <f>_xlfn.QUARTILE.INC(B2:B101,3)</f>
-        <v>0.89</v>
+        <v>0.64</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:L109" si="5">_xlfn.QUARTILE.INC(C2:C101,3)</f>
-        <v>0.80249999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>0.83250000000000002</v>
+        <v>0.74249999999999994</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
@@ -14653,15 +14645,15 @@
       </c>
       <c r="B110">
         <f>MAX(B2:B101)</f>
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:L110" si="6">MAX(C2:C101)</f>
-        <v>2.84</v>
+        <v>1.38</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>3.79</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E110">
         <f t="shared" si="6"/>
@@ -14702,15 +14694,15 @@
       </c>
       <c r="B112" s="3">
         <f>B107-B106</f>
-        <v>0.10999999999999999</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="C112" s="3">
         <f t="shared" ref="C112:L112" si="7">C107-C106</f>
-        <v>6.7499999999999893E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="D112" s="3">
         <f t="shared" si="7"/>
-        <v>6.9999999999999951E-2</v>
+        <v>2.7499999999999969E-2</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="7"/>
@@ -14754,15 +14746,15 @@
       </c>
       <c r="B113" s="1">
         <f>B107</f>
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" ref="C113:L113" si="8">C107</f>
-        <v>0.58749999999999991</v>
+        <v>0.53</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="8"/>
-        <v>0.62</v>
+        <v>0.5675</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="8"/>
@@ -14806,15 +14798,15 @@
       </c>
       <c r="B114" s="1">
         <f>B108-B107</f>
-        <v>0.125</v>
+        <v>3.9999999999999925E-2</v>
       </c>
       <c r="C114" s="1">
         <f t="shared" ref="C114:L116" si="9">C108-C107</f>
-        <v>7.7500000000000124E-2</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="9"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.2499999999999991E-2</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="9"/>
@@ -14858,15 +14850,15 @@
       </c>
       <c r="B115" s="1">
         <f>B109-B108</f>
-        <v>0.11499999999999999</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" si="9"/>
-        <v>0.13749999999999996</v>
+        <v>6.4999999999999947E-2</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="9"/>
-        <v>0.15249999999999997</v>
+        <v>0.12249999999999994</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="9"/>
@@ -14910,15 +14902,15 @@
       </c>
       <c r="B116" s="2">
         <f>B110-B109</f>
-        <v>0.63</v>
+        <v>1.52</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" si="9"/>
-        <v>2.0374999999999996</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="9"/>
-        <v>2.9575</v>
+        <v>1.4775000000000003</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" si="9"/>
@@ -14973,8 +14965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15023,13 +15015,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="4">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C2">
         <v>0.08</v>
       </c>
       <c r="D2">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E2">
         <v>0.16</v>
@@ -15044,7 +15036,7 @@
         <v>2.14</v>
       </c>
       <c r="I2">
-        <v>3.48</v>
+        <v>5.2</v>
       </c>
       <c r="J2">
         <v>5.85</v>
@@ -15058,13 +15050,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="4">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C3">
         <v>0.17</v>
       </c>
       <c r="D3">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E3">
         <v>0.16</v>
@@ -15079,7 +15071,7 @@
         <v>2.37</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="J3">
         <v>5.92</v>
@@ -15099,7 +15091,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0.28000000000000003</v>
@@ -15114,7 +15106,7 @@
         <v>1.43</v>
       </c>
       <c r="I4">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="J4">
         <v>7.31</v>
@@ -15128,13 +15120,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="4">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
         <v>0.16</v>
@@ -15149,7 +15141,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I5">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="J5">
         <v>7.85</v>
@@ -15163,13 +15155,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
         <v>0.16</v>
@@ -15184,7 +15176,7 @@
         <v>1.57</v>
       </c>
       <c r="I6">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="J6">
         <v>7.88</v>
@@ -15204,7 +15196,7 @@
         <v>0.08</v>
       </c>
       <c r="D7">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <v>0.16</v>
@@ -15219,7 +15211,7 @@
         <v>1.46</v>
       </c>
       <c r="I7">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="J7">
         <v>6.99</v>
@@ -15239,7 +15231,7 @@
         <v>0.08</v>
       </c>
       <c r="D8">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
         <v>0.22</v>
@@ -15254,7 +15246,7 @@
         <v>1.65</v>
       </c>
       <c r="I8">
-        <v>2.5099999999999998</v>
+        <v>10.93</v>
       </c>
       <c r="J8">
         <v>5.86</v>
@@ -15268,13 +15260,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
         <v>0.08</v>
       </c>
       <c r="D9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -15289,7 +15281,7 @@
         <v>2.35</v>
       </c>
       <c r="I9">
-        <v>3.15</v>
+        <v>6.65</v>
       </c>
       <c r="J9">
         <v>6.52</v>
@@ -15303,13 +15295,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C10">
         <v>0.08</v>
       </c>
       <c r="D10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>0.24</v>
@@ -15324,7 +15316,7 @@
         <v>2.38</v>
       </c>
       <c r="I10">
-        <v>3.51</v>
+        <v>2.62</v>
       </c>
       <c r="J10">
         <v>6.31</v>
@@ -15338,13 +15330,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C11">
         <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0.2</v>
@@ -15359,7 +15351,7 @@
         <v>1.86</v>
       </c>
       <c r="I11">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="J11">
         <v>6.36</v>
@@ -15373,13 +15365,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="4">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
         <v>0.26</v>
@@ -15394,7 +15386,7 @@
         <v>1.54</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="J12">
         <v>7.47</v>
@@ -15429,7 +15421,7 @@
         <v>1.58</v>
       </c>
       <c r="I13">
-        <v>3.09</v>
+        <v>3.72</v>
       </c>
       <c r="J13">
         <v>7.63</v>
@@ -15449,7 +15441,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>0.18</v>
@@ -15464,7 +15456,7 @@
         <v>1.82</v>
       </c>
       <c r="I14">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="J14">
         <v>6.68</v>
@@ -15478,13 +15470,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15">
         <v>0.09</v>
       </c>
       <c r="D15">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E15">
         <v>0.17</v>
@@ -15499,7 +15491,7 @@
         <v>2.37</v>
       </c>
       <c r="I15">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="J15">
         <v>6.66</v>
@@ -15513,13 +15505,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
         <v>0.17</v>
@@ -15534,7 +15526,7 @@
         <v>1.58</v>
       </c>
       <c r="I16">
-        <v>3.99</v>
+        <v>2.52</v>
       </c>
       <c r="J16">
         <v>7.32</v>
@@ -15554,7 +15546,7 @@
         <v>0.09</v>
       </c>
       <c r="D17">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
         <v>0.21</v>
@@ -15569,7 +15561,7 @@
         <v>1.98</v>
       </c>
       <c r="I17">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="J17">
         <v>6.09</v>
@@ -15583,13 +15575,13 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D18">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
         <v>0.44</v>
@@ -15604,7 +15596,7 @@
         <v>1.48</v>
       </c>
       <c r="I18">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="J18">
         <v>6.14</v>
@@ -15624,7 +15616,7 @@
         <v>0.08</v>
       </c>
       <c r="D19">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
         <v>0.17</v>
@@ -15639,7 +15631,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>4.05</v>
+        <v>6.41</v>
       </c>
       <c r="J19">
         <v>6.73</v>
@@ -15659,7 +15651,7 @@
         <v>0.09</v>
       </c>
       <c r="D20">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E20">
         <v>0.17</v>
@@ -15674,7 +15666,7 @@
         <v>1.43</v>
       </c>
       <c r="I20">
-        <v>2.8</v>
+        <v>8.86</v>
       </c>
       <c r="J20">
         <v>8.23</v>
@@ -15694,7 +15686,7 @@
         <v>0.08</v>
       </c>
       <c r="D21">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
         <v>0.19</v>
@@ -15709,7 +15701,7 @@
         <v>1.34</v>
       </c>
       <c r="I21">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="J21">
         <v>7.7</v>
@@ -15723,13 +15715,13 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C22">
         <v>0.08</v>
       </c>
       <c r="D22">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <v>0.17</v>
@@ -15744,7 +15736,7 @@
         <v>1.27</v>
       </c>
       <c r="I22">
-        <v>3.74</v>
+        <v>7.36</v>
       </c>
       <c r="J22">
         <v>7.62</v>
@@ -15758,13 +15750,13 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C23">
         <v>0.08</v>
       </c>
       <c r="D23">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E23">
         <v>0.3</v>
@@ -15779,7 +15771,7 @@
         <v>1.7</v>
       </c>
       <c r="I23">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>6.72</v>
@@ -15793,13 +15785,13 @@
     </row>
     <row r="24" spans="2:12">
       <c r="B24">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D24">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E24">
         <v>0.15</v>
@@ -15814,7 +15806,7 @@
         <v>1.6</v>
       </c>
       <c r="I24">
-        <v>3.97</v>
+        <v>2.97</v>
       </c>
       <c r="J24">
         <v>7.66</v>
@@ -15834,7 +15826,7 @@
         <v>0.08</v>
       </c>
       <c r="D25">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E25">
         <v>0.23</v>
@@ -15849,7 +15841,7 @@
         <v>1.46</v>
       </c>
       <c r="I25">
-        <v>3.92</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J25">
         <v>12.55</v>
@@ -15863,13 +15855,13 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C26">
         <v>0.12</v>
       </c>
       <c r="D26">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E26">
         <v>0.22</v>
@@ -15884,7 +15876,7 @@
         <v>1.81</v>
       </c>
       <c r="I26">
-        <v>3.19</v>
+        <v>2.83</v>
       </c>
       <c r="J26">
         <v>7.02</v>
@@ -15898,7 +15890,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C27">
         <v>0.11</v>
@@ -15919,7 +15911,7 @@
         <v>1.69</v>
       </c>
       <c r="I27">
-        <v>4.24</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>6.93</v>
@@ -15933,13 +15925,13 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C28">
         <v>0.11</v>
       </c>
       <c r="D28">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E28">
         <v>0.18</v>
@@ -15954,7 +15946,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="I28">
-        <v>5.74</v>
+        <v>3.76</v>
       </c>
       <c r="J28">
         <v>6.17</v>
@@ -15968,13 +15960,13 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C29">
         <v>0.12</v>
       </c>
       <c r="D29">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E29">
         <v>0.23</v>
@@ -15989,7 +15981,7 @@
         <v>1.96</v>
       </c>
       <c r="I29">
-        <v>7.2</v>
+        <v>3.76</v>
       </c>
       <c r="J29">
         <v>6.92</v>
@@ -16003,13 +15995,13 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C30">
         <v>0.15</v>
       </c>
       <c r="D30">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E30">
         <v>0.15</v>
@@ -16024,7 +16016,7 @@
         <v>1.93</v>
       </c>
       <c r="I30">
-        <v>3.96</v>
+        <v>2.87</v>
       </c>
       <c r="J30">
         <v>6.75</v>
@@ -16044,7 +16036,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E31">
         <v>0.28999999999999998</v>
@@ -16059,7 +16051,7 @@
         <v>1.9</v>
       </c>
       <c r="I31">
-        <v>3.99</v>
+        <v>2.65</v>
       </c>
       <c r="J31">
         <v>6.01</v>
@@ -16094,7 +16086,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="I32">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="J32">
         <v>6.17</v>
@@ -16114,7 +16106,7 @@
         <v>0.08</v>
       </c>
       <c r="D33">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E33">
         <v>0.24</v>
@@ -16129,7 +16121,7 @@
         <v>1.59</v>
       </c>
       <c r="I33">
-        <v>7.39</v>
+        <v>2.85</v>
       </c>
       <c r="J33">
         <v>8.16</v>
@@ -16149,7 +16141,7 @@
         <v>0.08</v>
       </c>
       <c r="D34">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E34">
         <v>0.17</v>
@@ -16164,7 +16156,7 @@
         <v>1.7</v>
       </c>
       <c r="I34">
-        <v>4.1100000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="J34">
         <v>6.25</v>
@@ -16178,13 +16170,13 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C35">
         <v>0.11</v>
       </c>
       <c r="D35">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E35">
         <v>0.17</v>
@@ -16199,7 +16191,7 @@
         <v>1.47</v>
       </c>
       <c r="I35">
-        <v>4.0599999999999996</v>
+        <v>7.47</v>
       </c>
       <c r="J35">
         <v>7.6</v>
@@ -16213,13 +16205,13 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C36">
         <v>0.09</v>
       </c>
       <c r="D36">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E36">
         <v>0.15</v>
@@ -16234,7 +16226,7 @@
         <v>1.89</v>
       </c>
       <c r="I36">
-        <v>4.75</v>
+        <v>6.61</v>
       </c>
       <c r="J36">
         <v>6.02</v>
@@ -16248,13 +16240,13 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C37">
         <v>0.17</v>
       </c>
       <c r="D37">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E37">
         <v>0.17</v>
@@ -16269,7 +16261,7 @@
         <v>1.99</v>
       </c>
       <c r="I37">
-        <v>4.13</v>
+        <v>2.79</v>
       </c>
       <c r="J37">
         <v>6.76</v>
@@ -16289,7 +16281,7 @@
         <v>0.1</v>
       </c>
       <c r="D38">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E38">
         <v>0.19</v>
@@ -16304,7 +16296,7 @@
         <v>1.96</v>
       </c>
       <c r="I38">
-        <v>7.93</v>
+        <v>5.01</v>
       </c>
       <c r="J38">
         <v>7.04</v>
@@ -16324,7 +16316,7 @@
         <v>0.11</v>
       </c>
       <c r="D39">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E39">
         <v>0.17</v>
@@ -16339,7 +16331,7 @@
         <v>1.92</v>
       </c>
       <c r="I39">
-        <v>3.91</v>
+        <v>6.6</v>
       </c>
       <c r="J39">
         <v>6.63</v>
@@ -16359,7 +16351,7 @@
         <v>0.08</v>
       </c>
       <c r="D40">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E40">
         <v>0.18</v>
@@ -16374,7 +16366,7 @@
         <v>1.36</v>
       </c>
       <c r="I40">
-        <v>4.16</v>
+        <v>3.14</v>
       </c>
       <c r="J40">
         <v>5.72</v>
@@ -16409,7 +16401,7 @@
         <v>2.4</v>
       </c>
       <c r="I41">
-        <v>4.3099999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J41">
         <v>5.81</v>
@@ -16423,13 +16415,13 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C42">
         <v>0.14000000000000001</v>
       </c>
       <c r="D42">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E42">
         <v>0.2</v>
@@ -16444,7 +16436,7 @@
         <v>2.1</v>
       </c>
       <c r="I42">
-        <v>4.22</v>
+        <v>5.26</v>
       </c>
       <c r="J42">
         <v>7.86</v>
@@ -16464,7 +16456,7 @@
         <v>0.09</v>
       </c>
       <c r="D43">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="E43">
         <v>0.17</v>
@@ -16479,7 +16471,7 @@
         <v>2.21</v>
       </c>
       <c r="I43">
-        <v>5.07</v>
+        <v>3.16</v>
       </c>
       <c r="J43">
         <v>6.59</v>
@@ -16499,7 +16491,7 @@
         <v>0.19</v>
       </c>
       <c r="D44">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
         <v>0.33</v>
@@ -16514,7 +16506,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I44">
-        <v>10.55</v>
+        <v>2.68</v>
       </c>
       <c r="J44">
         <v>7.66</v>
@@ -16528,13 +16520,13 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C45">
         <v>0.1</v>
       </c>
       <c r="D45">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E45">
         <v>0.16</v>
@@ -16549,7 +16541,7 @@
         <v>1.99</v>
       </c>
       <c r="I45">
-        <v>7.32</v>
+        <v>2.76</v>
       </c>
       <c r="J45">
         <v>5.47</v>
@@ -16584,7 +16576,7 @@
         <v>1.98</v>
       </c>
       <c r="I46">
-        <v>3.97</v>
+        <v>2.48</v>
       </c>
       <c r="J46">
         <v>6.48</v>
@@ -16604,7 +16596,7 @@
         <v>0.16</v>
       </c>
       <c r="D47">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E47">
         <v>0.19</v>
@@ -16619,7 +16611,7 @@
         <v>2.34</v>
       </c>
       <c r="I47">
-        <v>3.5</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J47">
         <v>6.69</v>
@@ -16639,7 +16631,7 @@
         <v>0.08</v>
       </c>
       <c r="D48">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="E48">
         <v>0.16</v>
@@ -16654,7 +16646,7 @@
         <v>1.62</v>
       </c>
       <c r="I48">
-        <v>4.24</v>
+        <v>2.71</v>
       </c>
       <c r="J48">
         <v>6.24</v>
@@ -16668,13 +16660,13 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C49">
         <v>0.08</v>
       </c>
       <c r="D49">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E49">
         <v>0.24</v>
@@ -16689,7 +16681,7 @@
         <v>1.47</v>
       </c>
       <c r="I49">
-        <v>4.1100000000000003</v>
+        <v>2.82</v>
       </c>
       <c r="J49">
         <v>7.15</v>
@@ -16703,13 +16695,13 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C50">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D50">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E50">
         <v>0.17</v>
@@ -16724,7 +16716,7 @@
         <v>1.45</v>
       </c>
       <c r="I50">
-        <v>3.68</v>
+        <v>2.76</v>
       </c>
       <c r="J50">
         <v>6.08</v>
@@ -16738,7 +16730,7 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C51">
         <v>0.09</v>
@@ -16759,7 +16751,7 @@
         <v>1.34</v>
       </c>
       <c r="I51">
-        <v>4.2300000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="J51">
         <v>7.14</v>
@@ -16773,13 +16765,13 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C52">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D52">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E52">
         <v>0.18</v>
@@ -16794,7 +16786,7 @@
         <v>1.42</v>
       </c>
       <c r="I52">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="J52">
         <v>7.63</v>
@@ -16814,7 +16806,7 @@
         <v>0.08</v>
       </c>
       <c r="D53">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E53">
         <v>0.23</v>
@@ -16829,7 +16821,7 @@
         <v>1.58</v>
       </c>
       <c r="I53">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="J53">
         <v>6.8</v>
@@ -16843,13 +16835,13 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C54">
         <v>0.09</v>
       </c>
       <c r="D54">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E54">
         <v>0.16</v>
@@ -16864,7 +16856,7 @@
         <v>2.11</v>
       </c>
       <c r="I54">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J54">
         <v>7.28</v>
@@ -16878,13 +16870,13 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C55">
         <v>0.08</v>
       </c>
       <c r="D55">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E55">
         <v>0.22</v>
@@ -16899,7 +16891,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="J55">
         <v>6.29</v>
@@ -16913,13 +16905,13 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C56">
         <v>0.08</v>
       </c>
       <c r="D56">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="E56">
         <v>0.18</v>
@@ -16934,7 +16926,7 @@
         <v>1.6</v>
       </c>
       <c r="I56">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="J56">
         <v>6.17</v>
@@ -16948,13 +16940,13 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C57">
         <v>0.11</v>
       </c>
       <c r="D57">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="E57">
         <v>0.15</v>
@@ -16969,7 +16961,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="I57">
-        <v>2.86</v>
+        <v>4.26</v>
       </c>
       <c r="J57">
         <v>7.6</v>
@@ -16983,13 +16975,13 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C58">
         <v>0.08</v>
       </c>
       <c r="D58">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E58">
         <v>0.23</v>
@@ -17004,7 +16996,7 @@
         <v>2.16</v>
       </c>
       <c r="I58">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="J58">
         <v>7.38</v>
@@ -17018,13 +17010,13 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C59">
         <v>0.15</v>
       </c>
       <c r="D59">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E59">
         <v>0.18</v>
@@ -17039,7 +17031,7 @@
         <v>1.36</v>
       </c>
       <c r="I59">
-        <v>3.71</v>
+        <v>2.64</v>
       </c>
       <c r="J59">
         <v>7.41</v>
@@ -17053,13 +17045,13 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C60">
         <v>0.09</v>
       </c>
       <c r="D60">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E60">
         <v>0.15</v>
@@ -17074,7 +17066,7 @@
         <v>2.29</v>
       </c>
       <c r="I60">
-        <v>3.93</v>
+        <v>2.7</v>
       </c>
       <c r="J60">
         <v>7.6</v>
@@ -17088,13 +17080,13 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C61">
         <v>0.09</v>
       </c>
       <c r="D61">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E61">
         <v>0.17</v>
@@ -17109,7 +17101,7 @@
         <v>1.7</v>
       </c>
       <c r="I61">
-        <v>3.26</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J61">
         <v>6.28</v>
@@ -17123,13 +17115,13 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C62">
         <v>0.12</v>
       </c>
       <c r="D62">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="E62">
         <v>0.19</v>
@@ -17144,7 +17136,7 @@
         <v>1.51</v>
       </c>
       <c r="I62">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="J62">
         <v>6.4</v>
@@ -17164,7 +17156,7 @@
         <v>0.08</v>
       </c>
       <c r="D63">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E63">
         <v>0.23</v>
@@ -17179,7 +17171,7 @@
         <v>1.98</v>
       </c>
       <c r="I63">
-        <v>3.29</v>
+        <v>2.68</v>
       </c>
       <c r="J63">
         <v>6.31</v>
@@ -17193,13 +17185,13 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C64">
         <v>0.08</v>
       </c>
       <c r="D64">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E64">
         <v>0.36</v>
@@ -17214,7 +17206,7 @@
         <v>2.11</v>
       </c>
       <c r="I64">
-        <v>2.91</v>
+        <v>2.81</v>
       </c>
       <c r="J64">
         <v>6.79</v>
@@ -17228,13 +17220,13 @@
     </row>
     <row r="65" spans="2:12">
       <c r="B65">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C65">
         <v>0.1</v>
       </c>
       <c r="D65">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="E65">
         <v>0.23</v>
@@ -17249,7 +17241,7 @@
         <v>2.06</v>
       </c>
       <c r="I65">
-        <v>3.24</v>
+        <v>2.65</v>
       </c>
       <c r="J65">
         <v>8.01</v>
@@ -17269,7 +17261,7 @@
         <v>0.11</v>
       </c>
       <c r="D66">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E66">
         <v>0.15</v>
@@ -17284,7 +17276,7 @@
         <v>1.64</v>
       </c>
       <c r="I66">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="J66">
         <v>6.05</v>
@@ -17304,7 +17296,7 @@
         <v>0.08</v>
       </c>
       <c r="D67">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E67">
         <v>0.19</v>
@@ -17319,7 +17311,7 @@
         <v>1.99</v>
       </c>
       <c r="I67">
-        <v>3.15</v>
+        <v>2.69</v>
       </c>
       <c r="J67">
         <v>6.6</v>
@@ -17333,13 +17325,13 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C68">
         <v>0.08</v>
       </c>
       <c r="D68">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E68">
         <v>0.17</v>
@@ -17354,7 +17346,7 @@
         <v>1.55</v>
       </c>
       <c r="I68">
-        <v>2.85</v>
+        <v>8.14</v>
       </c>
       <c r="J68">
         <v>9.01</v>
@@ -17374,7 +17366,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D69">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E69">
         <v>0.25</v>
@@ -17389,7 +17381,7 @@
         <v>1.77</v>
       </c>
       <c r="I69">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="J69">
         <v>6.14</v>
@@ -17403,13 +17395,13 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C70">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D70">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E70">
         <v>0.17</v>
@@ -17424,7 +17416,7 @@
         <v>1.64</v>
       </c>
       <c r="I70">
-        <v>2.96</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J70">
         <v>6.48</v>
@@ -17438,13 +17430,13 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C71">
         <v>0.12</v>
       </c>
       <c r="D71">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E71">
         <v>0.18</v>
@@ -17459,7 +17451,7 @@
         <v>3.58</v>
       </c>
       <c r="I71">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="J71">
         <v>7.69</v>
@@ -17473,13 +17465,13 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C72">
         <v>0.12</v>
       </c>
       <c r="D72">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E72">
         <v>0.18</v>
@@ -17494,7 +17486,7 @@
         <v>1.37</v>
       </c>
       <c r="I72">
-        <v>2.74</v>
+        <v>3.23</v>
       </c>
       <c r="J72">
         <v>6.76</v>
@@ -17514,7 +17506,7 @@
         <v>0.15</v>
       </c>
       <c r="D73">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E73">
         <v>0.26</v>
@@ -17529,7 +17521,7 @@
         <v>1.94</v>
       </c>
       <c r="I73">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="J73">
         <v>6.17</v>
@@ -17543,13 +17535,13 @@
     </row>
     <row r="74" spans="2:12">
       <c r="B74">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C74">
         <v>0.08</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E74">
         <v>0.23</v>
@@ -17564,7 +17556,7 @@
         <v>1.76</v>
       </c>
       <c r="I74">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="J74">
         <v>7.71</v>
@@ -17584,7 +17576,7 @@
         <v>0.08</v>
       </c>
       <c r="D75">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E75">
         <v>0.16</v>
@@ -17599,7 +17591,7 @@
         <v>1.76</v>
       </c>
       <c r="I75">
-        <v>3.16</v>
+        <v>3.88</v>
       </c>
       <c r="J75">
         <v>6.7</v>
@@ -17613,13 +17605,13 @@
     </row>
     <row r="76" spans="2:12">
       <c r="B76">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C76">
         <v>0.09</v>
       </c>
       <c r="D76">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E76">
         <v>0.17</v>
@@ -17634,7 +17626,7 @@
         <v>1.87</v>
       </c>
       <c r="I76">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="J76">
         <v>6.67</v>
@@ -17654,7 +17646,7 @@
         <v>0.09</v>
       </c>
       <c r="D77">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E77">
         <v>0.16</v>
@@ -17669,7 +17661,7 @@
         <v>1.45</v>
       </c>
       <c r="I77">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="J77">
         <v>6.66</v>
@@ -17683,13 +17675,13 @@
     </row>
     <row r="78" spans="2:12">
       <c r="B78">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C78">
         <v>0.12</v>
       </c>
       <c r="D78">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E78">
         <v>0.17</v>
@@ -17704,7 +17696,7 @@
         <v>1.92</v>
       </c>
       <c r="I78">
-        <v>4.7</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J78">
         <v>7.47</v>
@@ -17718,13 +17710,13 @@
     </row>
     <row r="79" spans="2:12">
       <c r="B79">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C79">
         <v>0.11</v>
       </c>
       <c r="D79">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E79">
         <v>0.16</v>
@@ -17739,7 +17731,7 @@
         <v>1.55</v>
       </c>
       <c r="I79">
-        <v>2.97</v>
+        <v>5.77</v>
       </c>
       <c r="J79">
         <v>5.86</v>
@@ -17753,7 +17745,7 @@
     </row>
     <row r="80" spans="2:12">
       <c r="B80">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C80">
         <v>0.09</v>
@@ -17774,7 +17766,7 @@
         <v>1.95</v>
       </c>
       <c r="I80">
-        <v>3.16</v>
+        <v>2.64</v>
       </c>
       <c r="J80">
         <v>5.97</v>
@@ -17809,7 +17801,7 @@
         <v>1.47</v>
       </c>
       <c r="I81">
-        <v>3.46</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J81">
         <v>6</v>
@@ -17823,13 +17815,13 @@
     </row>
     <row r="82" spans="2:12">
       <c r="B82">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C82">
         <v>0.12</v>
       </c>
       <c r="D82">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E82">
         <v>0.19</v>
@@ -17844,7 +17836,7 @@
         <v>1.52</v>
       </c>
       <c r="I82">
-        <v>4.03</v>
+        <v>2.73</v>
       </c>
       <c r="J82">
         <v>6.41</v>
@@ -17864,7 +17856,7 @@
         <v>0.1</v>
       </c>
       <c r="D83">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E83">
         <v>0.16</v>
@@ -17879,7 +17871,7 @@
         <v>1.96</v>
       </c>
       <c r="I83">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="J83">
         <v>7.68</v>
@@ -17893,13 +17885,13 @@
     </row>
     <row r="84" spans="2:12">
       <c r="B84">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C84">
         <v>0.11</v>
       </c>
       <c r="D84">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E84">
         <v>0.17</v>
@@ -17914,7 +17906,7 @@
         <v>2.31</v>
       </c>
       <c r="I84">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -17928,13 +17920,13 @@
     </row>
     <row r="85" spans="2:12">
       <c r="B85">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C85">
         <v>0.08</v>
       </c>
       <c r="D85">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E85">
         <v>0.27</v>
@@ -17949,7 +17941,7 @@
         <v>2.19</v>
       </c>
       <c r="I85">
-        <v>4.18</v>
+        <v>2.6</v>
       </c>
       <c r="J85">
         <v>6.64</v>
@@ -17963,7 +17955,7 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C86">
         <v>0.21</v>
@@ -17984,7 +17976,7 @@
         <v>1.63</v>
       </c>
       <c r="I86">
-        <v>24.13</v>
+        <v>2.6</v>
       </c>
       <c r="J86">
         <v>5.88</v>
@@ -17998,13 +17990,13 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="C87">
         <v>0.09</v>
       </c>
       <c r="D87">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E87">
         <v>0.15</v>
@@ -18019,7 +18011,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="I87">
-        <v>3.47</v>
+        <v>2.64</v>
       </c>
       <c r="J87">
         <v>6.54</v>
@@ -18033,7 +18025,7 @@
     </row>
     <row r="88" spans="2:12">
       <c r="B88">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C88">
         <v>0.12</v>
@@ -18054,7 +18046,7 @@
         <v>2</v>
       </c>
       <c r="I88">
-        <v>5.68</v>
+        <v>3.52</v>
       </c>
       <c r="J88">
         <v>6.19</v>
@@ -18068,13 +18060,13 @@
     </row>
     <row r="89" spans="2:12">
       <c r="B89">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C89">
         <v>0.08</v>
       </c>
       <c r="D89">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="E89">
         <v>0.17</v>
@@ -18089,7 +18081,7 @@
         <v>1.36</v>
       </c>
       <c r="I89">
-        <v>3.08</v>
+        <v>2.72</v>
       </c>
       <c r="J89">
         <v>6.35</v>
@@ -18103,7 +18095,7 @@
     </row>
     <row r="90" spans="2:12">
       <c r="B90">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="C90">
         <v>0.08</v>
@@ -18124,7 +18116,7 @@
         <v>1.64</v>
       </c>
       <c r="I90">
-        <v>3.56</v>
+        <v>2.74</v>
       </c>
       <c r="J90">
         <v>8.19</v>
@@ -18138,13 +18130,13 @@
     </row>
     <row r="91" spans="2:12">
       <c r="B91">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C91">
         <v>0.11</v>
       </c>
       <c r="D91">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E91">
         <v>0.16</v>
@@ -18159,7 +18151,7 @@
         <v>1.94</v>
       </c>
       <c r="I91">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="J91">
         <v>6.86</v>
@@ -18173,13 +18165,13 @@
     </row>
     <row r="92" spans="2:12">
       <c r="B92">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C92">
         <v>0.08</v>
       </c>
       <c r="D92">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E92">
         <v>0.15</v>
@@ -18194,7 +18186,7 @@
         <v>1.44</v>
       </c>
       <c r="I92">
-        <v>3.93</v>
+        <v>2.84</v>
       </c>
       <c r="J92">
         <v>6.94</v>
@@ -18229,7 +18221,7 @@
         <v>1.81</v>
       </c>
       <c r="I93">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="J93">
         <v>9.77</v>
@@ -18264,7 +18256,7 @@
         <v>5.54</v>
       </c>
       <c r="I94">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J94">
         <v>6.6</v>
@@ -18284,7 +18276,7 @@
         <v>0.09</v>
       </c>
       <c r="D95">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E95">
         <v>0.15</v>
@@ -18299,7 +18291,7 @@
         <v>1.52</v>
       </c>
       <c r="I95">
-        <v>3.81</v>
+        <v>3.37</v>
       </c>
       <c r="J95">
         <v>6.6</v>
@@ -18319,7 +18311,7 @@
         <v>0.08</v>
       </c>
       <c r="D96">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E96">
         <v>0.16</v>
@@ -18334,7 +18326,7 @@
         <v>1.85</v>
       </c>
       <c r="I96">
-        <v>3.86</v>
+        <v>3.72</v>
       </c>
       <c r="J96">
         <v>8.16</v>
@@ -18348,13 +18340,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="B97">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C97">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D97">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E97">
         <v>0.17</v>
@@ -18369,7 +18361,7 @@
         <v>1.3</v>
       </c>
       <c r="I97">
-        <v>3.51</v>
+        <v>2.8</v>
       </c>
       <c r="J97">
         <v>6.58</v>
@@ -18383,7 +18375,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="B98">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C98">
         <v>0.08</v>
@@ -18404,7 +18396,7 @@
         <v>3.96</v>
       </c>
       <c r="I98">
-        <v>3.04</v>
+        <v>2.63</v>
       </c>
       <c r="J98">
         <v>7.29</v>
@@ -18418,13 +18410,13 @@
     </row>
     <row r="99" spans="1:13">
       <c r="B99">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C99">
         <v>0.08</v>
       </c>
       <c r="D99">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E99">
         <v>0.19</v>
@@ -18439,7 +18431,7 @@
         <v>1.72</v>
       </c>
       <c r="I99">
-        <v>3.88</v>
+        <v>2.73</v>
       </c>
       <c r="J99">
         <v>8.11</v>
@@ -18453,13 +18445,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="B100">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C100">
         <v>0.08</v>
       </c>
       <c r="D100">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E100">
         <v>0.2</v>
@@ -18474,7 +18466,7 @@
         <v>1.39</v>
       </c>
       <c r="I100">
-        <v>2.98</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J100">
         <v>9.2799999999999994</v>
@@ -18488,13 +18480,13 @@
     </row>
     <row r="101" spans="1:13">
       <c r="B101">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C101">
         <v>0.08</v>
       </c>
       <c r="D101">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E101">
         <v>0.23</v>
@@ -18509,7 +18501,7 @@
         <v>1.4</v>
       </c>
       <c r="I101">
-        <v>3.65</v>
+        <v>2.61</v>
       </c>
       <c r="J101">
         <v>6.8</v>
@@ -18527,7 +18519,7 @@
       </c>
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>8.5800000000000015E-2</v>
+        <v>7.6500000000000054E-2</v>
       </c>
       <c r="C103">
         <f t="shared" ref="C103:L103" si="0">AVERAGE(C2:C101)</f>
@@ -18535,7 +18527,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="0"/>
-        <v>0.1470999999999999</v>
+        <v>0.11079999999999986</v>
       </c>
       <c r="E103">
         <f t="shared" si="0"/>
@@ -18555,7 +18547,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="0"/>
-        <v>3.9916000000000009</v>
+        <v>3.5688000000000017</v>
       </c>
       <c r="J103">
         <f t="shared" si="0"/>
@@ -18576,7 +18568,7 @@
       </c>
       <c r="B104">
         <f>STDEV(B2:B101)</f>
-        <v>3.1145795961262619E-2</v>
+        <v>1.2175069742400603E-2</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:L104" si="1">STDEV(C2:C101)</f>
@@ -18584,7 +18576,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>8.7539832203530538E-2</v>
+        <v>1.5549205052921724E-2</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
@@ -18604,7 +18596,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
-        <v>2.3586379908152852</v>
+        <v>1.5254317355417659</v>
       </c>
       <c r="J104">
         <f t="shared" si="1"/>
@@ -18653,7 +18645,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="2"/>
-        <v>2.5099999999999998</v>
+        <v>2.48</v>
       </c>
       <c r="J106">
         <f t="shared" si="2"/>
@@ -18682,7 +18674,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
@@ -18702,7 +18694,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
-        <v>3.0724999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="J107">
         <f t="shared" si="3"/>
@@ -18723,7 +18715,7 @@
       </c>
       <c r="B108">
         <f>MEDIAN(B2:B101)</f>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108:L108" si="4">MEDIAN(C2:C101)</f>
@@ -18731,7 +18723,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E108">
         <f t="shared" si="4"/>
@@ -18751,7 +18743,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="4"/>
-        <v>3.5449999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="J108">
         <f t="shared" si="4"/>
@@ -18772,7 +18764,7 @@
       </c>
       <c r="B109">
         <f>_xlfn.QUARTILE.INC(B2:B101,3)</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:L109" si="5">_xlfn.QUARTILE.INC(C2:C101,3)</f>
@@ -18780,7 +18772,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
@@ -18800,7 +18792,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="5"/>
-        <v>4.0325000000000006</v>
+        <v>3.7524999999999999</v>
       </c>
       <c r="J109">
         <f t="shared" si="5"/>
@@ -18821,7 +18813,7 @@
       </c>
       <c r="B110">
         <f>MAX(B2:B101)</f>
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:L110" si="6">MAX(C2:C101)</f>
@@ -18829,7 +18821,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>0.95</v>
+        <v>0.18</v>
       </c>
       <c r="E110">
         <f t="shared" si="6"/>
@@ -18849,7 +18841,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="6"/>
-        <v>24.13</v>
+        <v>10.93</v>
       </c>
       <c r="J110">
         <f t="shared" si="6"/>
@@ -18878,7 +18870,7 @@
       </c>
       <c r="D112" s="3">
         <f t="shared" si="7"/>
-        <v>9.999999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="7"/>
@@ -18898,7 +18890,7 @@
       </c>
       <c r="I112" s="3">
         <f t="shared" si="7"/>
-        <v>0.5625</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="J112" s="3">
         <f t="shared" si="7"/>
@@ -18930,7 +18922,7 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="8"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="8"/>
@@ -18950,7 +18942,7 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" si="8"/>
-        <v>3.0724999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="8"/>
@@ -18974,7 +18966,7 @@
       </c>
       <c r="B114" s="1">
         <f>B108-B107</f>
-        <v>9.999999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
         <f t="shared" ref="C114:L116" si="9">C108-C107</f>
@@ -19002,7 +18994,7 @@
       </c>
       <c r="I114" s="1">
         <f t="shared" si="9"/>
-        <v>0.47250000000000014</v>
+        <v>0.21999999999999975</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="9"/>
@@ -19026,7 +19018,7 @@
       </c>
       <c r="B115" s="1">
         <f>B109-B108</f>
-        <v>2.5000000000000022E-3</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" si="9"/>
@@ -19034,7 +19026,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="9"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="9"/>
@@ -19054,7 +19046,7 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" si="9"/>
-        <v>0.48750000000000071</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="9"/>
@@ -19078,7 +19070,7 @@
       </c>
       <c r="B116" s="2">
         <f>B110-B109</f>
-        <v>0.23749999999999999</v>
+        <v>6.0000000000000012E-2</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" si="9"/>
@@ -19086,7 +19078,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" si="9"/>
-        <v>0.78999999999999992</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" si="9"/>
@@ -19106,7 +19098,7 @@
       </c>
       <c r="I116" s="2">
         <f t="shared" si="9"/>
-        <v>20.097499999999997</v>
+        <v>7.1775000000000002</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" si="9"/>
@@ -19141,8 +19133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
